--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -11,8 +11,12 @@
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$116</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$116</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="433">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1173,7 +1177,7 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors". </t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Max 15</t>
@@ -1185,9 +1189,6 @@
     <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD</t>
   </si>
   <si>
@@ -1195,9 +1196,6 @@
   </si>
   <si>
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors". </t>
   </si>
   <si>
     <t xml:space="preserve">86
@@ -1207,15 +1205,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD Min faces Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин % фейсов Кока-Кола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
   </si>
   <si>
@@ -1234,16 +1223,10 @@
     <t xml:space="preserve">SSD 1 door, SSD  1.5 door, Mixed 1 door, Mixed  1.5 door</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2-3 полке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=2</t>
   </si>
   <si>
     <t xml:space="preserve">89
@@ -1566,8 +1549,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1585,7 +1568,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1803,7 +1786,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1821,7 +1804,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1847,7 +1830,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BD116"/>
+  <dimension ref="A1:BD65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1857,40 +1840,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.7044534412955"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="40.3846153846154"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="88.3724696356275"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="79.2672064777328"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.0526315789474"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -9263,7 +9246,7 @@
         <v>336</v>
       </c>
       <c r="AH96" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AI96" s="7" t="n">
         <v>2</v>
@@ -9294,10 +9277,10 @@
         <v>302</v>
       </c>
       <c r="F97" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>74</v>
@@ -9327,7 +9310,7 @@
       <c r="AA97" s="7"/>
       <c r="AB97" s="7"/>
       <c r="AC97" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AD97" s="15" t="n">
         <v>0.03</v>
@@ -9342,7 +9325,7 @@
         <v>336</v>
       </c>
       <c r="AH97" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AI97" s="7" t="n">
         <v>2</v>
@@ -9351,7 +9334,7 @@
         <v>85</v>
       </c>
       <c r="AK97" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AL97" s="24" t="n">
         <v>312</v>
@@ -9360,7 +9343,7 @@
     </row>
     <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>38</v>
@@ -9373,26 +9356,36 @@
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H98" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="G98" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
+      <c r="J98" s="7" t="n">
+        <v>0.4</v>
+      </c>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="11"/>
+      <c r="M98" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>369</v>
+      </c>
       <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
+      <c r="P98" s="11" t="s">
+        <v>369</v>
+      </c>
       <c r="Q98" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="R98" s="7"/>
+      <c r="R98" s="19" t="s">
+        <v>310</v>
+      </c>
       <c r="S98" s="7"/>
       <c r="T98" s="7"/>
       <c r="U98" s="7"/>
@@ -9400,21 +9393,25 @@
       <c r="W98" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="X98" s="7"/>
+      <c r="X98" s="7" t="s">
+        <v>370</v>
+      </c>
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
       <c r="AA98" s="7"/>
       <c r="AB98" s="7"/>
       <c r="AC98" s="7" t="s">
-        <v>84</v>
+        <v>363</v>
       </c>
       <c r="AD98" s="9"/>
-      <c r="AE98" s="16"/>
+      <c r="AE98" s="7"/>
       <c r="AF98" s="7"/>
       <c r="AG98" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="AH98" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="AH98" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="AI98" s="7" t="n">
         <v>3</v>
       </c>
@@ -9429,7 +9426,7 @@
     </row>
     <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>38</v>
@@ -9442,36 +9439,28 @@
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>372</v>
+        <v>280</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="N99" s="11" t="s">
-        <v>374</v>
-      </c>
+      <c r="M99" s="7"/>
+      <c r="N99" s="11"/>
       <c r="O99" s="11"/>
-      <c r="P99" s="11" t="s">
-        <v>374</v>
-      </c>
+      <c r="P99" s="11"/>
       <c r="Q99" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R99" s="19" t="s">
-        <v>310</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="R99" s="7"/>
       <c r="S99" s="7"/>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
@@ -9479,38 +9468,40 @@
       <c r="W99" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="X99" s="7" t="s">
-        <v>375</v>
-      </c>
+      <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
       <c r="AA99" s="7"/>
       <c r="AB99" s="7"/>
       <c r="AC99" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AD99" s="9"/>
       <c r="AE99" s="7"/>
       <c r="AF99" s="7"/>
       <c r="AG99" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="AH99" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="AH99" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="AI99" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ99" s="7" t="n">
-        <v>87</v>
-      </c>
-      <c r="AK99" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="AK99" s="20" t="s">
+        <v>373</v>
+      </c>
       <c r="AL99" s="7" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BD99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>38</v>
@@ -9523,28 +9514,36 @@
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="11"/>
+      <c r="M100" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>369</v>
+      </c>
       <c r="O100" s="11"/>
-      <c r="P100" s="11"/>
+      <c r="P100" s="11" t="s">
+        <v>369</v>
+      </c>
       <c r="Q100" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="R100" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="R100" s="19" t="s">
+        <v>310</v>
+      </c>
       <c r="S100" s="7"/>
       <c r="T100" s="7"/>
       <c r="U100" s="7"/>
@@ -9552,38 +9551,42 @@
       <c r="W100" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="X100" s="7"/>
+      <c r="X100" s="13" t="s">
+        <v>376</v>
+      </c>
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
       <c r="AA100" s="7"/>
-      <c r="AB100" s="7"/>
+      <c r="AB100" s="7" t="s">
+        <v>377</v>
+      </c>
       <c r="AC100" s="7" t="s">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="AD100" s="9"/>
       <c r="AE100" s="7"/>
       <c r="AF100" s="7"/>
       <c r="AG100" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AH100" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="AH100" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="AI100" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ100" s="7" t="n">
+        <v>89</v>
+      </c>
+      <c r="AK100" s="7"/>
+      <c r="AL100" s="7" t="n">
         <v>88</v>
-      </c>
-      <c r="AK100" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="AL100" s="7" t="n">
-        <v>85</v>
       </c>
       <c r="BD100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>38</v>
@@ -9596,10 +9599,10 @@
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>78</v>
@@ -9611,14 +9614,14 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="N101" s="11" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="O101" s="11"/>
       <c r="P101" s="11" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q101" s="7" t="s">
         <v>80</v>
@@ -9634,13 +9637,13 @@
         <v>342</v>
       </c>
       <c r="X101" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
       <c r="AA101" s="7"/>
       <c r="AB101" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AC101" s="7" t="s">
         <v>84</v>
@@ -9649,14 +9652,16 @@
       <c r="AE101" s="7"/>
       <c r="AF101" s="7"/>
       <c r="AG101" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="AH101" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="AH101" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="AI101" s="7" t="n">
         <v>4</v>
       </c>
       <c r="AJ101" s="7" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK101" s="7"/>
       <c r="AL101" s="7" t="n">
@@ -9666,7 +9671,7 @@
     </row>
     <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>38</v>
@@ -9679,35 +9684,33 @@
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H102" s="25" t="s">
         <v>385</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7" t="s">
-        <v>387</v>
+        <v>253</v>
       </c>
       <c r="N102" s="11" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="O102" s="11"/>
-      <c r="P102" s="11" t="s">
-        <v>388</v>
-      </c>
+      <c r="P102" s="11"/>
       <c r="Q102" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="R102" s="19" t="s">
-        <v>310</v>
+      <c r="R102" s="26" t="s">
+        <v>341</v>
       </c>
       <c r="S102" s="7"/>
       <c r="T102" s="7"/>
@@ -9717,14 +9720,12 @@
         <v>342</v>
       </c>
       <c r="X102" s="13" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
       <c r="AA102" s="7"/>
-      <c r="AB102" s="7" t="s">
-        <v>384</v>
-      </c>
+      <c r="AB102" s="7"/>
       <c r="AC102" s="7" t="s">
         <v>84</v>
       </c>
@@ -9732,24 +9733,26 @@
       <c r="AE102" s="7"/>
       <c r="AF102" s="7"/>
       <c r="AG102" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="AH102" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="AH102" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="AI102" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ102" s="7" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK102" s="7"/>
       <c r="AL102" s="7" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BD102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>38</v>
@@ -9760,34 +9763,30 @@
       <c r="D103" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E103" s="7"/>
+      <c r="E103" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="F103" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H103" s="25" t="s">
-        <v>392</v>
+        <v>387</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="I103" s="7"/>
-      <c r="J103" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="J103" s="7"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
-      <c r="M103" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="M103" s="7"/>
       <c r="N103" s="11" t="s">
         <v>340</v>
       </c>
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
-      <c r="Q103" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R103" s="26" t="s">
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7" t="s">
         <v>341</v>
       </c>
       <c r="S103" s="7"/>
@@ -9797,38 +9796,40 @@
       <c r="W103" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="X103" s="13" t="s">
-        <v>389</v>
-      </c>
+      <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
       <c r="AA103" s="7"/>
       <c r="AB103" s="7"/>
       <c r="AC103" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD103" s="9"/>
+        <v>257</v>
+      </c>
+      <c r="AD103" s="15" t="n">
+        <v>0.03</v>
+      </c>
       <c r="AE103" s="7"/>
       <c r="AF103" s="7"/>
       <c r="AG103" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AH103" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="AH103" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="AI103" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ103" s="7" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK103" s="7"/>
-      <c r="AL103" s="7" t="n">
-        <v>85</v>
+      <c r="AL103" s="24" t="n">
+        <v>312</v>
       </c>
       <c r="BD103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>38</v>
@@ -9837,75 +9838,63 @@
         <v>39</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F104" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="H104" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="G104" s="7" t="s">
+      <c r="I104" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="H104" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
-      <c r="N104" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="S104" s="7"/>
       <c r="T104" s="7"/>
       <c r="U104" s="7"/>
       <c r="V104" s="7"/>
-      <c r="W104" s="7" t="s">
-        <v>342</v>
-      </c>
+      <c r="W104" s="7"/>
       <c r="X104" s="7"/>
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
       <c r="AA104" s="7"/>
       <c r="AB104" s="7"/>
-      <c r="AC104" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD104" s="15" t="n">
-        <v>0.03</v>
-      </c>
+      <c r="AC104" s="7"/>
+      <c r="AD104" s="9"/>
       <c r="AE104" s="7"/>
       <c r="AF104" s="7"/>
-      <c r="AG104" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH104" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="AI104" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="AG104" s="7"/>
+      <c r="AH104" s="7"/>
+      <c r="AI104" s="7"/>
       <c r="AJ104" s="7" t="n">
-        <v>92</v>
-      </c>
-      <c r="AK104" s="7"/>
-      <c r="AL104" s="24" t="n">
-        <v>312</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AK104" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="AL104" s="7"/>
       <c r="BD104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>38</v>
@@ -9914,7 +9903,7 @@
         <v>39</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>397</v>
@@ -9935,12 +9924,14 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
+      <c r="N105" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="O105" s="7"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="S105" s="7"/>
       <c r="T105" s="7"/>
@@ -9960,17 +9951,17 @@
       <c r="AH105" s="7"/>
       <c r="AI105" s="7"/>
       <c r="AJ105" s="7" t="n">
-        <v>93</v>
-      </c>
-      <c r="AK105" s="13" t="s">
-        <v>403</v>
+        <v>94</v>
+      </c>
+      <c r="AK105" s="7" t="n">
+        <v>75</v>
       </c>
       <c r="AL105" s="7"/>
       <c r="BD105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>38</v>
@@ -9979,35 +9970,35 @@
         <v>39</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
       <c r="N106" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O106" s="7"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="S106" s="7"/>
       <c r="T106" s="7"/>
@@ -10027,17 +10018,17 @@
       <c r="AH106" s="7"/>
       <c r="AI106" s="7"/>
       <c r="AJ106" s="7" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK106" s="7" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL106" s="7"/>
       <c r="BD106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>38</v>
@@ -10046,35 +10037,35 @@
         <v>39</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
       <c r="N107" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="O107" s="7"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
@@ -10094,17 +10085,17 @@
       <c r="AH107" s="7"/>
       <c r="AI107" s="7"/>
       <c r="AJ107" s="7" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK107" s="7" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL107" s="7"/>
       <c r="BD107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>38</v>
@@ -10113,35 +10104,35 @@
         <v>39</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
       <c r="N108" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O108" s="7"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="S108" s="7"/>
       <c r="T108" s="7"/>
@@ -10161,17 +10152,17 @@
       <c r="AH108" s="7"/>
       <c r="AI108" s="7"/>
       <c r="AJ108" s="7" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK108" s="7" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL108" s="7"/>
       <c r="BD108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>38</v>
@@ -10180,42 +10171,46 @@
         <v>39</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
       <c r="N109" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O109" s="7"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="S109" s="7"/>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
       <c r="V109" s="7"/>
-      <c r="W109" s="7"/>
-      <c r="X109" s="7"/>
+      <c r="W109" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="X109" s="13" t="s">
+        <v>412</v>
+      </c>
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
       <c r="AA109" s="7"/>
@@ -10228,17 +10223,15 @@
       <c r="AH109" s="7"/>
       <c r="AI109" s="7"/>
       <c r="AJ109" s="7" t="n">
-        <v>97</v>
-      </c>
-      <c r="AK109" s="7" t="n">
-        <v>78</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AK109" s="7"/>
       <c r="AL109" s="7"/>
-      <c r="BD109" s="6"/>
+      <c r="BD109" s="27"/>
     </row>
     <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>38</v>
@@ -10247,7 +10240,7 @@
         <v>39</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>413</v>
@@ -10275,17 +10268,15 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="S110" s="7"/>
       <c r="T110" s="7"/>
       <c r="U110" s="7"/>
       <c r="V110" s="7"/>
-      <c r="W110" s="7" t="s">
-        <v>342</v>
-      </c>
+      <c r="W110" s="7"/>
       <c r="X110" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
@@ -10299,15 +10290,14 @@
       <c r="AH110" s="7"/>
       <c r="AI110" s="7"/>
       <c r="AJ110" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK110" s="7"/>
       <c r="AL110" s="7"/>
-      <c r="BD110" s="27"/>
     </row>
     <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>38</v>
@@ -10316,35 +10306,35 @@
         <v>39</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E111" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="F111" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="F111" s="23" t="s">
+      <c r="G111" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="G111" s="23" t="s">
-        <v>422</v>
-      </c>
       <c r="H111" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
       <c r="N111" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O111" s="7"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
@@ -10352,7 +10342,7 @@
       <c r="V111" s="7"/>
       <c r="W111" s="7"/>
       <c r="X111" s="13" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
@@ -10366,14 +10356,14 @@
       <c r="AH111" s="7"/>
       <c r="AI111" s="7"/>
       <c r="AJ111" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK111" s="7"/>
       <c r="AL111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>38</v>
@@ -10382,35 +10372,35 @@
         <v>39</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
       <c r="N112" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O112" s="7"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="S112" s="7"/>
       <c r="T112" s="7"/>
@@ -10418,7 +10408,7 @@
       <c r="V112" s="7"/>
       <c r="W112" s="7"/>
       <c r="X112" s="13" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
@@ -10432,14 +10422,14 @@
       <c r="AH112" s="7"/>
       <c r="AI112" s="7"/>
       <c r="AJ112" s="7" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK112" s="7"/>
       <c r="AL112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>38</v>
@@ -10448,44 +10438,44 @@
         <v>39</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G113" s="23" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7" t="s">
-        <v>433</v>
+      <c r="M113" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="N113" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="O113" s="7"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="S113" s="7"/>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
       <c r="V113" s="7"/>
       <c r="W113" s="7"/>
-      <c r="X113" s="13" t="s">
-        <v>425</v>
-      </c>
+      <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
       <c r="AA113" s="7"/>
@@ -10498,14 +10488,16 @@
       <c r="AH113" s="7"/>
       <c r="AI113" s="7"/>
       <c r="AJ113" s="7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK113" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="AK113" s="19" t="n">
+        <v>64</v>
+      </c>
       <c r="AL113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>38</v>
@@ -10514,37 +10506,37 @@
         <v>39</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F114" s="23" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G114" s="23" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="N114" s="13" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="O114" s="7"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="S114" s="7"/>
       <c r="T114" s="7"/>
@@ -10564,16 +10556,16 @@
       <c r="AH114" s="7"/>
       <c r="AI114" s="7"/>
       <c r="AJ114" s="7" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK114" s="19" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AL114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>38</v>
@@ -10582,37 +10574,37 @@
         <v>39</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G115" s="23" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="N115" s="13" t="s">
-        <v>438</v>
+        <v>430</v>
+      </c>
+      <c r="N115" s="28" t="s">
+        <v>432</v>
       </c>
       <c r="O115" s="7"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>
@@ -10632,81 +10624,14 @@
       <c r="AH115" s="7"/>
       <c r="AI115" s="7"/>
       <c r="AJ115" s="7" t="n">
-        <v>103</v>
-      </c>
-      <c r="AK115" s="19" t="n">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AK115" s="7"/>
       <c r="AL115" s="7"/>
     </row>
-    <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7" t="n">
-        <v>104</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="E116" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="F116" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="G116" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="N116" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
-      <c r="U116" s="7"/>
-      <c r="V116" s="7"/>
-      <c r="W116" s="7"/>
-      <c r="X116" s="7"/>
-      <c r="Y116" s="7"/>
-      <c r="Z116" s="7"/>
-      <c r="AA116" s="7"/>
-      <c r="AB116" s="7"/>
-      <c r="AC116" s="7"/>
-      <c r="AD116" s="9"/>
-      <c r="AE116" s="7"/>
-      <c r="AF116" s="7"/>
-      <c r="AG116" s="7"/>
-      <c r="AH116" s="7"/>
-      <c r="AI116" s="7"/>
-      <c r="AJ116" s="7" t="n">
-        <v>104</v>
-      </c>
-      <c r="AK116" s="7"/>
-      <c r="AL116" s="7"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AL116"/>
+  <autoFilter ref="A1:AL115"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1199,7 +1200,6 @@
   </si>
   <si>
     <t xml:space="preserve">86
-87
 88
 91
 </t>
@@ -1833,47 +1833,47 @@
   <dimension ref="A1:BD65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AJ102" activeCellId="0" sqref="AJ102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.3117408906883"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="91.587044534413"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.0526315789474"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="92.336032388664"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.6963562753036"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -18,6 +18,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="430">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1039,7 +1041,7 @@
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Displays Dobry 0.2 </t>
+    <t xml:space="preserve">Dobry 0.2</t>
   </si>
   <si>
     <t xml:space="preserve">Cashier Displays Dobry 0.2 Zone</t>
@@ -1055,6 +1057,9 @@
   </si>
   <si>
     <t xml:space="preserve">NUM_SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobry 0.2_Zone</t>
   </si>
   <si>
     <t xml:space="preserve">Calculated only if Promo Displays Dobry 0.2 is passed</t>
@@ -1073,7 +1078,7 @@
     <t xml:space="preserve">5449000008046, 5449000020987, 5449000239655</t>
   </si>
   <si>
-    <t xml:space="preserve">Entry Pack</t>
+    <t xml:space="preserve">Entry_Pack</t>
   </si>
   <si>
     <t xml:space="preserve">Cashier Displays Entry Pack Zone</t>
@@ -1085,7 +1090,7 @@
     <t xml:space="preserve">Panoramic photo of Displays Entry Pack </t>
   </si>
   <si>
-    <t xml:space="preserve">Panoramic photo of Displays Entry Pack</t>
+    <t xml:space="preserve">Entry_PacK_ Zone</t>
   </si>
   <si>
     <t xml:space="preserve">Calculated only if Promo Displays Entry Pack Zone is passed </t>
@@ -1329,18 +1334,6 @@
   </si>
   <si>
     <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobry 0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobry 0.2_Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entry_Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entry_PacK_ Zone</t>
   </si>
   <si>
     <t xml:space="preserve">Scene Sub Type 2</t>
@@ -1832,48 +1825,48 @@
   </sheetPr>
   <dimension ref="A1:BD65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AJ102" activeCellId="0" sqref="AJ102"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="M92" activeCellId="0" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.3076923076923"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.0607287449393"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="92.336032388664"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="94.0485829959514"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="84.0890688259109"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -8520,7 +8513,9 @@
       <c r="M87" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="N87" s="11"/>
+      <c r="N87" s="11" t="s">
+        <v>309</v>
+      </c>
       <c r="O87" s="11"/>
       <c r="P87" s="11" t="s">
         <v>309</v>
@@ -8608,7 +8603,7 @@
       <c r="V88" s="7"/>
       <c r="W88" s="7"/>
       <c r="X88" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Y88" s="7"/>
       <c r="Z88" s="7"/>
@@ -8621,7 +8616,7 @@
       <c r="AE88" s="7"/>
       <c r="AF88" s="7"/>
       <c r="AG88" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AH88" s="7"/>
       <c r="AI88" s="7" t="n">
@@ -8649,10 +8644,10 @@
       <c r="D89" s="7"/>
       <c r="E89" s="23"/>
       <c r="F89" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>78</v>
@@ -8664,10 +8659,10 @@
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N89" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
@@ -8683,7 +8678,7 @@
       <c r="V89" s="7"/>
       <c r="W89" s="7"/>
       <c r="X89" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
@@ -8722,10 +8717,10 @@
       <c r="D90" s="7"/>
       <c r="E90" s="23"/>
       <c r="F90" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>315</v>
@@ -8738,7 +8733,7 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
       <c r="N90" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
@@ -8752,7 +8747,7 @@
       <c r="V90" s="7"/>
       <c r="W90" s="7"/>
       <c r="X90" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
@@ -8765,7 +8760,7 @@
       <c r="AE90" s="7"/>
       <c r="AF90" s="7"/>
       <c r="AG90" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AH90" s="7"/>
       <c r="AI90" s="7" t="n">
@@ -8794,16 +8789,16 @@
         <v>40</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
@@ -8814,7 +8809,7 @@
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
       <c r="Q91" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
@@ -8837,7 +8832,7 @@
       <c r="AF91" s="7"/>
       <c r="AG91" s="7"/>
       <c r="AH91" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI91" s="7" t="n">
         <v>2</v>
@@ -8846,7 +8841,7 @@
         <v>79</v>
       </c>
       <c r="AK91" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL91" s="7" t="n">
         <v>311</v>
@@ -8867,16 +8862,16 @@
         <v>40</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7" t="n">
@@ -8887,27 +8882,27 @@
       </c>
       <c r="L92" s="7"/>
       <c r="M92" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N92" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S92" s="7"/>
       <c r="T92" s="7"/>
       <c r="U92" s="7"/>
       <c r="V92" s="7"/>
       <c r="W92" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="X92" s="7"/>
       <c r="Y92" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z92" s="7"/>
       <c r="AA92" s="7"/>
@@ -8919,10 +8914,10 @@
       <c r="AE92" s="7"/>
       <c r="AF92" s="7"/>
       <c r="AG92" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AH92" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AI92" s="7" t="n">
         <v>3</v>
@@ -8950,16 +8945,16 @@
         <v>40</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7" t="n">
@@ -8970,26 +8965,26 @@
       </c>
       <c r="L93" s="7"/>
       <c r="M93" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N93" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
       <c r="W93" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="X93" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
@@ -9002,10 +8997,10 @@
       <c r="AE93" s="7"/>
       <c r="AF93" s="7"/>
       <c r="AG93" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AH93" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AI93" s="7" t="n">
         <v>3</v>
@@ -9033,16 +9028,16 @@
         <v>40</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7" t="n">
@@ -9054,20 +9049,20 @@
         <v>253</v>
       </c>
       <c r="N94" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S94" s="7"/>
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
       <c r="W94" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X94" s="7"/>
       <c r="Y94" s="7"/>
@@ -9111,10 +9106,10 @@
         <v>302</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>315</v>
@@ -9127,7 +9122,7 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
       <c r="N95" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
@@ -9140,10 +9135,10 @@
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
       <c r="W95" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="X95" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="X95" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
@@ -9158,10 +9153,10 @@
       <c r="AE95" s="7"/>
       <c r="AF95" s="7"/>
       <c r="AG95" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH95" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI95" s="7" t="n">
         <v>2</v>
@@ -9192,13 +9187,13 @@
         <v>302</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H96" s="25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
@@ -9209,27 +9204,27 @@
         <v>15</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N96" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S96" s="7"/>
       <c r="T96" s="7"/>
       <c r="U96" s="7"/>
       <c r="V96" s="7"/>
       <c r="W96" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="X96" s="7"/>
       <c r="Y96" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z96" s="7"/>
       <c r="AA96" s="7"/>
@@ -9243,10 +9238,10 @@
       <c r="AE96" s="7"/>
       <c r="AF96" s="7"/>
       <c r="AG96" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH96" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI96" s="7" t="n">
         <v>2</v>
@@ -9277,10 +9272,10 @@
         <v>302</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>74</v>
@@ -9302,7 +9297,7 @@
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
       <c r="W97" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
@@ -9310,7 +9305,7 @@
       <c r="AA97" s="7"/>
       <c r="AB97" s="7"/>
       <c r="AC97" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD97" s="15" t="n">
         <v>0.03</v>
@@ -9322,10 +9317,10 @@
         <v>1</v>
       </c>
       <c r="AG97" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH97" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI97" s="7" t="n">
         <v>2</v>
@@ -9334,7 +9329,7 @@
         <v>85</v>
       </c>
       <c r="AK97" s="20" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL97" s="24" t="n">
         <v>312</v>
@@ -9356,13 +9351,13 @@
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7" t="n">
@@ -9371,14 +9366,14 @@
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N98" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O98" s="11"/>
       <c r="P98" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q98" s="7" t="s">
         <v>80</v>
@@ -9391,26 +9386,26 @@
       <c r="U98" s="7"/>
       <c r="V98" s="7"/>
       <c r="W98" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="X98" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
       <c r="AA98" s="7"/>
       <c r="AB98" s="7"/>
       <c r="AC98" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD98" s="9"/>
       <c r="AE98" s="7"/>
       <c r="AF98" s="7"/>
       <c r="AG98" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH98" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI98" s="7" t="n">
         <v>3</v>
@@ -9439,10 +9434,10 @@
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>280</v>
@@ -9466,7 +9461,7 @@
       <c r="U99" s="7"/>
       <c r="V99" s="7"/>
       <c r="W99" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
@@ -9474,16 +9469,16 @@
       <c r="AA99" s="7"/>
       <c r="AB99" s="7"/>
       <c r="AC99" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD99" s="9"/>
       <c r="AE99" s="7"/>
       <c r="AF99" s="7"/>
       <c r="AG99" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH99" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI99" s="7" t="n">
         <v>3</v>
@@ -9492,7 +9487,7 @@
         <v>88</v>
       </c>
       <c r="AK99" s="20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL99" s="7" t="n">
         <v>85</v>
@@ -9514,10 +9509,10 @@
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>78</v>
@@ -9529,14 +9524,14 @@
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N100" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O100" s="11"/>
       <c r="P100" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q100" s="7" t="s">
         <v>80</v>
@@ -9549,16 +9544,16 @@
       <c r="U100" s="7"/>
       <c r="V100" s="7"/>
       <c r="W100" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="X100" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
       <c r="AA100" s="7"/>
       <c r="AB100" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AC100" s="7" t="s">
         <v>84</v>
@@ -9567,10 +9562,10 @@
       <c r="AE100" s="7"/>
       <c r="AF100" s="7"/>
       <c r="AG100" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH100" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI100" s="7" t="n">
         <v>4</v>
@@ -9599,10 +9594,10 @@
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>78</v>
@@ -9614,14 +9609,14 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N101" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O101" s="11"/>
       <c r="P101" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q101" s="7" t="s">
         <v>80</v>
@@ -9634,16 +9629,16 @@
       <c r="U101" s="7"/>
       <c r="V101" s="7"/>
       <c r="W101" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="X101" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
       <c r="AA101" s="7"/>
       <c r="AB101" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AC101" s="7" t="s">
         <v>84</v>
@@ -9652,10 +9647,10 @@
       <c r="AE101" s="7"/>
       <c r="AF101" s="7"/>
       <c r="AG101" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH101" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI101" s="7" t="n">
         <v>4</v>
@@ -9684,13 +9679,13 @@
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7" t="n">
@@ -9702,7 +9697,7 @@
         <v>253</v>
       </c>
       <c r="N102" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O102" s="11"/>
       <c r="P102" s="11"/>
@@ -9710,17 +9705,17 @@
         <v>80</v>
       </c>
       <c r="R102" s="26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S102" s="7"/>
       <c r="T102" s="7"/>
       <c r="U102" s="7"/>
       <c r="V102" s="7"/>
       <c r="W102" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="X102" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
@@ -9733,10 +9728,10 @@
       <c r="AE102" s="7"/>
       <c r="AF102" s="7"/>
       <c r="AG102" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH102" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI102" s="7" t="n">
         <v>3</v>
@@ -9767,13 +9762,13 @@
         <v>302</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
@@ -9781,20 +9776,20 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
       <c r="N103" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S103" s="7"/>
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
       <c r="V103" s="7"/>
       <c r="W103" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
@@ -9810,10 +9805,10 @@
       <c r="AE103" s="7"/>
       <c r="AF103" s="7"/>
       <c r="AG103" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH103" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI103" s="7" t="n">
         <v>2</v>
@@ -9838,22 +9833,22 @@
         <v>39</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
@@ -9864,7 +9859,7 @@
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S104" s="7"/>
       <c r="T104" s="7"/>
@@ -9887,7 +9882,7 @@
         <v>93</v>
       </c>
       <c r="AK104" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL104" s="7"/>
       <c r="BD104" s="6"/>
@@ -9903,35 +9898,35 @@
         <v>39</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
       <c r="N105" s="7" t="s">
-        <v>402</v>
+        <v>312</v>
       </c>
       <c r="O105" s="7"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S105" s="7"/>
       <c r="T105" s="7"/>
@@ -9970,35 +9965,35 @@
         <v>39</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
       <c r="N106" s="7" t="s">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="O106" s="7"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S106" s="7"/>
       <c r="T106" s="7"/>
@@ -10037,35 +10032,35 @@
         <v>39</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
       <c r="N107" s="7" t="s">
-        <v>404</v>
+        <v>324</v>
       </c>
       <c r="O107" s="7"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
@@ -10104,35 +10099,35 @@
         <v>39</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
       <c r="N108" s="7" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
       <c r="O108" s="7"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S108" s="7"/>
       <c r="T108" s="7"/>
@@ -10171,45 +10166,45 @@
         <v>39</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E109" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="H109" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F109" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="G109" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="I109" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
       <c r="N109" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="O109" s="7"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="S109" s="7"/>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
       <c r="V109" s="7"/>
       <c r="W109" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="X109" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
@@ -10240,35 +10235,35 @@
         <v>39</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E110" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="H110" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F110" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>416</v>
-      </c>
       <c r="I110" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
       <c r="N110" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="O110" s="7"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="S110" s="7"/>
       <c r="T110" s="7"/>
@@ -10276,7 +10271,7 @@
       <c r="V110" s="7"/>
       <c r="W110" s="7"/>
       <c r="X110" s="13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
@@ -10306,35 +10301,35 @@
         <v>39</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
       <c r="N111" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O111" s="7"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
@@ -10342,7 +10337,7 @@
       <c r="V111" s="7"/>
       <c r="W111" s="7"/>
       <c r="X111" s="13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
@@ -10372,35 +10367,35 @@
         <v>39</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
       <c r="N112" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O112" s="7"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="S112" s="7"/>
       <c r="T112" s="7"/>
@@ -10408,7 +10403,7 @@
       <c r="V112" s="7"/>
       <c r="W112" s="7"/>
       <c r="X112" s="13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
@@ -10438,37 +10433,37 @@
         <v>39</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G113" s="23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N113" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O113" s="7"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S113" s="7"/>
       <c r="T113" s="7"/>
@@ -10506,37 +10501,37 @@
         <v>39</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F114" s="23" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G114" s="23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N114" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O114" s="7"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S114" s="7"/>
       <c r="T114" s="7"/>
@@ -10574,37 +10569,37 @@
         <v>39</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G115" s="23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N115" s="28" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="O115" s="7"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\04022019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ED17FE-D7C9-41E6-B440-4737827E4013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$115</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,135 +36,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="430">
-  <si>
-    <t xml:space="preserve">Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP PoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logical Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depends on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38000029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional Trade_CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5195" uniqueCount="432">
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>SAP PoS</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>KPI Type</t>
+  </si>
+  <si>
+    <t>SAP KPI</t>
+  </si>
+  <si>
+    <t>KPI name Eng</t>
+  </si>
+  <si>
+    <t>KPI name Rus</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Result Format</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>target_min</t>
+  </si>
+  <si>
+    <t>target_max</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Logical Operator</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>Zone to include</t>
+  </si>
+  <si>
+    <t>Locations to exclude</t>
+  </si>
+  <si>
+    <t>Locations to include</t>
+  </si>
+  <si>
+    <t>Scenes to include</t>
+  </si>
+  <si>
+    <t>Scenes to exclude</t>
+  </si>
+  <si>
+    <t>Sub locations to include</t>
+  </si>
+  <si>
+    <t>Sub locations to exclude</t>
+  </si>
+  <si>
+    <t>shelf_number</t>
+  </si>
+  <si>
+    <t>score_func</t>
+  </si>
+  <si>
+    <t>KPI Weight</t>
+  </si>
+  <si>
+    <t>score_min</t>
+  </si>
+  <si>
+    <t>score_max</t>
+  </si>
+  <si>
+    <t>depends on</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>KPI ID</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>RD38000029</t>
+  </si>
+  <si>
+    <t>Traditional Trade_CAP</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -170,45 +175,45 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302
+    <t>Displays</t>
+  </si>
+  <si>
+    <t>302
 303</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JNSD Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JNSD Дисплеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311
+    <t>SSD Displays</t>
+  </si>
+  <si>
+    <t>SSD Дисплеи</t>
+  </si>
+  <si>
+    <t>JNSD Displays</t>
+  </si>
+  <si>
+    <t>JNSD Дисплеи</t>
+  </si>
+  <si>
+    <t>Coolers</t>
+  </si>
+  <si>
+    <t>Холодильники</t>
+  </si>
+  <si>
+    <t>311
 312</t>
   </si>
   <si>
-    <t xml:space="preserve">Coolers: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
+    <t>Coolers: Doors</t>
+  </si>
+  <si>
+    <t>Холодильник: Двери</t>
+  </si>
+  <si>
+    <t>Coolers: Quality</t>
+  </si>
+  <si>
+    <t>Холодильник: Качество</t>
   </si>
   <si>
     <t xml:space="preserve">83
@@ -218,61 +223,61 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Полка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Полка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода Полка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Tea Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодный Чай Полка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЭнергетикиПолка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">501
+    <t>SSD Shelf</t>
+  </si>
+  <si>
+    <t>SSD Полка</t>
+  </si>
+  <si>
+    <t>Juice Shelf</t>
+  </si>
+  <si>
+    <t>Сок Полка</t>
+  </si>
+  <si>
+    <t>Water Shelf</t>
+  </si>
+  <si>
+    <t>Вода Полка</t>
+  </si>
+  <si>
+    <t>Ice Tea Shelf</t>
+  </si>
+  <si>
+    <t>Холодный Чай Полка</t>
+  </si>
+  <si>
+    <t>Energy Shelf</t>
+  </si>
+  <si>
+    <t>ЭнергетикиПолка</t>
+  </si>
+  <si>
+    <t>Shelf</t>
+  </si>
+  <si>
+    <t>Полка</t>
+  </si>
+  <si>
+    <t>501
 502
 503
 504</t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2
+    <t>STANDARD 1</t>
+  </si>
+  <si>
+    <t>SSD Availability</t>
+  </si>
+  <si>
+    <t>Представленность SSD</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>2
 3
 4
 5
@@ -297,241 +302,241 @@
 24</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000054227, 5449000228970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54491472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.25L Slim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.25л слим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000008046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000006271, 5449000006271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000050939, 5449000228956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54491069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000000439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000000286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Bitter Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54490130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Tonic - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Тоник - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50112265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Груша - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000172228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.25L Slim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.25л слим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000020987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000133328, 5449000231659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000214744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.25L Slim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.25л слим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.25L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000239655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.25L Slim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.25л слим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000000712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.25L Slim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.25л слим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000000729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Bitter Lemon - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000044839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Pear - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Груша - 0.9л/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000234155, 5449000172235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000000996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Цитрус - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000213631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Воды</t>
+    <t>Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 1л</t>
+  </si>
+  <si>
+    <t>number of facings</t>
+  </si>
+  <si>
+    <t>5449000054227, 5449000228970</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SKUs</t>
+  </si>
+  <si>
+    <t>Activation, Other</t>
+  </si>
+  <si>
+    <t>Panoramic Photo</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t>54491472</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.25L Slim</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.25л слим</t>
+  </si>
+  <si>
+    <t>5449000008046</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 1L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>5449000006271, 5449000006271</t>
+  </si>
+  <si>
+    <t>Sprite - 1L</t>
+  </si>
+  <si>
+    <t>Спрайт - 1л</t>
+  </si>
+  <si>
+    <t>5449000050939, 5449000228956</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t>40822938</t>
+  </si>
+  <si>
+    <t>Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t>54491069</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t>5449000000439</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t>5449000000286</t>
+  </si>
+  <si>
+    <t>Schweppes Bitter Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 0.5л</t>
+  </si>
+  <si>
+    <t>54490130</t>
+  </si>
+  <si>
+    <t>Schweppes Tonic - 0.5L</t>
+  </si>
+  <si>
+    <t>Швеппс Тоник - 0.5л</t>
+  </si>
+  <si>
+    <t>50112265</t>
+  </si>
+  <si>
+    <t>Fanta Pear - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Груша - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000172228</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.25L Slim</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.25л слим</t>
+  </si>
+  <si>
+    <t>5449000020987</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 1L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 1л</t>
+  </si>
+  <si>
+    <t>5449000133328, 5449000231659</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000131836</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Вишня - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000214744</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.25L Slim</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Вишня - 0.25л слим</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.25L</t>
+  </si>
+  <si>
+    <t>5449000239655</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.25L Slim</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.25л слим</t>
+  </si>
+  <si>
+    <t>5449000000712</t>
+  </si>
+  <si>
+    <t>Sprite - 0.25L Slim</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.25л слим</t>
+  </si>
+  <si>
+    <t>5449000000729</t>
+  </si>
+  <si>
+    <t>Schweppes Bitter Lemon - 1L</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 1л</t>
+  </si>
+  <si>
+    <t>5449000044839</t>
+  </si>
+  <si>
+    <t>Fanta Pear - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Фанта Груша - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>5449000234155, 5449000172235</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t>5449000000996</t>
+  </si>
+  <si>
+    <t>Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Цитрус - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000213631</t>
+  </si>
+  <si>
+    <t>STANDARD 2</t>
+  </si>
+  <si>
+    <t>Water Availability</t>
+  </si>
+  <si>
+    <t>Представленность Воды</t>
   </si>
   <si>
     <t xml:space="preserve">26
@@ -543,122 +548,122 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000005489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Газ - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90494406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Viva - Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000152190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Газ - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000026583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000032805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33
+    <t>BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t>40822426</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t>5449000005489</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 0.5л</t>
+  </si>
+  <si>
+    <t>90494406</t>
+  </si>
+  <si>
+    <t>BonAqua Viva - Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Вива - Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000152190</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 1L</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 1л</t>
+  </si>
+  <si>
+    <t>5449000026583</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t>5449000032805</t>
+  </si>
+  <si>
+    <t>Energy Availability</t>
+  </si>
+  <si>
+    <t>Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t>33
 34
 35
 36
 37</t>
   </si>
   <si>
-    <t xml:space="preserve">Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Original - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060335632906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Rossi - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монстер Росси - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060517884710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060466510869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Original - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Чая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39
+    <t>Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t>Burn Original - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000131768</t>
+  </si>
+  <si>
+    <t>Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t>Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t>5060335632906</t>
+  </si>
+  <si>
+    <t>Monster Rossi - 0.5L</t>
+  </si>
+  <si>
+    <t>Монстер Росси - 0.5л</t>
+  </si>
+  <si>
+    <t>5060517884710</t>
+  </si>
+  <si>
+    <t>Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t>5060466510869</t>
+  </si>
+  <si>
+    <t>Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t>Burn Original - 0.33л</t>
+  </si>
+  <si>
+    <t>Tea Availability</t>
+  </si>
+  <si>
+    <t>Представленность Чая</t>
+  </si>
+  <si>
+    <t>39
 40
 41
 42
@@ -666,61 +671,61 @@
 44</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000193124, 5449000259455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430879, 5449000027450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000189301, 5449000235947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000233615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Berry-Hibiscus - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000233509, 5449000259462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW SKU 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice (JNSD) Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Сока</t>
+    <t>Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000193124, 5449000259455</t>
+  </si>
+  <si>
+    <t>Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Манго-Ромашка - 0.5л</t>
+  </si>
+  <si>
+    <t>4607042430879, 5449000027450</t>
+  </si>
+  <si>
+    <t>Fuze Lemon-Lemongrass - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000189301, 5449000235947</t>
+  </si>
+  <si>
+    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000233615</t>
+  </si>
+  <si>
+    <t>Fuze Berry-Hibiscus - 1L</t>
+  </si>
+  <si>
+    <t>Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t>5449000233509, 5449000259462</t>
+  </si>
+  <si>
+    <t>NEW SKU 10</t>
+  </si>
+  <si>
+    <t>Новый вкус 10</t>
+  </si>
+  <si>
+    <t>Juice (JNSD) Availability</t>
+  </si>
+  <si>
+    <t>Представленность Сока</t>
   </si>
   <si>
     <t xml:space="preserve">46
@@ -738,206 +743,206 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042434877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042434891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042438738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042434884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174577787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174577794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042438950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4650075420980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Cherry - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Вишня - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042439223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042439155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042439216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf: number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD полка: Количество Фейсов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN in CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warm Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Shelf: number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода полка: Количество Фейсов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Tea Shelf: number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодный Чай полка: Количество Фейсов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Shelf: number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Энергетики полка: Количество Фейсов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Shelf: number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок полка: Количество Фейсов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64
+    <t>Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>4607042434877</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t>4607042434891</t>
+  </si>
+  <si>
+    <t>Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>4607042438738</t>
+  </si>
+  <si>
+    <t>Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t>4607042434884</t>
+  </si>
+  <si>
+    <t>Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t>4607174577787</t>
+  </si>
+  <si>
+    <t>Pulpy - Orange - 0.9L</t>
+  </si>
+  <si>
+    <t>Палпи - Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t>4607174577794</t>
+  </si>
+  <si>
+    <t>Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>4607042438950</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t>4607042430619</t>
+  </si>
+  <si>
+    <t>Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t>4650075420980</t>
+  </si>
+  <si>
+    <t>Rich - Cherry - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Вишня - 1л</t>
+  </si>
+  <si>
+    <t>4607042439223</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>4607042439155</t>
+  </si>
+  <si>
+    <t>Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>4607042439216</t>
+  </si>
+  <si>
+    <t>STANDARD 20</t>
+  </si>
+  <si>
+    <t>SSD Shelf: number of facings</t>
+  </si>
+  <si>
+    <t>SSD полка: Количество Фейсов</t>
+  </si>
+  <si>
+    <t>Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>MAN in CAT</t>
+  </si>
+  <si>
+    <t>Warm Shelf</t>
+  </si>
+  <si>
+    <t>PROPORTIONAL</t>
+  </si>
+  <si>
+    <t>Water Shelf: number of facings</t>
+  </si>
+  <si>
+    <t>Вода полка: Количество Фейсов</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Ice Tea Shelf: number of facings</t>
+  </si>
+  <si>
+    <t>Холодный Чай полка: Количество Фейсов</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
+  <si>
+    <t>Energy Shelf: number of facings</t>
+  </si>
+  <si>
+    <t>Энергетики полка: Количество Фейсов</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Juice Shelf: number of facings</t>
+  </si>
+  <si>
+    <t>Сок полка: Количество Фейсов</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
+  <si>
+    <t>STANDARD 27</t>
+  </si>
+  <si>
+    <t>SSD Display</t>
+  </si>
+  <si>
+    <t>SSD Дисплей</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>64
 65</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Display: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display: Lead SKU Coca-Cola - 1L/1.5L/2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей: Основной СКЮ Кока-Кола - 1/1.5л/2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+    <t>SSD Display: Facings</t>
+  </si>
+  <si>
+    <t>SSD Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t>SSD Display: Lead SKU Coca-Cola - 1L/1.5L/2L</t>
+  </si>
+  <si>
+    <t>SSD Дисплей: Основной СКЮ Кока-Кола - 1/1.5л/2л</t>
+  </si>
+  <si>
+    <t>number of sub atomic KPI Passed</t>
   </si>
   <si>
     <t xml:space="preserve">66
@@ -946,172 +951,172 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Display: Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей: Кока-Кола - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 1L share on Display. The competitors are only SSD SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70
+    <t>SSD Display: Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t>SSD Дисплей: Кока-Кола - 1л</t>
+  </si>
+  <si>
+    <t>Lead SKU</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 1L share on Display. The competitors are only SSD SKUs</t>
+  </si>
+  <si>
+    <t>Juice Display</t>
+  </si>
+  <si>
+    <t>Сок Дисплей</t>
+  </si>
+  <si>
+    <t>Juice Displays</t>
+  </si>
+  <si>
+    <t>70
 71</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Display: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72
+    <t>Juice Display: Facings</t>
+  </si>
+  <si>
+    <t>Сок Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t>Juice Display: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
+  </si>
+  <si>
+    <t>Сок Дисплей: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t>72
 73</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Display: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display: Lead Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cashier Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прикассовый дисплеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75
+    <t>Juice Display: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t>Сок Дисплей: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t>Juice Display: Lead Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t>Сок Дисплей: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cashier Displays</t>
+  </si>
+  <si>
+    <t>Прикассовый дисплеи</t>
+  </si>
+  <si>
+    <t>Promo Displays</t>
+  </si>
+  <si>
+    <t>75
 76
 77
 78</t>
   </si>
   <si>
-    <t xml:space="preserve">Cashier Displays Dobry 0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прикассовый дисплеи Добрый 0.2 фейсы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobry 0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cashier Displays Dobry 0.2 Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прикассовый дисплеи Добрый 0.2 Зона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes with no tagging</t>
+    <t>Cashier Displays Dobry 0.2</t>
+  </si>
+  <si>
+    <t>Прикассовый дисплеи Добрый 0.2 фейсы</t>
+  </si>
+  <si>
+    <t>Dobriy</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Dobry 0.2</t>
+  </si>
+  <si>
+    <t>Cashier Displays Dobry 0.2 Zone</t>
+  </si>
+  <si>
+    <t>Прикассовый дисплеи Добрый 0.2 Зона</t>
+  </si>
+  <si>
+    <t>Scenes with no tagging</t>
   </si>
   <si>
     <t xml:space="preserve">Panoramic photo of Displays Dobry 0.2 </t>
   </si>
   <si>
-    <t xml:space="preserve">NUM_SCENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobry 0.2_Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculated only if Promo Displays Dobry 0.2 is passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cashier Displays Entry Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прикассовый дисплеи Entry Pack фейсы</t>
+    <t>NUM_SCENES</t>
+  </si>
+  <si>
+    <t>Dobry 0.2_Zone</t>
+  </si>
+  <si>
+    <t>Calculated only if Promo Displays Dobry 0.2 is passed</t>
+  </si>
+  <si>
+    <t>Cashier Displays Entry Pack</t>
+  </si>
+  <si>
+    <t>Прикассовый дисплеи Entry Pack фейсы</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola - 0.25L Slim, Coca-Cola Zero - 0.25L Slim, Coca-Cola Zero Cherry - 0.25L Slim
 </t>
   </si>
   <si>
-    <t xml:space="preserve">5449000008046, 5449000020987, 5449000239655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entry_Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cashier Displays Entry Pack Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прикассовый дисплеи Entry Pack Зона</t>
+    <t>5449000008046, 5449000020987, 5449000239655</t>
+  </si>
+  <si>
+    <t>Entry_Pack</t>
+  </si>
+  <si>
+    <t>Cashier Displays Entry Pack Zone</t>
+  </si>
+  <si>
+    <t>Прикассовый дисплеи Entry Pack Зона</t>
   </si>
   <si>
     <t xml:space="preserve">Panoramic photo of Displays Entry Pack </t>
   </si>
   <si>
-    <t xml:space="preserve">Entry_PacK_ Zone</t>
+    <t>Entry_PacK_ Zone</t>
   </si>
   <si>
     <t xml:space="preserve">Calculated only if Promo Displays Entry Pack Zone is passed </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Master Data attr15</t>
+    <t>STANDARD 22</t>
+  </si>
+  <si>
+    <t>Cooler: Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t>sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Store Master Data attr15</t>
   </si>
   <si>
     <t xml:space="preserve">80
@@ -1120,88 +1125,88 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of doors with more than Target facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacture: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC 1 door, FC door 1.5 door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filled collers target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of doors with more than Target facings and with fullness of TCCC product not less than 90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: CCH Cooler Doors FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facings TCCC/40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
+    <t>Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t>number of doors with more than Target facings</t>
+  </si>
+  <si>
+    <t>Manufacture: TCCC</t>
+  </si>
+  <si>
+    <t>TCCC</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>FC 1 door, FC door 1.5 door</t>
+  </si>
+  <si>
+    <t>filled collers target</t>
+  </si>
+  <si>
+    <t>number of doors with more than Target facings and with fullness of TCCC product not less than 90%</t>
+  </si>
+  <si>
+    <t>STANDARD 23</t>
+  </si>
+  <si>
+    <t>Cooler: CCH Cooler Doors FC</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Компании FC</t>
+  </si>
+  <si>
+    <t>Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t>facings TCCC/40</t>
+  </si>
+  <si>
+    <t>Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t>Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t>Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors". </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Max 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
+    <t>Cooler: Max 15</t>
+  </si>
+  <si>
+    <t>Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t>number of SKU per Door RANGE TOTAL</t>
+  </si>
+  <si>
+    <t>Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t>Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t>CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
     <t xml:space="preserve">86
@@ -1210,38 +1215,38 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Min 40% Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 40% Кока-Кола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand: Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD 1 door, SSD  1.5 door, Mixed 1 door, Mixed  1.5 door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2-3 полке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89
+    <t>Min 40% Coca-Cola</t>
+  </si>
+  <si>
+    <t>Холодильники: Мерч. Стандарты. Мин 40% Кока-Кола</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>Brand: Coca-Cola</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>SSD 1 door, SSD  1.5 door, Mixed 1 door, Mixed  1.5 door</t>
+  </si>
+  <si>
+    <t>Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3</t>
+  </si>
+  <si>
+    <t>Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2-3 полке</t>
+  </si>
+  <si>
+    <t>89
 90</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD fuze shelf 2-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
+    <t>Cooler: Merch Priorty STD fuze shelf 2-3</t>
+  </si>
+  <si>
+    <t>Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
   </si>
   <si>
     <t xml:space="preserve">SSD 1 door
@@ -1253,22 +1258,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD coca- cola shelf 2-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand: Fuze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD 1 door
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>Cooler: Merch Priorty STD coca- cola shelf 2-3</t>
+  </si>
+  <si>
+    <t>Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
+  </si>
+  <si>
+    <t>Brand: Fuze</t>
+  </si>
+  <si>
+    <t>Fuze</t>
+  </si>
+  <si>
+    <t>SSD 1 door
 NSB 1 door
 Mixed 1 door
 SSD 1.5 door
@@ -1276,85 +1281,85 @@
 Mixed  1.5 door</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD every SKUs min 2 facing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU мин 2 фейсинга</t>
-  </si>
-  <si>
-    <t xml:space="preserve">each SKU hits facings target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_QUALITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of KPI scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SESSION LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83
+    <t>Cooler: Merch Priorty STD every SKUs min 2 facing</t>
+  </si>
+  <si>
+    <t>Холодильники: Мерч. Стандарты. Каждое SKU мин 2 фейсинга</t>
+  </si>
+  <si>
+    <t>each SKU hits facings target</t>
+  </si>
+  <si>
+    <t>Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t>Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t>Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>STANDARD 18</t>
+  </si>
+  <si>
+    <t>COOLER_QUALITY</t>
+  </si>
+  <si>
+    <t>CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t>sum of KPI scores</t>
+  </si>
+  <si>
+    <t>Decimal.2</t>
+  </si>
+  <si>
+    <t>SESSION LEVEL</t>
+  </si>
+  <si>
+    <t>83
 84
 85
 92</t>
   </si>
   <si>
-    <t xml:space="preserve">LOCAL 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imp_Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passed or Failed Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_DOORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template.additional_attribute_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENE LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD 1 door
+    <t>LOCAL 14</t>
+  </si>
+  <si>
+    <t>Imp_Displays</t>
+  </si>
+  <si>
+    <t>Impulse Displays</t>
+  </si>
+  <si>
+    <t>Passed or Failed Value</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t>COOLER_DOORS</t>
+  </si>
+  <si>
+    <t>Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t>SCENE LEVEL</t>
+  </si>
+  <si>
+    <t>SSD 1 door
 NSB 1 door
 Mixed 1 door
 FC 1 door
@@ -1364,22 +1369,22 @@
 FC door 1.5 door</t>
   </si>
   <si>
-    <t xml:space="preserve">Attribute 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POP_ACTIVATED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POP Activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promo SSD
+    <t>Attribute 1</t>
+  </si>
+  <si>
+    <t>POP_ACTIVATED</t>
+  </si>
+  <si>
+    <t>POP Activated</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Promo SSD
 Promo Water
 Promo Energy
 Promo Fuzetea
@@ -1419,66 +1424,66 @@
 Promo Juice</t>
   </si>
   <si>
-    <t xml:space="preserve">Attribute 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXPER_ACTIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiantial Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene Sub Type 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISPLAY_ZONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Zones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCCASIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIO_OCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEND VALUE if at least one is Passed , other No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MealsAtHo
+    <t>Attribute 2</t>
+  </si>
+  <si>
+    <t>EXPER_ACTIV</t>
+  </si>
+  <si>
+    <t>Experiantial Activation</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Scene Sub Type 1</t>
+  </si>
+  <si>
+    <t>DISPLAY_ZONES</t>
+  </si>
+  <si>
+    <t>Display Zones</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>OCCASIONS</t>
+  </si>
+  <si>
+    <t>PRIO_OCC</t>
+  </si>
+  <si>
+    <t>Number of Priority Occasions activated in the outlet</t>
+  </si>
+  <si>
+    <t>SEND VALUE if at least one is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t>MealsAtHo
 No_O_A</t>
   </si>
   <si>
-    <t xml:space="preserve">OTG
+    <t>OTG
 No_O_A</t>
+  </si>
+  <si>
+    <t>Brand: Fuzetea</t>
+  </si>
+  <si>
+    <t>Fuzetea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="0.00%"/>
-    <numFmt numFmtId="170" formatCode="@"/>
-    <numFmt numFmtId="171" formatCode="0%"/>
-    <numFmt numFmtId="172" formatCode="D\-MMM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="166" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1487,22 +1492,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1527,7 +1517,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1570,187 +1560,159 @@
         <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1809,71 +1771,374 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:BD65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK115"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="M92" activeCellId="0" sqref="M92"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="94.0485829959514"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="84.0890688259109"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.10526315789474"/>
+    <col min="1" max="1" width="10.42578125" style="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="3" max="3" width="18.5703125" style="1"/>
+    <col min="4" max="4" width="10.85546875" style="1"/>
+    <col min="5" max="5" width="15.5703125" style="1"/>
+    <col min="6" max="6" width="47" style="1"/>
+    <col min="7" max="7" width="67.5703125" style="1"/>
+    <col min="8" max="8" width="43" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="12" width="13.42578125" style="1"/>
+    <col min="13" max="13" width="44.42578125" style="1"/>
+    <col min="14" max="14" width="42.5703125" style="1"/>
+    <col min="15" max="15" width="20" style="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="19" style="1"/>
+    <col min="18" max="18" width="13.42578125" style="1"/>
+    <col min="19" max="19" width="7" style="1"/>
+    <col min="20" max="20" width="13.85546875" style="1"/>
+    <col min="21" max="21" width="17.85546875" style="1"/>
+    <col min="22" max="22" width="22.85546875" style="1"/>
+    <col min="23" max="23" width="22.42578125" style="1"/>
+    <col min="24" max="24" width="47.85546875" style="1"/>
+    <col min="25" max="25" width="23.28515625" style="1"/>
+    <col min="26" max="26" width="25.85546875" style="1"/>
+    <col min="27" max="27" width="26" style="1"/>
+    <col min="28" max="28" width="16" style="1"/>
+    <col min="29" max="29" width="26" style="1"/>
+    <col min="30" max="30" width="13.42578125" style="1"/>
+    <col min="31" max="31" width="13" style="1"/>
+    <col min="32" max="32" width="13.42578125" style="1"/>
+    <col min="33" max="33" width="94" style="1"/>
+    <col min="34" max="34" width="84.140625" style="1"/>
+    <col min="35" max="35" width="7.5703125" style="1"/>
+    <col min="36" max="36" width="8.7109375" style="1"/>
+    <col min="37" max="37" width="10.5703125" style="1"/>
+    <col min="38" max="1025" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1990,8 +2255,8 @@
       </c>
       <c r="BD1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>174</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2039,10 +2304,10 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="11">
         <v>1</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="11">
         <v>300</v>
       </c>
       <c r="AK2" s="12" t="s">
@@ -2051,8 +2316,8 @@
       <c r="AL2" s="7"/>
       <c r="BD2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+    <row r="3" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>175</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2100,10 +2365,10 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="11">
         <v>1</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="11">
         <v>301</v>
       </c>
       <c r="AK3" s="12" t="s">
@@ -2112,8 +2377,8 @@
       <c r="AL3" s="11"/>
       <c r="BD3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+    <row r="4" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>176</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -2161,22 +2426,22 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="11">
         <v>1</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="11">
         <v>302</v>
       </c>
-      <c r="AK4" s="7" t="n">
+      <c r="AK4" s="7">
         <v>63</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="11">
         <v>301</v>
       </c>
       <c r="BD4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+    <row r="5" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>177</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2224,22 +2489,22 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="11">
         <v>1</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="11">
         <v>303</v>
       </c>
-      <c r="AK5" s="7" t="n">
+      <c r="AK5" s="7">
         <v>69</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="11">
         <v>301</v>
       </c>
       <c r="BD5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+    <row r="6" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>178</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2287,10 +2552,10 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="11" t="n">
+      <c r="AI6" s="11">
         <v>1</v>
       </c>
-      <c r="AJ6" s="11" t="n">
+      <c r="AJ6" s="11">
         <v>310</v>
       </c>
       <c r="AK6" s="12" t="s">
@@ -2299,8 +2564,8 @@
       <c r="AL6" s="11"/>
       <c r="BD6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>179</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2348,22 +2613,22 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
-      <c r="AI7" s="11" t="n">
+      <c r="AI7" s="11">
         <v>1</v>
       </c>
-      <c r="AJ7" s="11" t="n">
+      <c r="AJ7" s="11">
         <v>311</v>
       </c>
-      <c r="AK7" s="7" t="n">
+      <c r="AK7" s="7">
         <v>79</v>
       </c>
-      <c r="AL7" s="11" t="n">
+      <c r="AL7" s="11">
         <v>310</v>
       </c>
       <c r="BD7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+    <row r="8" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>180</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2411,22 +2676,22 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="11" t="n">
+      <c r="AI8" s="11">
         <v>1</v>
       </c>
-      <c r="AJ8" s="11" t="n">
+      <c r="AJ8" s="11">
         <v>312</v>
       </c>
       <c r="AK8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AL8" s="11" t="n">
+      <c r="AL8" s="11">
         <v>310</v>
       </c>
       <c r="BD8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+    <row r="9" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>182</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2474,22 +2739,22 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
-      <c r="AI9" s="7" t="n">
+      <c r="AI9" s="7">
         <v>1</v>
       </c>
-      <c r="AJ9" s="7" t="n">
+      <c r="AJ9" s="7">
         <v>501</v>
       </c>
-      <c r="AK9" s="7" t="n">
+      <c r="AK9" s="7">
         <v>58</v>
       </c>
-      <c r="AL9" s="7" t="n">
+      <c r="AL9" s="7">
         <v>520</v>
       </c>
       <c r="BD9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+    <row r="10" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>183</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2537,22 +2802,22 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="7" t="n">
+      <c r="AI10" s="7">
         <v>1</v>
       </c>
-      <c r="AJ10" s="7" t="n">
+      <c r="AJ10" s="7">
         <v>502</v>
       </c>
-      <c r="AK10" s="7" t="n">
+      <c r="AK10" s="7">
         <v>62</v>
       </c>
-      <c r="AL10" s="7" t="n">
+      <c r="AL10" s="7">
         <v>520</v>
       </c>
       <c r="BD10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+    <row r="11" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>184</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2600,22 +2865,22 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
-      <c r="AI11" s="7" t="n">
+      <c r="AI11" s="7">
         <v>1</v>
       </c>
-      <c r="AJ11" s="7" t="n">
+      <c r="AJ11" s="7">
         <v>503</v>
       </c>
-      <c r="AK11" s="7" t="n">
+      <c r="AK11" s="7">
         <v>59</v>
       </c>
-      <c r="AL11" s="7" t="n">
+      <c r="AL11" s="7">
         <v>520</v>
       </c>
       <c r="BD11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+    <row r="12" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>185</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2663,22 +2928,22 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
-      <c r="AI12" s="7" t="n">
+      <c r="AI12" s="7">
         <v>1</v>
       </c>
-      <c r="AJ12" s="7" t="n">
+      <c r="AJ12" s="7">
         <v>504</v>
       </c>
-      <c r="AK12" s="7" t="n">
+      <c r="AK12" s="7">
         <v>60</v>
       </c>
-      <c r="AL12" s="7" t="n">
+      <c r="AL12" s="7">
         <v>520</v>
       </c>
       <c r="BD12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+    <row r="13" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>186</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2726,22 +2991,22 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="7" t="n">
+      <c r="AI13" s="7">
         <v>1</v>
       </c>
-      <c r="AJ13" s="7" t="n">
+      <c r="AJ13" s="7">
         <v>505</v>
       </c>
-      <c r="AK13" s="7" t="n">
+      <c r="AK13" s="7">
         <v>61</v>
       </c>
-      <c r="AL13" s="7" t="n">
+      <c r="AL13" s="7">
         <v>520</v>
       </c>
       <c r="BD13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+    <row r="14" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>188</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2789,10 +3054,10 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="7" t="n">
+      <c r="AI14" s="7">
         <v>1</v>
       </c>
-      <c r="AJ14" s="7" t="n">
+      <c r="AJ14" s="7">
         <v>520</v>
       </c>
       <c r="AK14" s="13" t="s">
@@ -2801,8 +3066,8 @@
       <c r="AL14" s="7"/>
       <c r="BD14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+    <row r="15" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2854,22 +3119,22 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="7" t="n">
+      <c r="AI15" s="7">
         <v>2</v>
       </c>
-      <c r="AJ15" s="7" t="n">
+      <c r="AJ15" s="7">
         <v>1</v>
       </c>
       <c r="AK15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AL15" s="7" t="n">
+      <c r="AL15" s="7">
         <v>300</v>
       </c>
       <c r="BD15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+    <row r="16" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2894,7 +3159,7 @@
         <v>78</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="7">
         <v>1</v>
       </c>
       <c r="K16" s="7"/>
@@ -2930,27 +3195,27 @@
       <c r="AC16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD16" s="15" t="n">
-        <v>0.01793</v>
+      <c r="AD16" s="15">
+        <v>1.7930000000000001E-2</v>
       </c>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="7" t="n">
+      <c r="AI16" s="7">
         <v>3</v>
       </c>
-      <c r="AJ16" s="7" t="n">
+      <c r="AJ16" s="7">
         <v>2</v>
       </c>
       <c r="AK16" s="7"/>
-      <c r="AL16" s="7" t="n">
+      <c r="AL16" s="7">
         <v>1</v>
       </c>
       <c r="BD16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+    <row r="17" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2975,7 +3240,7 @@
         <v>78</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="7">
         <v>1</v>
       </c>
       <c r="K17" s="7"/>
@@ -3011,27 +3276,27 @@
       <c r="AC17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD17" s="15" t="n">
-        <v>0.01793</v>
+      <c r="AD17" s="15">
+        <v>1.7930000000000001E-2</v>
       </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
-      <c r="AI17" s="7" t="n">
+      <c r="AI17" s="7">
         <v>3</v>
       </c>
-      <c r="AJ17" s="7" t="n">
+      <c r="AJ17" s="7">
         <v>3</v>
       </c>
       <c r="AK17" s="7"/>
-      <c r="AL17" s="7" t="n">
+      <c r="AL17" s="7">
         <v>1</v>
       </c>
       <c r="BD17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+    <row r="18" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>4</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -3056,7 +3321,7 @@
         <v>78</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="7">
         <v>1</v>
       </c>
       <c r="K18" s="7"/>
@@ -3092,27 +3357,27 @@
       <c r="AC18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD18" s="15" t="n">
-        <v>0.01793</v>
+      <c r="AD18" s="15">
+        <v>1.7930000000000001E-2</v>
       </c>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
-      <c r="AI18" s="7" t="n">
+      <c r="AI18" s="7">
         <v>3</v>
       </c>
-      <c r="AJ18" s="7" t="n">
+      <c r="AJ18" s="7">
         <v>4</v>
       </c>
       <c r="AK18" s="7"/>
-      <c r="AL18" s="7" t="n">
+      <c r="AL18" s="7">
         <v>1</v>
       </c>
       <c r="BD18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+    <row r="19" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -3137,7 +3402,7 @@
         <v>78</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="7">
         <v>1</v>
       </c>
       <c r="K19" s="7"/>
@@ -3173,27 +3438,27 @@
       <c r="AC19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD19" s="15" t="n">
-        <v>0.01793</v>
+      <c r="AD19" s="15">
+        <v>1.7930000000000001E-2</v>
       </c>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
-      <c r="AI19" s="7" t="n">
+      <c r="AI19" s="7">
         <v>3</v>
       </c>
-      <c r="AJ19" s="7" t="n">
+      <c r="AJ19" s="7">
         <v>5</v>
       </c>
       <c r="AK19" s="7"/>
-      <c r="AL19" s="7" t="n">
+      <c r="AL19" s="7">
         <v>1</v>
       </c>
       <c r="BD19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+    <row r="20" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>6</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -3218,7 +3483,7 @@
         <v>78</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="7">
         <v>1</v>
       </c>
       <c r="K20" s="7"/>
@@ -3254,27 +3519,27 @@
       <c r="AC20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD20" s="15" t="n">
-        <v>0.01793</v>
+      <c r="AD20" s="15">
+        <v>1.7930000000000001E-2</v>
       </c>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="7" t="n">
+      <c r="AI20" s="7">
         <v>3</v>
       </c>
-      <c r="AJ20" s="7" t="n">
+      <c r="AJ20" s="7">
         <v>6</v>
       </c>
       <c r="AK20" s="7"/>
-      <c r="AL20" s="7" t="n">
+      <c r="AL20" s="7">
         <v>1</v>
       </c>
       <c r="BD20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+    <row r="21" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>7</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -3299,7 +3564,7 @@
         <v>78</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="7">
         <v>1</v>
       </c>
       <c r="K21" s="7"/>
@@ -3335,27 +3600,27 @@
       <c r="AC21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD21" s="15" t="n">
-        <v>0.01793</v>
+      <c r="AD21" s="15">
+        <v>1.7930000000000001E-2</v>
       </c>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
-      <c r="AI21" s="7" t="n">
+      <c r="AI21" s="7">
         <v>3</v>
       </c>
-      <c r="AJ21" s="7" t="n">
+      <c r="AJ21" s="7">
         <v>7</v>
       </c>
       <c r="AK21" s="7"/>
-      <c r="AL21" s="7" t="n">
+      <c r="AL21" s="7">
         <v>1</v>
       </c>
       <c r="BD21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+    <row r="22" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>8</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -3380,7 +3645,7 @@
         <v>78</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="7" t="n">
+      <c r="J22" s="7">
         <v>1</v>
       </c>
       <c r="K22" s="7"/>
@@ -3416,27 +3681,27 @@
       <c r="AC22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD22" s="15" t="n">
-        <v>0.01793</v>
+      <c r="AD22" s="15">
+        <v>1.7930000000000001E-2</v>
       </c>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="7" t="n">
+      <c r="AI22" s="7">
         <v>3</v>
       </c>
-      <c r="AJ22" s="7" t="n">
+      <c r="AJ22" s="7">
         <v>8</v>
       </c>
       <c r="AK22" s="7"/>
-      <c r="AL22" s="7" t="n">
+      <c r="AL22" s="7">
         <v>1</v>
       </c>
       <c r="BD22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+    <row r="23" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -3461,7 +3726,7 @@
         <v>78</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="7" t="n">
+      <c r="J23" s="7">
         <v>1</v>
       </c>
       <c r="K23" s="7"/>
@@ -3497,27 +3762,27 @@
       <c r="AC23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD23" s="15" t="n">
-        <v>0.01793</v>
+      <c r="AD23" s="15">
+        <v>1.7930000000000001E-2</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
-      <c r="AI23" s="7" t="n">
+      <c r="AI23" s="7">
         <v>3</v>
       </c>
-      <c r="AJ23" s="7" t="n">
+      <c r="AJ23" s="7">
         <v>9</v>
       </c>
       <c r="AK23" s="7"/>
-      <c r="AL23" s="7" t="n">
+      <c r="AL23" s="7">
         <v>1</v>
       </c>
       <c r="BD23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+    <row r="24" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>10</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -3542,7 +3807,7 @@
         <v>78</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="7" t="n">
+      <c r="J24" s="7">
         <v>1</v>
       </c>
       <c r="K24" s="7"/>
@@ -3578,27 +3843,27 @@
       <c r="AC24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD24" s="15" t="n">
-        <v>0.006507</v>
+      <c r="AD24" s="15">
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
-      <c r="AI24" s="7" t="n">
+      <c r="AI24" s="7">
         <v>3</v>
       </c>
-      <c r="AJ24" s="7" t="n">
+      <c r="AJ24" s="7">
         <v>10</v>
       </c>
       <c r="AK24" s="7"/>
-      <c r="AL24" s="7" t="n">
+      <c r="AL24" s="7">
         <v>1</v>
       </c>
       <c r="BD24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+    <row r="25" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>11</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3623,7 +3888,7 @@
         <v>78</v>
       </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="7" t="n">
+      <c r="J25" s="7">
         <v>1</v>
       </c>
       <c r="K25" s="7"/>
@@ -3659,27 +3924,27 @@
       <c r="AC25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD25" s="15" t="n">
-        <v>0.006507</v>
+      <c r="AD25" s="15">
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="7" t="n">
+      <c r="AI25" s="7">
         <v>3</v>
       </c>
-      <c r="AJ25" s="7" t="n">
+      <c r="AJ25" s="7">
         <v>11</v>
       </c>
       <c r="AK25" s="7"/>
-      <c r="AL25" s="7" t="n">
+      <c r="AL25" s="7">
         <v>1</v>
       </c>
       <c r="BD25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+    <row r="26" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>12</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -3704,7 +3969,7 @@
         <v>78</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="7" t="n">
+      <c r="J26" s="7">
         <v>1</v>
       </c>
       <c r="K26" s="7"/>
@@ -3740,27 +4005,27 @@
       <c r="AC26" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD26" s="15" t="n">
-        <v>0.006507</v>
+      <c r="AD26" s="15">
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="7" t="n">
+      <c r="AI26" s="7">
         <v>3</v>
       </c>
-      <c r="AJ26" s="7" t="n">
+      <c r="AJ26" s="7">
         <v>12</v>
       </c>
       <c r="AK26" s="7"/>
-      <c r="AL26" s="7" t="n">
+      <c r="AL26" s="7">
         <v>1</v>
       </c>
       <c r="BD26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+    <row r="27" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>13</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -3785,7 +4050,7 @@
         <v>78</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="7" t="n">
+      <c r="J27" s="7">
         <v>1</v>
       </c>
       <c r="K27" s="7"/>
@@ -3821,27 +4086,27 @@
       <c r="AC27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD27" s="15" t="n">
-        <v>0.006507</v>
+      <c r="AD27" s="15">
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
-      <c r="AI27" s="7" t="n">
+      <c r="AI27" s="7">
         <v>3</v>
       </c>
-      <c r="AJ27" s="7" t="n">
+      <c r="AJ27" s="7">
         <v>13</v>
       </c>
       <c r="AK27" s="7"/>
-      <c r="AL27" s="7" t="n">
+      <c r="AL27" s="7">
         <v>1</v>
       </c>
       <c r="BD27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+    <row r="28" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>14</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -3866,7 +4131,7 @@
         <v>78</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="7" t="n">
+      <c r="J28" s="7">
         <v>1</v>
       </c>
       <c r="K28" s="7"/>
@@ -3902,27 +4167,27 @@
       <c r="AC28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD28" s="15" t="n">
-        <v>0.006507</v>
+      <c r="AD28" s="15">
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="7" t="n">
+      <c r="AI28" s="7">
         <v>3</v>
       </c>
-      <c r="AJ28" s="7" t="n">
+      <c r="AJ28" s="7">
         <v>14</v>
       </c>
       <c r="AK28" s="7"/>
-      <c r="AL28" s="7" t="n">
+      <c r="AL28" s="7">
         <v>1</v>
       </c>
       <c r="BD28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+    <row r="29" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>15</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3947,7 +4212,7 @@
         <v>78</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="7">
         <v>1</v>
       </c>
       <c r="K29" s="7"/>
@@ -3983,27 +4248,27 @@
       <c r="AC29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD29" s="15" t="n">
-        <v>0.006507</v>
+      <c r="AD29" s="15">
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
-      <c r="AI29" s="7" t="n">
+      <c r="AI29" s="7">
         <v>3</v>
       </c>
-      <c r="AJ29" s="7" t="n">
+      <c r="AJ29" s="7">
         <v>15</v>
       </c>
       <c r="AK29" s="7"/>
-      <c r="AL29" s="7" t="n">
+      <c r="AL29" s="7">
         <v>1</v>
       </c>
       <c r="BD29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+    <row r="30" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>16</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -4028,7 +4293,7 @@
         <v>78</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="7" t="n">
+      <c r="J30" s="7">
         <v>1</v>
       </c>
       <c r="K30" s="7"/>
@@ -4064,27 +4329,27 @@
       <c r="AC30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD30" s="15" t="n">
-        <v>0.006507</v>
+      <c r="AD30" s="15">
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="7" t="n">
+      <c r="AI30" s="7">
         <v>3</v>
       </c>
-      <c r="AJ30" s="7" t="n">
+      <c r="AJ30" s="7">
         <v>16</v>
       </c>
       <c r="AK30" s="7"/>
-      <c r="AL30" s="7" t="n">
+      <c r="AL30" s="7">
         <v>1</v>
       </c>
       <c r="BD30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+    <row r="31" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>17</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -4109,7 +4374,7 @@
         <v>78</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7" t="n">
+      <c r="J31" s="7">
         <v>1</v>
       </c>
       <c r="K31" s="7"/>
@@ -4145,27 +4410,27 @@
       <c r="AC31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD31" s="15" t="n">
-        <v>0.006507</v>
+      <c r="AD31" s="15">
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
-      <c r="AI31" s="7" t="n">
+      <c r="AI31" s="7">
         <v>3</v>
       </c>
-      <c r="AJ31" s="7" t="n">
+      <c r="AJ31" s="7">
         <v>17</v>
       </c>
       <c r="AK31" s="7"/>
-      <c r="AL31" s="7" t="n">
+      <c r="AL31" s="7">
         <v>1</v>
       </c>
       <c r="BD31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+    <row r="32" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>18</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -4190,7 +4455,7 @@
         <v>78</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="7" t="n">
+      <c r="J32" s="7">
         <v>1</v>
       </c>
       <c r="K32" s="7"/>
@@ -4226,27 +4491,27 @@
       <c r="AC32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD32" s="15" t="n">
-        <v>0.006507</v>
+      <c r="AD32" s="15">
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="7" t="n">
+      <c r="AI32" s="7">
         <v>3</v>
       </c>
-      <c r="AJ32" s="7" t="n">
+      <c r="AJ32" s="7">
         <v>18</v>
       </c>
       <c r="AK32" s="7"/>
-      <c r="AL32" s="7" t="n">
+      <c r="AL32" s="7">
         <v>1</v>
       </c>
       <c r="BD32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+    <row r="33" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>19</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -4271,7 +4536,7 @@
         <v>78</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="7" t="n">
+      <c r="J33" s="7">
         <v>1</v>
       </c>
       <c r="K33" s="7"/>
@@ -4307,27 +4572,27 @@
       <c r="AC33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD33" s="15" t="n">
-        <v>0.006507</v>
+      <c r="AD33" s="15">
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
-      <c r="AI33" s="7" t="n">
+      <c r="AI33" s="7">
         <v>3</v>
       </c>
-      <c r="AJ33" s="7" t="n">
+      <c r="AJ33" s="7">
         <v>19</v>
       </c>
       <c r="AK33" s="7"/>
-      <c r="AL33" s="7" t="n">
+      <c r="AL33" s="7">
         <v>1</v>
       </c>
       <c r="BD33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+    <row r="34" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>20</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -4352,7 +4617,7 @@
         <v>78</v>
       </c>
       <c r="I34" s="7"/>
-      <c r="J34" s="7" t="n">
+      <c r="J34" s="7">
         <v>1</v>
       </c>
       <c r="K34" s="7"/>
@@ -4388,27 +4653,27 @@
       <c r="AC34" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD34" s="15" t="n">
-        <v>0.006507</v>
+      <c r="AD34" s="15">
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
-      <c r="AI34" s="7" t="n">
+      <c r="AI34" s="7">
         <v>3</v>
       </c>
-      <c r="AJ34" s="7" t="n">
+      <c r="AJ34" s="7">
         <v>20</v>
       </c>
       <c r="AK34" s="7"/>
-      <c r="AL34" s="7" t="n">
+      <c r="AL34" s="7">
         <v>1</v>
       </c>
       <c r="BD34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+    <row r="35" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>21</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -4433,7 +4698,7 @@
         <v>78</v>
       </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="7" t="n">
+      <c r="J35" s="7">
         <v>1</v>
       </c>
       <c r="K35" s="7"/>
@@ -4469,27 +4734,27 @@
       <c r="AC35" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD35" s="15" t="n">
-        <v>0.006507</v>
+      <c r="AD35" s="15">
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
-      <c r="AI35" s="7" t="n">
+      <c r="AI35" s="7">
         <v>3</v>
       </c>
-      <c r="AJ35" s="7" t="n">
+      <c r="AJ35" s="7">
         <v>21</v>
       </c>
       <c r="AK35" s="7"/>
-      <c r="AL35" s="7" t="n">
+      <c r="AL35" s="7">
         <v>1</v>
       </c>
       <c r="BD35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+    <row r="36" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>22</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -4514,7 +4779,7 @@
         <v>78</v>
       </c>
       <c r="I36" s="7"/>
-      <c r="J36" s="7" t="n">
+      <c r="J36" s="7">
         <v>1</v>
       </c>
       <c r="K36" s="7"/>
@@ -4550,27 +4815,27 @@
       <c r="AC36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD36" s="15" t="n">
-        <v>0.006507</v>
+      <c r="AD36" s="15">
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="7"/>
-      <c r="AI36" s="7" t="n">
+      <c r="AI36" s="7">
         <v>3</v>
       </c>
-      <c r="AJ36" s="7" t="n">
+      <c r="AJ36" s="7">
         <v>22</v>
       </c>
       <c r="AK36" s="7"/>
-      <c r="AL36" s="7" t="n">
+      <c r="AL36" s="7">
         <v>1</v>
       </c>
       <c r="BD36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+    <row r="37" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>23</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -4595,7 +4860,7 @@
         <v>78</v>
       </c>
       <c r="I37" s="7"/>
-      <c r="J37" s="7" t="n">
+      <c r="J37" s="7">
         <v>1</v>
       </c>
       <c r="K37" s="7"/>
@@ -4631,27 +4896,27 @@
       <c r="AC37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD37" s="15" t="n">
-        <v>0.006483</v>
+      <c r="AD37" s="15">
+        <v>6.483E-3</v>
       </c>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
-      <c r="AI37" s="7" t="n">
+      <c r="AI37" s="7">
         <v>3</v>
       </c>
-      <c r="AJ37" s="7" t="n">
+      <c r="AJ37" s="7">
         <v>23</v>
       </c>
       <c r="AK37" s="7"/>
-      <c r="AL37" s="7" t="n">
+      <c r="AL37" s="7">
         <v>1</v>
       </c>
       <c r="BD37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+    <row r="38" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>24</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -4676,7 +4941,7 @@
         <v>78</v>
       </c>
       <c r="I38" s="7"/>
-      <c r="J38" s="7" t="n">
+      <c r="J38" s="7">
         <v>1</v>
       </c>
       <c r="K38" s="7"/>
@@ -4712,27 +4977,27 @@
       <c r="AC38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD38" s="15" t="n">
-        <v>0.006483</v>
+      <c r="AD38" s="15">
+        <v>6.483E-3</v>
       </c>
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
-      <c r="AI38" s="7" t="n">
+      <c r="AI38" s="7">
         <v>3</v>
       </c>
-      <c r="AJ38" s="7" t="n">
+      <c r="AJ38" s="7">
         <v>24</v>
       </c>
       <c r="AK38" s="7"/>
-      <c r="AL38" s="7" t="n">
+      <c r="AL38" s="7">
         <v>1</v>
       </c>
       <c r="BD38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
+    <row r="39" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>25</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -4784,22 +5049,22 @@
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
-      <c r="AI39" s="7" t="n">
+      <c r="AI39" s="7">
         <v>2</v>
       </c>
-      <c r="AJ39" s="7" t="n">
+      <c r="AJ39" s="7">
         <v>25</v>
       </c>
       <c r="AK39" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="AL39" s="7" t="n">
+      <c r="AL39" s="7">
         <v>300</v>
       </c>
       <c r="BD39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
+    <row r="40" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>26</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -4824,7 +5089,7 @@
         <v>78</v>
       </c>
       <c r="I40" s="7"/>
-      <c r="J40" s="7" t="n">
+      <c r="J40" s="7">
         <v>1</v>
       </c>
       <c r="K40" s="7"/>
@@ -4860,27 +5125,27 @@
       <c r="AC40" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD40" s="15" t="n">
-        <v>0.014349</v>
+      <c r="AD40" s="15">
+        <v>1.4349000000000001E-2</v>
       </c>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
-      <c r="AI40" s="7" t="n">
+      <c r="AI40" s="7">
         <v>3</v>
       </c>
-      <c r="AJ40" s="7" t="n">
+      <c r="AJ40" s="7">
         <v>26</v>
       </c>
       <c r="AK40" s="7"/>
-      <c r="AL40" s="7" t="n">
+      <c r="AL40" s="7">
         <v>25</v>
       </c>
       <c r="BD40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+    <row r="41" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>27</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -4905,7 +5170,7 @@
         <v>78</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="7" t="n">
+      <c r="J41" s="7">
         <v>1</v>
       </c>
       <c r="K41" s="7"/>
@@ -4941,27 +5206,27 @@
       <c r="AC41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD41" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD41" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="7"/>
-      <c r="AI41" s="7" t="n">
+      <c r="AI41" s="7">
         <v>3</v>
       </c>
-      <c r="AJ41" s="7" t="n">
+      <c r="AJ41" s="7">
         <v>27</v>
       </c>
       <c r="AK41" s="7"/>
-      <c r="AL41" s="7" t="n">
+      <c r="AL41" s="7">
         <v>25</v>
       </c>
       <c r="BD41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="n">
+    <row r="42" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>28</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -4986,7 +5251,7 @@
         <v>78</v>
       </c>
       <c r="I42" s="7"/>
-      <c r="J42" s="7" t="n">
+      <c r="J42" s="7">
         <v>1</v>
       </c>
       <c r="K42" s="7"/>
@@ -5022,27 +5287,27 @@
       <c r="AC42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD42" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD42" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7"/>
-      <c r="AI42" s="7" t="n">
+      <c r="AI42" s="7">
         <v>3</v>
       </c>
-      <c r="AJ42" s="7" t="n">
+      <c r="AJ42" s="7">
         <v>28</v>
       </c>
       <c r="AK42" s="7"/>
-      <c r="AL42" s="7" t="n">
+      <c r="AL42" s="7">
         <v>25</v>
       </c>
       <c r="BD42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+    <row r="43" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>29</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -5067,7 +5332,7 @@
         <v>78</v>
       </c>
       <c r="I43" s="7"/>
-      <c r="J43" s="7" t="n">
+      <c r="J43" s="7">
         <v>1</v>
       </c>
       <c r="K43" s="7"/>
@@ -5103,27 +5368,27 @@
       <c r="AC43" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD43" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD43" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE43" s="7"/>
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
       <c r="AH43" s="7"/>
-      <c r="AI43" s="7" t="n">
+      <c r="AI43" s="7">
         <v>3</v>
       </c>
-      <c r="AJ43" s="7" t="n">
+      <c r="AJ43" s="7">
         <v>29</v>
       </c>
       <c r="AK43" s="7"/>
-      <c r="AL43" s="7" t="n">
+      <c r="AL43" s="7">
         <v>25</v>
       </c>
       <c r="BD43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+    <row r="44" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>30</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -5148,7 +5413,7 @@
         <v>78</v>
       </c>
       <c r="I44" s="7"/>
-      <c r="J44" s="7" t="n">
+      <c r="J44" s="7">
         <v>1</v>
       </c>
       <c r="K44" s="7"/>
@@ -5184,27 +5449,27 @@
       <c r="AC44" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD44" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD44" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
       <c r="AG44" s="7"/>
       <c r="AH44" s="7"/>
-      <c r="AI44" s="7" t="n">
+      <c r="AI44" s="7">
         <v>3</v>
       </c>
-      <c r="AJ44" s="7" t="n">
+      <c r="AJ44" s="7">
         <v>30</v>
       </c>
       <c r="AK44" s="7"/>
-      <c r="AL44" s="7" t="n">
+      <c r="AL44" s="7">
         <v>25</v>
       </c>
       <c r="BD44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+    <row r="45" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>31</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -5229,7 +5494,7 @@
         <v>78</v>
       </c>
       <c r="I45" s="7"/>
-      <c r="J45" s="7" t="n">
+      <c r="J45" s="7">
         <v>1</v>
       </c>
       <c r="K45" s="7"/>
@@ -5265,27 +5530,27 @@
       <c r="AC45" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD45" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD45" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
-      <c r="AI45" s="7" t="n">
+      <c r="AI45" s="7">
         <v>3</v>
       </c>
-      <c r="AJ45" s="7" t="n">
+      <c r="AJ45" s="7">
         <v>31</v>
       </c>
       <c r="AK45" s="7"/>
-      <c r="AL45" s="7" t="n">
+      <c r="AL45" s="7">
         <v>25</v>
       </c>
       <c r="BD45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+    <row r="46" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>32</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -5337,22 +5602,22 @@
       <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
       <c r="AH46" s="7"/>
-      <c r="AI46" s="7" t="n">
+      <c r="AI46" s="7">
         <v>2</v>
       </c>
-      <c r="AJ46" s="7" t="n">
+      <c r="AJ46" s="7">
         <v>32</v>
       </c>
       <c r="AK46" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="AL46" s="7" t="n">
+      <c r="AL46" s="7">
         <v>300</v>
       </c>
       <c r="BD46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
+    <row r="47" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>33</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -5377,7 +5642,7 @@
         <v>78</v>
       </c>
       <c r="I47" s="7"/>
-      <c r="J47" s="7" t="n">
+      <c r="J47" s="7">
         <v>1</v>
       </c>
       <c r="K47" s="7"/>
@@ -5413,27 +5678,27 @@
       <c r="AC47" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD47" s="15" t="n">
-        <v>0.014349</v>
+      <c r="AD47" s="15">
+        <v>1.4349000000000001E-2</v>
       </c>
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
-      <c r="AI47" s="7" t="n">
+      <c r="AI47" s="7">
         <v>3</v>
       </c>
-      <c r="AJ47" s="7" t="n">
+      <c r="AJ47" s="7">
         <v>33</v>
       </c>
       <c r="AK47" s="7"/>
-      <c r="AL47" s="7" t="n">
+      <c r="AL47" s="7">
         <v>32</v>
       </c>
       <c r="BD47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="n">
+    <row r="48" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>34</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -5458,7 +5723,7 @@
         <v>78</v>
       </c>
       <c r="I48" s="7"/>
-      <c r="J48" s="7" t="n">
+      <c r="J48" s="7">
         <v>1</v>
       </c>
       <c r="K48" s="7"/>
@@ -5494,27 +5759,27 @@
       <c r="AC48" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD48" s="15" t="n">
-        <v>0.014349</v>
+      <c r="AD48" s="15">
+        <v>1.4349000000000001E-2</v>
       </c>
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
       <c r="AG48" s="7"/>
       <c r="AH48" s="7"/>
-      <c r="AI48" s="7" t="n">
+      <c r="AI48" s="7">
         <v>3</v>
       </c>
-      <c r="AJ48" s="7" t="n">
+      <c r="AJ48" s="7">
         <v>34</v>
       </c>
       <c r="AK48" s="7"/>
-      <c r="AL48" s="7" t="n">
+      <c r="AL48" s="7">
         <v>32</v>
       </c>
       <c r="BD48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="n">
+    <row r="49" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>35</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -5539,7 +5804,7 @@
         <v>78</v>
       </c>
       <c r="I49" s="7"/>
-      <c r="J49" s="7" t="n">
+      <c r="J49" s="7">
         <v>1</v>
       </c>
       <c r="K49" s="7"/>
@@ -5575,27 +5840,27 @@
       <c r="AC49" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD49" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD49" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
       <c r="AH49" s="7"/>
-      <c r="AI49" s="7" t="n">
+      <c r="AI49" s="7">
         <v>3</v>
       </c>
-      <c r="AJ49" s="7" t="n">
+      <c r="AJ49" s="7">
         <v>35</v>
       </c>
       <c r="AK49" s="7"/>
-      <c r="AL49" s="7" t="n">
+      <c r="AL49" s="7">
         <v>32</v>
       </c>
       <c r="BD49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="n">
+    <row r="50" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
         <v>36</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -5620,7 +5885,7 @@
         <v>78</v>
       </c>
       <c r="I50" s="7"/>
-      <c r="J50" s="7" t="n">
+      <c r="J50" s="7">
         <v>1</v>
       </c>
       <c r="K50" s="7"/>
@@ -5656,27 +5921,27 @@
       <c r="AC50" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD50" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD50" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
       <c r="AH50" s="7"/>
-      <c r="AI50" s="7" t="n">
+      <c r="AI50" s="7">
         <v>3</v>
       </c>
-      <c r="AJ50" s="7" t="n">
+      <c r="AJ50" s="7">
         <v>36</v>
       </c>
       <c r="AK50" s="7"/>
-      <c r="AL50" s="7" t="n">
+      <c r="AL50" s="7">
         <v>32</v>
       </c>
       <c r="BD50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="n">
+    <row r="51" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>37</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -5701,7 +5966,7 @@
         <v>78</v>
       </c>
       <c r="I51" s="7"/>
-      <c r="J51" s="7" t="n">
+      <c r="J51" s="7">
         <v>1</v>
       </c>
       <c r="K51" s="7"/>
@@ -5709,7 +5974,7 @@
       <c r="M51" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="N51" s="11" t="n">
+      <c r="N51" s="11">
         <v>5449000148056</v>
       </c>
       <c r="O51" s="11"/>
@@ -5737,27 +6002,27 @@
       <c r="AC51" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD51" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD51" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
-      <c r="AI51" s="7" t="n">
+      <c r="AI51" s="7">
         <v>3</v>
       </c>
-      <c r="AJ51" s="7" t="n">
+      <c r="AJ51" s="7">
         <v>37</v>
       </c>
       <c r="AK51" s="7"/>
-      <c r="AL51" s="7" t="n">
+      <c r="AL51" s="7">
         <v>32</v>
       </c>
       <c r="BD51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="n">
+    <row r="52" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>38</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -5809,22 +6074,22 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
       <c r="AH52" s="7"/>
-      <c r="AI52" s="7" t="n">
+      <c r="AI52" s="7">
         <v>2</v>
       </c>
-      <c r="AJ52" s="7" t="n">
+      <c r="AJ52" s="7">
         <v>38</v>
       </c>
       <c r="AK52" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="AL52" s="7" t="n">
+      <c r="AL52" s="7">
         <v>300</v>
       </c>
       <c r="BD52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="n">
+    <row r="53" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>39</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -5849,7 +6114,7 @@
         <v>78</v>
       </c>
       <c r="I53" s="7"/>
-      <c r="J53" s="7" t="n">
+      <c r="J53" s="7">
         <v>1</v>
       </c>
       <c r="K53" s="7"/>
@@ -5885,27 +6150,27 @@
       <c r="AC53" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD53" s="15" t="n">
-        <v>0.014321</v>
+      <c r="AD53" s="15">
+        <v>1.4321E-2</v>
       </c>
       <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="7"/>
       <c r="AH53" s="7"/>
-      <c r="AI53" s="7" t="n">
+      <c r="AI53" s="7">
         <v>3</v>
       </c>
-      <c r="AJ53" s="7" t="n">
+      <c r="AJ53" s="7">
         <v>39</v>
       </c>
       <c r="AK53" s="7"/>
-      <c r="AL53" s="7" t="n">
+      <c r="AL53" s="7">
         <v>38</v>
       </c>
       <c r="BD53" s="6"/>
     </row>
-    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="n">
+    <row r="54" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
         <v>40</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -5930,7 +6195,7 @@
         <v>78</v>
       </c>
       <c r="I54" s="7"/>
-      <c r="J54" s="7" t="n">
+      <c r="J54" s="7">
         <v>1</v>
       </c>
       <c r="K54" s="7"/>
@@ -5966,27 +6231,27 @@
       <c r="AC54" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD54" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD54" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE54" s="7"/>
       <c r="AF54" s="7"/>
       <c r="AG54" s="7"/>
       <c r="AH54" s="7"/>
-      <c r="AI54" s="7" t="n">
+      <c r="AI54" s="7">
         <v>3</v>
       </c>
-      <c r="AJ54" s="7" t="n">
+      <c r="AJ54" s="7">
         <v>40</v>
       </c>
       <c r="AK54" s="7"/>
-      <c r="AL54" s="7" t="n">
+      <c r="AL54" s="7">
         <v>38</v>
       </c>
       <c r="BD54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="n">
+    <row r="55" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>41</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -6011,7 +6276,7 @@
         <v>78</v>
       </c>
       <c r="I55" s="7"/>
-      <c r="J55" s="7" t="n">
+      <c r="J55" s="7">
         <v>1</v>
       </c>
       <c r="K55" s="7"/>
@@ -6047,27 +6312,27 @@
       <c r="AC55" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD55" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD55" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE55" s="7"/>
       <c r="AF55" s="7"/>
       <c r="AG55" s="7"/>
       <c r="AH55" s="7"/>
-      <c r="AI55" s="7" t="n">
+      <c r="AI55" s="7">
         <v>3</v>
       </c>
-      <c r="AJ55" s="7" t="n">
+      <c r="AJ55" s="7">
         <v>41</v>
       </c>
       <c r="AK55" s="7"/>
-      <c r="AL55" s="7" t="n">
+      <c r="AL55" s="7">
         <v>38</v>
       </c>
       <c r="BD55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="n">
+    <row r="56" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
         <v>42</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -6092,7 +6357,7 @@
         <v>78</v>
       </c>
       <c r="I56" s="7"/>
-      <c r="J56" s="7" t="n">
+      <c r="J56" s="7">
         <v>1</v>
       </c>
       <c r="K56" s="7"/>
@@ -6128,27 +6393,27 @@
       <c r="AC56" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD56" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD56" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE56" s="7"/>
       <c r="AF56" s="7"/>
       <c r="AG56" s="7"/>
       <c r="AH56" s="7"/>
-      <c r="AI56" s="7" t="n">
+      <c r="AI56" s="7">
         <v>3</v>
       </c>
-      <c r="AJ56" s="7" t="n">
+      <c r="AJ56" s="7">
         <v>42</v>
       </c>
       <c r="AK56" s="7"/>
-      <c r="AL56" s="7" t="n">
+      <c r="AL56" s="7">
         <v>38</v>
       </c>
       <c r="BD56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="n">
+    <row r="57" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
         <v>43</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -6173,7 +6438,7 @@
         <v>78</v>
       </c>
       <c r="I57" s="7"/>
-      <c r="J57" s="7" t="n">
+      <c r="J57" s="7">
         <v>1</v>
       </c>
       <c r="K57" s="7"/>
@@ -6209,27 +6474,27 @@
       <c r="AC57" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD57" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD57" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
       <c r="AG57" s="7"/>
       <c r="AH57" s="7"/>
-      <c r="AI57" s="7" t="n">
+      <c r="AI57" s="7">
         <v>3</v>
       </c>
-      <c r="AJ57" s="7" t="n">
+      <c r="AJ57" s="7">
         <v>43</v>
       </c>
       <c r="AK57" s="7"/>
-      <c r="AL57" s="7" t="n">
+      <c r="AL57" s="7">
         <v>38</v>
       </c>
       <c r="BD57" s="6"/>
     </row>
-    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="n">
+    <row r="58" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
         <v>44</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -6254,7 +6519,7 @@
         <v>78</v>
       </c>
       <c r="I58" s="7"/>
-      <c r="J58" s="7" t="n">
+      <c r="J58" s="7">
         <v>1</v>
       </c>
       <c r="K58" s="7"/>
@@ -6262,7 +6527,7 @@
       <c r="M58" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="N58" s="11" t="n">
+      <c r="N58" s="11">
         <v>111111</v>
       </c>
       <c r="O58" s="7"/>
@@ -6290,27 +6555,27 @@
       <c r="AC58" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD58" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD58" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE58" s="7"/>
       <c r="AF58" s="7"/>
       <c r="AG58" s="7"/>
       <c r="AH58" s="7"/>
-      <c r="AI58" s="7" t="n">
+      <c r="AI58" s="7">
         <v>3</v>
       </c>
-      <c r="AJ58" s="7" t="n">
+      <c r="AJ58" s="7">
         <v>44</v>
       </c>
       <c r="AK58" s="7"/>
-      <c r="AL58" s="7" t="n">
+      <c r="AL58" s="7">
         <v>38</v>
       </c>
       <c r="BD58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="n">
+    <row r="59" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
         <v>45</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -6362,22 +6627,22 @@
       <c r="AF59" s="7"/>
       <c r="AG59" s="7"/>
       <c r="AH59" s="7"/>
-      <c r="AI59" s="7" t="n">
+      <c r="AI59" s="7">
         <v>2</v>
       </c>
-      <c r="AJ59" s="7" t="n">
+      <c r="AJ59" s="7">
         <v>45</v>
       </c>
       <c r="AK59" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="AL59" s="7" t="n">
+      <c r="AL59" s="7">
         <v>300</v>
       </c>
       <c r="BD59" s="6"/>
     </row>
-    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="n">
+    <row r="60" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
         <v>46</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -6402,7 +6667,7 @@
         <v>78</v>
       </c>
       <c r="I60" s="7"/>
-      <c r="J60" s="7" t="n">
+      <c r="J60" s="7">
         <v>1</v>
       </c>
       <c r="K60" s="7"/>
@@ -6438,27 +6703,27 @@
       <c r="AC60" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD60" s="15" t="n">
-        <v>0.014323</v>
+      <c r="AD60" s="15">
+        <v>1.4323000000000001E-2</v>
       </c>
       <c r="AE60" s="7"/>
       <c r="AF60" s="7"/>
       <c r="AG60" s="7"/>
       <c r="AH60" s="7"/>
-      <c r="AI60" s="7" t="n">
+      <c r="AI60" s="7">
         <v>3</v>
       </c>
-      <c r="AJ60" s="7" t="n">
+      <c r="AJ60" s="7">
         <v>46</v>
       </c>
       <c r="AK60" s="7"/>
-      <c r="AL60" s="7" t="n">
+      <c r="AL60" s="7">
         <v>45</v>
       </c>
       <c r="BD60" s="6"/>
     </row>
-    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="n">
+    <row r="61" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
         <v>47</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -6483,7 +6748,7 @@
         <v>78</v>
       </c>
       <c r="I61" s="7"/>
-      <c r="J61" s="7" t="n">
+      <c r="J61" s="7">
         <v>1</v>
       </c>
       <c r="K61" s="7"/>
@@ -6519,27 +6784,27 @@
       <c r="AC61" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD61" s="15" t="n">
-        <v>0.014323</v>
+      <c r="AD61" s="15">
+        <v>1.4323000000000001E-2</v>
       </c>
       <c r="AE61" s="7"/>
       <c r="AF61" s="7"/>
       <c r="AG61" s="7"/>
       <c r="AH61" s="7"/>
-      <c r="AI61" s="7" t="n">
+      <c r="AI61" s="7">
         <v>3</v>
       </c>
-      <c r="AJ61" s="7" t="n">
+      <c r="AJ61" s="7">
         <v>47</v>
       </c>
       <c r="AK61" s="7"/>
-      <c r="AL61" s="7" t="n">
+      <c r="AL61" s="7">
         <v>45</v>
       </c>
       <c r="BD61" s="6"/>
     </row>
-    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="n">
+    <row r="62" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
         <v>48</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -6564,7 +6829,7 @@
         <v>78</v>
       </c>
       <c r="I62" s="7"/>
-      <c r="J62" s="7" t="n">
+      <c r="J62" s="7">
         <v>1</v>
       </c>
       <c r="K62" s="7"/>
@@ -6600,27 +6865,27 @@
       <c r="AC62" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD62" s="15" t="n">
-        <v>0.014323</v>
+      <c r="AD62" s="15">
+        <v>1.4323000000000001E-2</v>
       </c>
       <c r="AE62" s="7"/>
       <c r="AF62" s="7"/>
       <c r="AG62" s="7"/>
       <c r="AH62" s="7"/>
-      <c r="AI62" s="7" t="n">
+      <c r="AI62" s="7">
         <v>3</v>
       </c>
-      <c r="AJ62" s="7" t="n">
+      <c r="AJ62" s="7">
         <v>48</v>
       </c>
       <c r="AK62" s="7"/>
-      <c r="AL62" s="7" t="n">
+      <c r="AL62" s="7">
         <v>45</v>
       </c>
       <c r="BD62" s="6"/>
     </row>
-    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="n">
+    <row r="63" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
         <v>49</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -6645,7 +6910,7 @@
         <v>78</v>
       </c>
       <c r="I63" s="7"/>
-      <c r="J63" s="7" t="n">
+      <c r="J63" s="7">
         <v>1</v>
       </c>
       <c r="K63" s="7"/>
@@ -6681,27 +6946,27 @@
       <c r="AC63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD63" s="15" t="n">
-        <v>0.014323</v>
+      <c r="AD63" s="15">
+        <v>1.4323000000000001E-2</v>
       </c>
       <c r="AE63" s="7"/>
       <c r="AF63" s="7"/>
       <c r="AG63" s="7"/>
       <c r="AH63" s="7"/>
-      <c r="AI63" s="7" t="n">
+      <c r="AI63" s="7">
         <v>3</v>
       </c>
-      <c r="AJ63" s="7" t="n">
+      <c r="AJ63" s="7">
         <v>49</v>
       </c>
       <c r="AK63" s="7"/>
-      <c r="AL63" s="7" t="n">
+      <c r="AL63" s="7">
         <v>45</v>
       </c>
       <c r="BD63" s="6"/>
     </row>
-    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="n">
+    <row r="64" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
         <v>50</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -6726,7 +6991,7 @@
         <v>78</v>
       </c>
       <c r="I64" s="7"/>
-      <c r="J64" s="7" t="n">
+      <c r="J64" s="7">
         <v>1</v>
       </c>
       <c r="K64" s="7"/>
@@ -6762,27 +7027,27 @@
       <c r="AC64" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD64" s="15" t="n">
-        <v>0.014323</v>
+      <c r="AD64" s="15">
+        <v>1.4323000000000001E-2</v>
       </c>
       <c r="AE64" s="7"/>
       <c r="AF64" s="7"/>
       <c r="AG64" s="7"/>
       <c r="AH64" s="7"/>
-      <c r="AI64" s="7" t="n">
+      <c r="AI64" s="7">
         <v>3</v>
       </c>
-      <c r="AJ64" s="7" t="n">
+      <c r="AJ64" s="7">
         <v>50</v>
       </c>
       <c r="AK64" s="7"/>
-      <c r="AL64" s="7" t="n">
+      <c r="AL64" s="7">
         <v>45</v>
       </c>
       <c r="BD64" s="6"/>
     </row>
-    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="n">
+    <row r="65" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
         <v>51</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -6807,7 +7072,7 @@
         <v>78</v>
       </c>
       <c r="I65" s="7"/>
-      <c r="J65" s="7" t="n">
+      <c r="J65" s="7">
         <v>1</v>
       </c>
       <c r="K65" s="7"/>
@@ -6843,27 +7108,27 @@
       <c r="AC65" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD65" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD65" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE65" s="7"/>
       <c r="AF65" s="7"/>
       <c r="AG65" s="7"/>
       <c r="AH65" s="7"/>
-      <c r="AI65" s="7" t="n">
+      <c r="AI65" s="7">
         <v>3</v>
       </c>
-      <c r="AJ65" s="7" t="n">
+      <c r="AJ65" s="7">
         <v>51</v>
       </c>
       <c r="AK65" s="7"/>
-      <c r="AL65" s="7" t="n">
+      <c r="AL65" s="7">
         <v>45</v>
       </c>
       <c r="BD65" s="6"/>
     </row>
-    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="n">
+    <row r="66" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
         <v>52</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -6888,7 +7153,7 @@
         <v>78</v>
       </c>
       <c r="I66" s="7"/>
-      <c r="J66" s="7" t="n">
+      <c r="J66" s="7">
         <v>1</v>
       </c>
       <c r="K66" s="7"/>
@@ -6924,27 +7189,27 @@
       <c r="AC66" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD66" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD66" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE66" s="7"/>
       <c r="AF66" s="7"/>
       <c r="AG66" s="7"/>
       <c r="AH66" s="7"/>
-      <c r="AI66" s="7" t="n">
+      <c r="AI66" s="7">
         <v>3</v>
       </c>
-      <c r="AJ66" s="7" t="n">
+      <c r="AJ66" s="7">
         <v>52</v>
       </c>
       <c r="AK66" s="7"/>
-      <c r="AL66" s="7" t="n">
+      <c r="AL66" s="7">
         <v>45</v>
       </c>
       <c r="BD66" s="6"/>
     </row>
-    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="n">
+    <row r="67" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
         <v>53</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -6969,7 +7234,7 @@
         <v>78</v>
       </c>
       <c r="I67" s="7"/>
-      <c r="J67" s="7" t="n">
+      <c r="J67" s="7">
         <v>1</v>
       </c>
       <c r="K67" s="7"/>
@@ -7005,27 +7270,27 @@
       <c r="AC67" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD67" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD67" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE67" s="7"/>
       <c r="AF67" s="7"/>
       <c r="AG67" s="7"/>
       <c r="AH67" s="7"/>
-      <c r="AI67" s="7" t="n">
+      <c r="AI67" s="7">
         <v>3</v>
       </c>
-      <c r="AJ67" s="7" t="n">
+      <c r="AJ67" s="7">
         <v>53</v>
       </c>
       <c r="AK67" s="7"/>
-      <c r="AL67" s="7" t="n">
+      <c r="AL67" s="7">
         <v>45</v>
       </c>
       <c r="BD67" s="6"/>
     </row>
-    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="n">
+    <row r="68" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
         <v>54</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -7050,7 +7315,7 @@
         <v>78</v>
       </c>
       <c r="I68" s="7"/>
-      <c r="J68" s="7" t="n">
+      <c r="J68" s="7">
         <v>1</v>
       </c>
       <c r="K68" s="7"/>
@@ -7086,27 +7351,27 @@
       <c r="AC68" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD68" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD68" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE68" s="7"/>
       <c r="AF68" s="7"/>
       <c r="AG68" s="7"/>
       <c r="AH68" s="7"/>
-      <c r="AI68" s="7" t="n">
+      <c r="AI68" s="7">
         <v>3</v>
       </c>
-      <c r="AJ68" s="7" t="n">
+      <c r="AJ68" s="7">
         <v>54</v>
       </c>
       <c r="AK68" s="7"/>
-      <c r="AL68" s="7" t="n">
+      <c r="AL68" s="7">
         <v>45</v>
       </c>
       <c r="BD68" s="6"/>
     </row>
-    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="n">
+    <row r="69" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
         <v>55</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -7131,7 +7396,7 @@
         <v>78</v>
       </c>
       <c r="I69" s="7"/>
-      <c r="J69" s="7" t="n">
+      <c r="J69" s="7">
         <v>1</v>
       </c>
       <c r="K69" s="7"/>
@@ -7167,27 +7432,27 @@
       <c r="AC69" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD69" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD69" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE69" s="7"/>
       <c r="AF69" s="7"/>
       <c r="AG69" s="7"/>
       <c r="AH69" s="7"/>
-      <c r="AI69" s="7" t="n">
+      <c r="AI69" s="7">
         <v>3</v>
       </c>
-      <c r="AJ69" s="7" t="n">
+      <c r="AJ69" s="7">
         <v>55</v>
       </c>
       <c r="AK69" s="7"/>
-      <c r="AL69" s="7" t="n">
+      <c r="AL69" s="7">
         <v>45</v>
       </c>
       <c r="BD69" s="6"/>
     </row>
-    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="n">
+    <row r="70" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
         <v>56</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -7212,7 +7477,7 @@
         <v>78</v>
       </c>
       <c r="I70" s="7"/>
-      <c r="J70" s="7" t="n">
+      <c r="J70" s="7">
         <v>1</v>
       </c>
       <c r="K70" s="7"/>
@@ -7248,27 +7513,27 @@
       <c r="AC70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD70" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD70" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE70" s="7"/>
       <c r="AF70" s="7"/>
       <c r="AG70" s="7"/>
       <c r="AH70" s="7"/>
-      <c r="AI70" s="7" t="n">
+      <c r="AI70" s="7">
         <v>3</v>
       </c>
-      <c r="AJ70" s="7" t="n">
+      <c r="AJ70" s="7">
         <v>56</v>
       </c>
       <c r="AK70" s="7"/>
-      <c r="AL70" s="7" t="n">
+      <c r="AL70" s="7">
         <v>45</v>
       </c>
       <c r="BD70" s="6"/>
     </row>
-    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="n">
+    <row r="71" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
         <v>57</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -7293,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="I71" s="7"/>
-      <c r="J71" s="7" t="n">
+      <c r="J71" s="7">
         <v>1</v>
       </c>
       <c r="K71" s="7"/>
@@ -7329,27 +7594,27 @@
       <c r="AC71" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD71" s="15" t="n">
-        <v>0.006501</v>
+      <c r="AD71" s="15">
+        <v>6.5009999999999998E-3</v>
       </c>
       <c r="AE71" s="7"/>
       <c r="AF71" s="7"/>
       <c r="AG71" s="7"/>
       <c r="AH71" s="7"/>
-      <c r="AI71" s="7" t="n">
+      <c r="AI71" s="7">
         <v>3</v>
       </c>
-      <c r="AJ71" s="7" t="n">
+      <c r="AJ71" s="7">
         <v>57</v>
       </c>
       <c r="AK71" s="7"/>
-      <c r="AL71" s="7" t="n">
+      <c r="AL71" s="7">
         <v>45</v>
       </c>
       <c r="BD71" s="6"/>
     </row>
-    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="n">
+    <row r="72" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
         <v>58</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -7374,7 +7639,7 @@
         <v>78</v>
       </c>
       <c r="I72" s="7"/>
-      <c r="J72" s="11" t="n">
+      <c r="J72" s="11">
         <v>15</v>
       </c>
       <c r="K72" s="7"/>
@@ -7406,27 +7671,27 @@
       <c r="AC72" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="AD72" s="15" t="n">
+      <c r="AD72" s="15">
         <v>0.03</v>
       </c>
       <c r="AE72" s="7"/>
       <c r="AF72" s="7"/>
       <c r="AG72" s="7"/>
       <c r="AH72" s="7"/>
-      <c r="AI72" s="7" t="n">
+      <c r="AI72" s="7">
         <v>2</v>
       </c>
-      <c r="AJ72" s="7" t="n">
+      <c r="AJ72" s="7">
         <v>58</v>
       </c>
       <c r="AK72" s="7"/>
-      <c r="AL72" s="19" t="n">
+      <c r="AL72" s="19">
         <v>501</v>
       </c>
       <c r="BD72" s="6"/>
     </row>
-    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="n">
+    <row r="73" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
         <v>59</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -7449,7 +7714,7 @@
         <v>78</v>
       </c>
       <c r="I73" s="7"/>
-      <c r="J73" s="11" t="n">
+      <c r="J73" s="11">
         <v>8</v>
       </c>
       <c r="K73" s="7"/>
@@ -7481,27 +7746,27 @@
       <c r="AC73" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="AD73" s="15" t="n">
+      <c r="AD73" s="15">
         <v>0.01</v>
       </c>
       <c r="AE73" s="7"/>
       <c r="AF73" s="7"/>
       <c r="AG73" s="7"/>
       <c r="AH73" s="7"/>
-      <c r="AI73" s="7" t="n">
+      <c r="AI73" s="7">
         <v>2</v>
       </c>
-      <c r="AJ73" s="7" t="n">
+      <c r="AJ73" s="7">
         <v>59</v>
       </c>
       <c r="AK73" s="7"/>
-      <c r="AL73" s="19" t="n">
+      <c r="AL73" s="19">
         <v>503</v>
       </c>
       <c r="BD73" s="6"/>
     </row>
-    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="n">
+    <row r="74" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
         <v>60</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -7524,7 +7789,7 @@
         <v>78</v>
       </c>
       <c r="I74" s="7"/>
-      <c r="J74" s="11" t="n">
+      <c r="J74" s="11">
         <v>6</v>
       </c>
       <c r="K74" s="7"/>
@@ -7556,27 +7821,27 @@
       <c r="AC74" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="AD74" s="15" t="n">
+      <c r="AD74" s="15">
         <v>0.01</v>
       </c>
       <c r="AE74" s="7"/>
       <c r="AF74" s="7"/>
       <c r="AG74" s="7"/>
       <c r="AH74" s="7"/>
-      <c r="AI74" s="7" t="n">
+      <c r="AI74" s="7">
         <v>2</v>
       </c>
-      <c r="AJ74" s="7" t="n">
+      <c r="AJ74" s="7">
         <v>60</v>
       </c>
       <c r="AK74" s="7"/>
-      <c r="AL74" s="19" t="n">
+      <c r="AL74" s="19">
         <v>504</v>
       </c>
       <c r="BD74" s="6"/>
     </row>
-    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="n">
+    <row r="75" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
         <v>61</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -7599,7 +7864,7 @@
         <v>78</v>
       </c>
       <c r="I75" s="7"/>
-      <c r="J75" s="11" t="n">
+      <c r="J75" s="11">
         <v>6</v>
       </c>
       <c r="K75" s="7"/>
@@ -7631,27 +7896,27 @@
       <c r="AC75" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="AD75" s="15" t="n">
+      <c r="AD75" s="15">
         <v>0.01</v>
       </c>
       <c r="AE75" s="7"/>
       <c r="AF75" s="7"/>
       <c r="AG75" s="7"/>
       <c r="AH75" s="7"/>
-      <c r="AI75" s="7" t="n">
+      <c r="AI75" s="7">
         <v>2</v>
       </c>
-      <c r="AJ75" s="7" t="n">
+      <c r="AJ75" s="7">
         <v>61</v>
       </c>
       <c r="AK75" s="7"/>
-      <c r="AL75" s="19" t="n">
+      <c r="AL75" s="19">
         <v>505</v>
       </c>
       <c r="BD75" s="6"/>
     </row>
-    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="n">
+    <row r="76" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
         <v>62</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -7674,7 +7939,7 @@
         <v>78</v>
       </c>
       <c r="I76" s="7"/>
-      <c r="J76" s="11" t="n">
+      <c r="J76" s="11">
         <v>35</v>
       </c>
       <c r="K76" s="7"/>
@@ -7706,27 +7971,27 @@
       <c r="AC76" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="AD76" s="15" t="n">
+      <c r="AD76" s="15">
         <v>0.06</v>
       </c>
       <c r="AE76" s="7"/>
       <c r="AF76" s="7"/>
       <c r="AG76" s="7"/>
       <c r="AH76" s="7"/>
-      <c r="AI76" s="7" t="n">
+      <c r="AI76" s="7">
         <v>2</v>
       </c>
-      <c r="AJ76" s="7" t="n">
+      <c r="AJ76" s="7">
         <v>62</v>
       </c>
       <c r="AK76" s="7"/>
-      <c r="AL76" s="19" t="n">
+      <c r="AL76" s="19">
         <v>502</v>
       </c>
       <c r="BD76" s="6"/>
     </row>
-    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="n">
+    <row r="77" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
         <v>63</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -7751,7 +8016,7 @@
         <v>273</v>
       </c>
       <c r="I77" s="7"/>
-      <c r="J77" s="7" t="n">
+      <c r="J77" s="7">
         <v>2</v>
       </c>
       <c r="K77" s="7"/>
@@ -7779,29 +8044,29 @@
       <c r="AC77" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD77" s="15" t="n">
+      <c r="AD77" s="15">
         <v>0.03</v>
       </c>
       <c r="AE77" s="7"/>
       <c r="AF77" s="7"/>
       <c r="AG77" s="7"/>
       <c r="AH77" s="7"/>
-      <c r="AI77" s="7" t="n">
+      <c r="AI77" s="7">
         <v>2</v>
       </c>
-      <c r="AJ77" s="7" t="n">
+      <c r="AJ77" s="7">
         <v>63</v>
       </c>
       <c r="AK77" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="AL77" s="11" t="n">
+      <c r="AL77" s="11">
         <v>302</v>
       </c>
       <c r="BD77" s="6"/>
     </row>
-    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="n">
+    <row r="78" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
         <v>64</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -7826,7 +8091,7 @@
         <v>78</v>
       </c>
       <c r="I78" s="7"/>
-      <c r="J78" s="7" t="n">
+      <c r="J78" s="7">
         <v>12</v>
       </c>
       <c r="K78" s="7"/>
@@ -7865,20 +8130,20 @@
       <c r="AF78" s="7"/>
       <c r="AG78" s="7"/>
       <c r="AH78" s="7"/>
-      <c r="AI78" s="7" t="n">
+      <c r="AI78" s="7">
         <v>3</v>
       </c>
-      <c r="AJ78" s="7" t="n">
+      <c r="AJ78" s="7">
         <v>64</v>
       </c>
       <c r="AK78" s="7"/>
-      <c r="AL78" s="7" t="n">
+      <c r="AL78" s="7">
         <v>63</v>
       </c>
       <c r="BD78" s="6"/>
     </row>
-    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="n">
+    <row r="79" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
         <v>65</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -7903,7 +8168,7 @@
         <v>280</v>
       </c>
       <c r="I79" s="7"/>
-      <c r="J79" s="7" t="n">
+      <c r="J79" s="7">
         <v>1</v>
       </c>
       <c r="K79" s="7"/>
@@ -7936,22 +8201,22 @@
       <c r="AF79" s="7"/>
       <c r="AG79" s="7"/>
       <c r="AH79" s="7"/>
-      <c r="AI79" s="7" t="n">
+      <c r="AI79" s="7">
         <v>3</v>
       </c>
-      <c r="AJ79" s="7" t="n">
+      <c r="AJ79" s="7">
         <v>65</v>
       </c>
       <c r="AK79" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="AL79" s="7" t="n">
+      <c r="AL79" s="7">
         <v>63</v>
       </c>
       <c r="BD79" s="6"/>
     </row>
-    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="n">
+    <row r="80" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
         <v>66</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -7982,7 +8247,7 @@
       <c r="M80" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="N80" s="11" t="n">
+      <c r="N80" s="11">
         <v>5449000054227</v>
       </c>
       <c r="O80" s="11" t="s">
@@ -8017,20 +8282,20 @@
       <c r="AH80" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="AI80" s="7" t="n">
+      <c r="AI80" s="7">
         <v>4</v>
       </c>
-      <c r="AJ80" s="7" t="n">
+      <c r="AJ80" s="7">
         <v>66</v>
       </c>
       <c r="AK80" s="7"/>
-      <c r="AL80" s="7" t="n">
+      <c r="AL80" s="7">
         <v>65</v>
       </c>
       <c r="BD80" s="6"/>
     </row>
-    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="n">
+    <row r="81" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
         <v>69</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -8055,7 +8320,7 @@
         <v>273</v>
       </c>
       <c r="I81" s="7"/>
-      <c r="J81" s="7" t="n">
+      <c r="J81" s="7">
         <v>2</v>
       </c>
       <c r="K81" s="7"/>
@@ -8083,29 +8348,29 @@
       <c r="AC81" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD81" s="15" t="n">
+      <c r="AD81" s="15">
         <v>0.02</v>
       </c>
       <c r="AE81" s="7"/>
       <c r="AF81" s="7"/>
       <c r="AG81" s="7"/>
       <c r="AH81" s="7"/>
-      <c r="AI81" s="7" t="n">
+      <c r="AI81" s="7">
         <v>2</v>
       </c>
-      <c r="AJ81" s="7" t="n">
+      <c r="AJ81" s="7">
         <v>69</v>
       </c>
       <c r="AK81" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="AL81" s="11" t="n">
+      <c r="AL81" s="11">
         <v>303</v>
       </c>
       <c r="BD81" s="6"/>
     </row>
-    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="n">
+    <row r="82" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
         <v>70</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -8130,7 +8395,7 @@
         <v>78</v>
       </c>
       <c r="I82" s="7"/>
-      <c r="J82" s="7" t="n">
+      <c r="J82" s="7">
         <v>12</v>
       </c>
       <c r="K82" s="7"/>
@@ -8169,20 +8434,20 @@
       <c r="AF82" s="7"/>
       <c r="AG82" s="7"/>
       <c r="AH82" s="7"/>
-      <c r="AI82" s="7" t="n">
+      <c r="AI82" s="7">
         <v>3</v>
       </c>
-      <c r="AJ82" s="7" t="n">
+      <c r="AJ82" s="7">
         <v>70</v>
       </c>
       <c r="AK82" s="7"/>
-      <c r="AL82" s="7" t="n">
+      <c r="AL82" s="7">
         <v>69</v>
       </c>
       <c r="BD82" s="6"/>
     </row>
-    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="n">
+    <row r="83" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
         <v>71</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -8207,7 +8472,7 @@
         <v>280</v>
       </c>
       <c r="I83" s="7"/>
-      <c r="J83" s="7" t="n">
+      <c r="J83" s="7">
         <v>1</v>
       </c>
       <c r="K83" s="7"/>
@@ -8240,22 +8505,22 @@
       <c r="AF83" s="7"/>
       <c r="AG83" s="7"/>
       <c r="AH83" s="7"/>
-      <c r="AI83" s="7" t="n">
+      <c r="AI83" s="7">
         <v>3</v>
       </c>
-      <c r="AJ83" s="7" t="n">
+      <c r="AJ83" s="7">
         <v>71</v>
       </c>
       <c r="AK83" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="AL83" s="7" t="n">
+      <c r="AL83" s="7">
         <v>69</v>
       </c>
       <c r="BD83" s="6"/>
     </row>
-    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="n">
+    <row r="84" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
         <v>72</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -8286,7 +8551,7 @@
       <c r="M84" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="N84" s="11" t="n">
+      <c r="N84" s="11">
         <v>4607042434877</v>
       </c>
       <c r="O84" s="11"/>
@@ -8319,20 +8584,20 @@
       <c r="AH84" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="AI84" s="7" t="n">
+      <c r="AI84" s="7">
         <v>4</v>
       </c>
-      <c r="AJ84" s="7" t="n">
+      <c r="AJ84" s="7">
         <v>72</v>
       </c>
       <c r="AK84" s="7"/>
-      <c r="AL84" s="7" t="n">
+      <c r="AL84" s="7">
         <v>71</v>
       </c>
       <c r="BD84" s="6"/>
     </row>
-    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="n">
+    <row r="85" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
         <v>73</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -8363,7 +8628,7 @@
       <c r="M85" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="N85" s="11" t="n">
+      <c r="N85" s="11">
         <v>4607042434891</v>
       </c>
       <c r="O85" s="11"/>
@@ -8396,20 +8661,20 @@
       <c r="AH85" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="AI85" s="7" t="n">
+      <c r="AI85" s="7">
         <v>4</v>
       </c>
-      <c r="AJ85" s="7" t="n">
+      <c r="AJ85" s="7">
         <v>73</v>
       </c>
       <c r="AK85" s="7"/>
-      <c r="AL85" s="7" t="n">
+      <c r="AL85" s="7">
         <v>71</v>
       </c>
       <c r="BD85" s="6"/>
     </row>
-    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="n">
+    <row r="86" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
         <v>74</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -8434,7 +8699,7 @@
         <v>273</v>
       </c>
       <c r="I86" s="7"/>
-      <c r="J86" s="7" t="n">
+      <c r="J86" s="7">
         <v>4</v>
       </c>
       <c r="K86" s="7"/>
@@ -8462,29 +8727,29 @@
       <c r="AC86" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="AD86" s="15" t="n">
+      <c r="AD86" s="15">
         <v>0.03</v>
       </c>
       <c r="AE86" s="7"/>
       <c r="AF86" s="7"/>
       <c r="AG86" s="7"/>
       <c r="AH86" s="7"/>
-      <c r="AI86" s="7" t="n">
+      <c r="AI86" s="7">
         <v>2</v>
       </c>
-      <c r="AJ86" s="7" t="n">
+      <c r="AJ86" s="7">
         <v>74</v>
       </c>
       <c r="AK86" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="AL86" s="11" t="n">
+      <c r="AL86" s="11">
         <v>301</v>
       </c>
       <c r="BD86" s="6"/>
     </row>
-    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="n">
+    <row r="87" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
         <v>75</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -8505,7 +8770,7 @@
         <v>78</v>
       </c>
       <c r="I87" s="7"/>
-      <c r="J87" s="7" t="n">
+      <c r="J87" s="7">
         <v>4</v>
       </c>
       <c r="K87" s="7"/>
@@ -8548,20 +8813,20 @@
       <c r="AF87" s="7"/>
       <c r="AG87" s="7"/>
       <c r="AH87" s="7"/>
-      <c r="AI87" s="7" t="n">
+      <c r="AI87" s="7">
         <v>3</v>
       </c>
-      <c r="AJ87" s="7" t="n">
+      <c r="AJ87" s="7">
         <v>75</v>
       </c>
       <c r="AK87" s="7"/>
-      <c r="AL87" s="7" t="n">
+      <c r="AL87" s="7">
         <v>74</v>
       </c>
       <c r="BD87" s="6"/>
     </row>
-    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="n">
+    <row r="88" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
         <v>76</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -8582,7 +8847,7 @@
         <v>315</v>
       </c>
       <c r="I88" s="7"/>
-      <c r="J88" s="7" t="n">
+      <c r="J88" s="7">
         <v>1</v>
       </c>
       <c r="K88" s="7"/>
@@ -8619,20 +8884,20 @@
         <v>319</v>
       </c>
       <c r="AH88" s="7"/>
-      <c r="AI88" s="7" t="n">
+      <c r="AI88" s="7">
         <v>3</v>
       </c>
-      <c r="AJ88" s="7" t="n">
+      <c r="AJ88" s="7">
         <v>76</v>
       </c>
       <c r="AK88" s="7"/>
-      <c r="AL88" s="7" t="n">
+      <c r="AL88" s="7">
         <v>74</v>
       </c>
       <c r="BD88" s="6"/>
     </row>
-    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="n">
+    <row r="89" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
         <v>77</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -8653,7 +8918,7 @@
         <v>78</v>
       </c>
       <c r="I89" s="7"/>
-      <c r="J89" s="7" t="n">
+      <c r="J89" s="7">
         <v>4</v>
       </c>
       <c r="K89" s="7"/>
@@ -8692,20 +8957,20 @@
       <c r="AF89" s="7"/>
       <c r="AG89" s="7"/>
       <c r="AH89" s="7"/>
-      <c r="AI89" s="7" t="n">
+      <c r="AI89" s="7">
         <v>3</v>
       </c>
-      <c r="AJ89" s="7" t="n">
+      <c r="AJ89" s="7">
         <v>77</v>
       </c>
       <c r="AK89" s="7"/>
-      <c r="AL89" s="7" t="n">
+      <c r="AL89" s="7">
         <v>74</v>
       </c>
       <c r="BD89" s="6"/>
     </row>
-    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="n">
+    <row r="90" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
         <v>78</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -8726,7 +8991,7 @@
         <v>315</v>
       </c>
       <c r="I90" s="7"/>
-      <c r="J90" s="7" t="n">
+      <c r="J90" s="7">
         <v>1</v>
       </c>
       <c r="K90" s="7"/>
@@ -8763,20 +9028,20 @@
         <v>329</v>
       </c>
       <c r="AH90" s="7"/>
-      <c r="AI90" s="7" t="n">
+      <c r="AI90" s="7">
         <v>3</v>
       </c>
-      <c r="AJ90" s="7" t="n">
+      <c r="AJ90" s="7">
         <v>78</v>
       </c>
       <c r="AK90" s="7"/>
-      <c r="AL90" s="7" t="n">
+      <c r="AL90" s="7">
         <v>74</v>
       </c>
       <c r="BD90" s="6"/>
     </row>
-    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="n">
+    <row r="91" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
         <v>79</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -8825,7 +9090,7 @@
       <c r="AC91" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="AD91" s="15" t="n">
+      <c r="AD91" s="15">
         <v>0.18</v>
       </c>
       <c r="AE91" s="7"/>
@@ -8834,22 +9099,22 @@
       <c r="AH91" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="AI91" s="7" t="n">
+      <c r="AI91" s="7">
         <v>2</v>
       </c>
-      <c r="AJ91" s="7" t="n">
+      <c r="AJ91" s="7">
         <v>79</v>
       </c>
       <c r="AK91" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="AL91" s="7" t="n">
+      <c r="AL91" s="7">
         <v>311</v>
       </c>
       <c r="BD91" s="6"/>
     </row>
-    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="n">
+    <row r="92" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
         <v>80</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -8874,10 +9139,10 @@
         <v>339</v>
       </c>
       <c r="I92" s="7"/>
-      <c r="J92" s="7" t="n">
+      <c r="J92" s="7">
         <v>0.5</v>
       </c>
-      <c r="K92" s="7" t="n">
+      <c r="K92" s="7">
         <v>30</v>
       </c>
       <c r="L92" s="7"/>
@@ -8919,20 +9184,20 @@
       <c r="AH92" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="AI92" s="7" t="n">
+      <c r="AI92" s="7">
         <v>3</v>
       </c>
-      <c r="AJ92" s="7" t="n">
+      <c r="AJ92" s="7">
         <v>80</v>
       </c>
       <c r="AK92" s="7"/>
-      <c r="AL92" s="7" t="n">
+      <c r="AL92" s="7">
         <v>79</v>
       </c>
       <c r="BD92" s="6"/>
     </row>
-    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="n">
+    <row r="93" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
         <v>81</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -8957,10 +9222,10 @@
         <v>339</v>
       </c>
       <c r="I93" s="7"/>
-      <c r="J93" s="7" t="n">
+      <c r="J93" s="7">
         <v>0.5</v>
       </c>
-      <c r="K93" s="7" t="n">
+      <c r="K93" s="7">
         <v>24</v>
       </c>
       <c r="L93" s="7"/>
@@ -9002,20 +9267,20 @@
       <c r="AH93" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="AI93" s="7" t="n">
+      <c r="AI93" s="7">
         <v>3</v>
       </c>
-      <c r="AJ93" s="7" t="n">
+      <c r="AJ93" s="7">
         <v>81</v>
       </c>
       <c r="AK93" s="7"/>
-      <c r="AL93" s="7" t="n">
+      <c r="AL93" s="7">
         <v>79</v>
       </c>
       <c r="BD93" s="6"/>
     </row>
-    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="n">
+    <row r="94" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
         <v>82</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -9040,7 +9305,7 @@
         <v>352</v>
       </c>
       <c r="I94" s="7"/>
-      <c r="J94" s="7" t="n">
+      <c r="J94" s="7">
         <v>0.01</v>
       </c>
       <c r="K94" s="7"/>
@@ -9077,20 +9342,20 @@
       <c r="AF94" s="7"/>
       <c r="AG94" s="7"/>
       <c r="AH94" s="7"/>
-      <c r="AI94" s="7" t="n">
+      <c r="AI94" s="7">
         <v>3</v>
       </c>
-      <c r="AJ94" s="7" t="n">
+      <c r="AJ94" s="7">
         <v>82</v>
       </c>
       <c r="AK94" s="7"/>
-      <c r="AL94" s="7" t="n">
+      <c r="AL94" s="7">
         <v>79</v>
       </c>
       <c r="BD94" s="6"/>
     </row>
-    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="n">
+    <row r="95" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
         <v>83</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -9115,7 +9380,7 @@
         <v>315</v>
       </c>
       <c r="I95" s="7"/>
-      <c r="J95" s="7" t="n">
+      <c r="J95" s="7">
         <v>1</v>
       </c>
       <c r="K95" s="7"/>
@@ -9147,7 +9412,7 @@
       <c r="AC95" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD95" s="15" t="n">
+      <c r="AD95" s="15">
         <v>0.03</v>
       </c>
       <c r="AE95" s="7"/>
@@ -9158,20 +9423,20 @@
       <c r="AH95" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="AI95" s="7" t="n">
+      <c r="AI95" s="7">
         <v>2</v>
       </c>
-      <c r="AJ95" s="7" t="n">
+      <c r="AJ95" s="7">
         <v>83</v>
       </c>
       <c r="AK95" s="7"/>
-      <c r="AL95" s="24" t="n">
+      <c r="AL95" s="24">
         <v>312</v>
       </c>
       <c r="BD95" s="6"/>
     </row>
-    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="n">
+    <row r="96" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
         <v>84</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -9197,10 +9462,10 @@
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="7" t="n">
+      <c r="K96" s="7">
         <v>1</v>
       </c>
-      <c r="L96" s="7" t="n">
+      <c r="L96" s="7">
         <v>15</v>
       </c>
       <c r="M96" s="7" t="s">
@@ -9232,7 +9497,7 @@
       <c r="AC96" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD96" s="15" t="n">
+      <c r="AD96" s="15">
         <v>0.03</v>
       </c>
       <c r="AE96" s="7"/>
@@ -9243,20 +9508,20 @@
       <c r="AH96" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="AI96" s="7" t="n">
+      <c r="AI96" s="7">
         <v>2</v>
       </c>
-      <c r="AJ96" s="7" t="n">
+      <c r="AJ96" s="7">
         <v>84</v>
       </c>
       <c r="AK96" s="7"/>
-      <c r="AL96" s="24" t="n">
+      <c r="AL96" s="24">
         <v>312</v>
       </c>
       <c r="BD96" s="6"/>
     </row>
-    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="n">
+    <row r="97" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
         <v>85</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -9307,13 +9572,13 @@
       <c r="AC97" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="AD97" s="15" t="n">
+      <c r="AD97" s="15">
         <v>0.03</v>
       </c>
-      <c r="AE97" s="7" t="n">
+      <c r="AE97" s="7">
         <v>0</v>
       </c>
-      <c r="AF97" s="7" t="n">
+      <c r="AF97" s="7">
         <v>1</v>
       </c>
       <c r="AG97" s="7" t="s">
@@ -9322,22 +9587,22 @@
       <c r="AH97" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="AI97" s="7" t="n">
+      <c r="AI97" s="7">
         <v>2</v>
       </c>
-      <c r="AJ97" s="7" t="n">
+      <c r="AJ97" s="7">
         <v>85</v>
       </c>
       <c r="AK97" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="AL97" s="24" t="n">
+      <c r="AL97" s="24">
         <v>312</v>
       </c>
       <c r="BD97" s="6"/>
     </row>
-    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="n">
+    <row r="98" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
         <v>87</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -9360,7 +9625,7 @@
         <v>368</v>
       </c>
       <c r="I98" s="7"/>
-      <c r="J98" s="7" t="n">
+      <c r="J98" s="7">
         <v>0.4</v>
       </c>
       <c r="K98" s="7"/>
@@ -9407,20 +9672,20 @@
       <c r="AH98" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="AI98" s="7" t="n">
+      <c r="AI98" s="7">
         <v>3</v>
       </c>
-      <c r="AJ98" s="7" t="n">
+      <c r="AJ98" s="7">
         <v>86</v>
       </c>
       <c r="AK98" s="7"/>
-      <c r="AL98" s="7" t="n">
+      <c r="AL98" s="7">
         <v>85</v>
       </c>
       <c r="BD98" s="6"/>
     </row>
-    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="n">
+    <row r="99" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
         <v>88</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -9443,7 +9708,7 @@
         <v>280</v>
       </c>
       <c r="I99" s="7"/>
-      <c r="J99" s="7" t="n">
+      <c r="J99" s="7">
         <v>2</v>
       </c>
       <c r="K99" s="7"/>
@@ -9480,22 +9745,22 @@
       <c r="AH99" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="AI99" s="7" t="n">
+      <c r="AI99" s="7">
         <v>3</v>
       </c>
-      <c r="AJ99" s="7" t="n">
+      <c r="AJ99" s="7">
         <v>88</v>
       </c>
       <c r="AK99" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="AL99" s="7" t="n">
+      <c r="AL99" s="7">
         <v>85</v>
       </c>
       <c r="BD99" s="6"/>
     </row>
-    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="n">
+    <row r="100" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
         <v>89</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -9511,27 +9776,26 @@
       <c r="F100" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>376</v>
+      <c r="G100" s="29" t="s">
+        <v>380</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I100" s="7"/>
-      <c r="J100" s="7" t="n">
+      <c r="J100" s="7">
         <v>4</v>
       </c>
       <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="N100" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="O100" s="11"/>
-      <c r="P100" s="11" t="s">
-        <v>370</v>
+      <c r="M100" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="N100" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="O100" s="30"/>
+      <c r="P100" s="30" t="s">
+        <v>431</v>
       </c>
       <c r="Q100" s="7" t="s">
         <v>80</v>
@@ -9567,20 +9831,20 @@
       <c r="AH100" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="AI100" s="7" t="n">
+      <c r="AI100" s="7">
         <v>4</v>
       </c>
-      <c r="AJ100" s="7" t="n">
+      <c r="AJ100" s="7">
         <v>89</v>
       </c>
       <c r="AK100" s="7"/>
-      <c r="AL100" s="7" t="n">
+      <c r="AL100" s="7">
         <v>88</v>
       </c>
       <c r="BD100" s="6"/>
     </row>
-    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="n">
+    <row r="101" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
         <v>90</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -9596,27 +9860,27 @@
       <c r="F101" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G101" s="7" t="s">
-        <v>380</v>
+      <c r="G101" s="29" t="s">
+        <v>376</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I101" s="7"/>
-      <c r="J101" s="7" t="n">
+      <c r="J101" s="7">
         <v>4</v>
       </c>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="N101" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="O101" s="11"/>
-      <c r="P101" s="11" t="s">
-        <v>382</v>
+      <c r="M101" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="N101" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="O101" s="30"/>
+      <c r="P101" s="30" t="s">
+        <v>370</v>
       </c>
       <c r="Q101" s="7" t="s">
         <v>80</v>
@@ -9652,20 +9916,20 @@
       <c r="AH101" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="AI101" s="7" t="n">
+      <c r="AI101" s="7">
         <v>4</v>
       </c>
-      <c r="AJ101" s="7" t="n">
+      <c r="AJ101" s="7">
         <v>90</v>
       </c>
       <c r="AK101" s="7"/>
-      <c r="AL101" s="7" t="n">
+      <c r="AL101" s="7">
         <v>88</v>
       </c>
       <c r="BD101" s="6"/>
     </row>
-    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="n">
+    <row r="102" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
         <v>91</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -9688,7 +9952,7 @@
         <v>386</v>
       </c>
       <c r="I102" s="7"/>
-      <c r="J102" s="7" t="n">
+      <c r="J102" s="7">
         <v>2</v>
       </c>
       <c r="K102" s="7"/>
@@ -9733,20 +9997,20 @@
       <c r="AH102" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="AI102" s="7" t="n">
+      <c r="AI102" s="7">
         <v>3</v>
       </c>
-      <c r="AJ102" s="7" t="n">
+      <c r="AJ102" s="7">
         <v>91</v>
       </c>
       <c r="AK102" s="7"/>
-      <c r="AL102" s="7" t="n">
+      <c r="AL102" s="7">
         <v>85</v>
       </c>
       <c r="BD102" s="6"/>
     </row>
-    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="n">
+    <row r="103" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
         <v>92</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -9799,7 +10063,7 @@
       <c r="AC103" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="AD103" s="15" t="n">
+      <c r="AD103" s="15">
         <v>0.03</v>
       </c>
       <c r="AE103" s="7"/>
@@ -9810,20 +10074,20 @@
       <c r="AH103" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="AI103" s="7" t="n">
+      <c r="AI103" s="7">
         <v>2</v>
       </c>
-      <c r="AJ103" s="7" t="n">
+      <c r="AJ103" s="7">
         <v>92</v>
       </c>
       <c r="AK103" s="7"/>
-      <c r="AL103" s="24" t="n">
+      <c r="AL103" s="24">
         <v>312</v>
       </c>
       <c r="BD103" s="6"/>
     </row>
-    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="n">
+    <row r="104" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
         <v>93</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -9853,10 +10117,16 @@
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
+      <c r="M104" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="Q104" s="7"/>
       <c r="R104" s="7" t="s">
         <v>396</v>
@@ -9878,7 +10148,7 @@
       <c r="AG104" s="7"/>
       <c r="AH104" s="7"/>
       <c r="AI104" s="7"/>
-      <c r="AJ104" s="7" t="n">
+      <c r="AJ104" s="7">
         <v>93</v>
       </c>
       <c r="AK104" s="13" t="s">
@@ -9887,8 +10157,8 @@
       <c r="AL104" s="7"/>
       <c r="BD104" s="6"/>
     </row>
-    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="n">
+    <row r="105" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
         <v>94</v>
       </c>
       <c r="B105" s="7" t="s">
@@ -9945,17 +10215,17 @@
       <c r="AG105" s="7"/>
       <c r="AH105" s="7"/>
       <c r="AI105" s="7"/>
-      <c r="AJ105" s="7" t="n">
+      <c r="AJ105" s="7">
         <v>94</v>
       </c>
-      <c r="AK105" s="7" t="n">
+      <c r="AK105" s="7">
         <v>75</v>
       </c>
       <c r="AL105" s="7"/>
       <c r="BD105" s="6"/>
     </row>
-    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="n">
+    <row r="106" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
         <v>95</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -10012,17 +10282,17 @@
       <c r="AG106" s="7"/>
       <c r="AH106" s="7"/>
       <c r="AI106" s="7"/>
-      <c r="AJ106" s="7" t="n">
+      <c r="AJ106" s="7">
         <v>95</v>
       </c>
-      <c r="AK106" s="7" t="n">
+      <c r="AK106" s="7">
         <v>76</v>
       </c>
       <c r="AL106" s="7"/>
       <c r="BD106" s="6"/>
     </row>
-    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="n">
+    <row r="107" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
         <v>96</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -10079,17 +10349,17 @@
       <c r="AG107" s="7"/>
       <c r="AH107" s="7"/>
       <c r="AI107" s="7"/>
-      <c r="AJ107" s="7" t="n">
+      <c r="AJ107" s="7">
         <v>96</v>
       </c>
-      <c r="AK107" s="7" t="n">
+      <c r="AK107" s="7">
         <v>77</v>
       </c>
       <c r="AL107" s="7"/>
       <c r="BD107" s="6"/>
     </row>
-    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="n">
+    <row r="108" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
         <v>97</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -10146,17 +10416,17 @@
       <c r="AG108" s="7"/>
       <c r="AH108" s="7"/>
       <c r="AI108" s="7"/>
-      <c r="AJ108" s="7" t="n">
+      <c r="AJ108" s="7">
         <v>97</v>
       </c>
-      <c r="AK108" s="7" t="n">
+      <c r="AK108" s="7">
         <v>78</v>
       </c>
       <c r="AL108" s="7"/>
       <c r="BD108" s="6"/>
     </row>
-    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="n">
+    <row r="109" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
         <v>98</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -10217,15 +10487,15 @@
       <c r="AG109" s="7"/>
       <c r="AH109" s="7"/>
       <c r="AI109" s="7"/>
-      <c r="AJ109" s="7" t="n">
+      <c r="AJ109" s="7">
         <v>98</v>
       </c>
       <c r="AK109" s="7"/>
       <c r="AL109" s="7"/>
       <c r="BD109" s="27"/>
     </row>
-    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7" t="n">
+    <row r="110" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
         <v>99</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -10284,14 +10554,14 @@
       <c r="AG110" s="7"/>
       <c r="AH110" s="7"/>
       <c r="AI110" s="7"/>
-      <c r="AJ110" s="7" t="n">
+      <c r="AJ110" s="7">
         <v>99</v>
       </c>
       <c r="AK110" s="7"/>
       <c r="AL110" s="7"/>
     </row>
-    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7" t="n">
+    <row r="111" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
         <v>100</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -10350,14 +10620,14 @@
       <c r="AG111" s="7"/>
       <c r="AH111" s="7"/>
       <c r="AI111" s="7"/>
-      <c r="AJ111" s="7" t="n">
+      <c r="AJ111" s="7">
         <v>100</v>
       </c>
       <c r="AK111" s="7"/>
       <c r="AL111" s="7"/>
     </row>
-    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7" t="n">
+    <row r="112" spans="1:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
         <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -10416,14 +10686,14 @@
       <c r="AG112" s="7"/>
       <c r="AH112" s="7"/>
       <c r="AI112" s="7"/>
-      <c r="AJ112" s="7" t="n">
+      <c r="AJ112" s="7">
         <v>101</v>
       </c>
       <c r="AK112" s="7"/>
       <c r="AL112" s="7"/>
     </row>
-    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7" t="n">
+    <row r="113" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
         <v>102</v>
       </c>
       <c r="B113" s="7" t="s">
@@ -10482,16 +10752,16 @@
       <c r="AG113" s="7"/>
       <c r="AH113" s="7"/>
       <c r="AI113" s="7"/>
-      <c r="AJ113" s="7" t="n">
+      <c r="AJ113" s="7">
         <v>102</v>
       </c>
-      <c r="AK113" s="19" t="n">
+      <c r="AK113" s="19">
         <v>64</v>
       </c>
       <c r="AL113" s="7"/>
     </row>
-    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7" t="n">
+    <row r="114" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
         <v>103</v>
       </c>
       <c r="B114" s="7" t="s">
@@ -10550,16 +10820,16 @@
       <c r="AG114" s="7"/>
       <c r="AH114" s="7"/>
       <c r="AI114" s="7"/>
-      <c r="AJ114" s="7" t="n">
+      <c r="AJ114" s="7">
         <v>103</v>
       </c>
-      <c r="AK114" s="19" t="n">
+      <c r="AK114" s="19">
         <v>69</v>
       </c>
       <c r="AL114" s="7"/>
     </row>
-    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7" t="n">
+    <row r="115" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
         <v>104</v>
       </c>
       <c r="B115" s="7" t="s">
@@ -10618,22 +10888,15 @@
       <c r="AG115" s="7"/>
       <c r="AH115" s="7"/>
       <c r="AI115" s="7"/>
-      <c r="AJ115" s="7" t="n">
+      <c r="AJ115" s="7">
         <v>104</v>
       </c>
       <c r="AK115" s="7"/>
       <c r="AL115" s="7"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AL115"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:AL115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -21,6 +21,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="427">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -517,13 +518,10 @@
     <t xml:space="preserve">5449000000996</t>
   </si>
   <si>
-    <t xml:space="preserve">Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Цитрус - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000213631</t>
+    <t xml:space="preserve">Schweppes Tonic - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 0.33л</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 2</t>
@@ -1829,47 +1827,47 @@
   </sheetPr>
   <dimension ref="A1:BD115"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="M38" activeCellId="0" sqref="M38:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.663967611336"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.3076923076923"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.0242914979757"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="48.7408906882591"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="95.6558704453441"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="85.587044534413"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="96.5141700404858"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="86.336032388664"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -4687,8 +4685,8 @@
       <c r="M38" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="N38" s="13" t="s">
-        <v>151</v>
+      <c r="N38" s="13" t="n">
+        <v>5449000046390</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -4748,13 +4746,13 @@
         <v>40</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>74</v>
@@ -4794,7 +4792,7 @@
         <v>25</v>
       </c>
       <c r="AK39" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL39" s="6" t="n">
         <v>300</v>
@@ -4815,13 +4813,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>78</v>
@@ -4833,10 +4831,10 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -4896,13 +4894,13 @@
         <v>40</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F41" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>78</v>
@@ -4914,10 +4912,10 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -4977,13 +4975,13 @@
         <v>40</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>78</v>
@@ -4995,10 +4993,10 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -5058,13 +5056,13 @@
         <v>40</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>78</v>
@@ -5076,10 +5074,10 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -5139,13 +5137,13 @@
         <v>40</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F44" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>78</v>
@@ -5157,10 +5155,10 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
@@ -5220,13 +5218,13 @@
         <v>40</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>172</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>78</v>
@@ -5238,10 +5236,10 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
@@ -5301,13 +5299,13 @@
         <v>40</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F46" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>74</v>
@@ -5347,7 +5345,7 @@
         <v>32</v>
       </c>
       <c r="AK46" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL46" s="6" t="n">
         <v>300</v>
@@ -5368,13 +5366,13 @@
         <v>40</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>78</v>
@@ -5386,10 +5384,10 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -5449,13 +5447,13 @@
         <v>40</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F48" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>78</v>
@@ -5467,10 +5465,10 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -5530,13 +5528,13 @@
         <v>40</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F49" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>78</v>
@@ -5548,10 +5546,10 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N49" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
@@ -5611,13 +5609,13 @@
         <v>40</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>78</v>
@@ -5629,10 +5627,10 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N50" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
@@ -5692,13 +5690,13 @@
         <v>40</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F51" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>78</v>
@@ -5710,7 +5708,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N51" s="10" t="n">
         <v>5449000148056</v>
@@ -5773,13 +5771,13 @@
         <v>40</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>74</v>
@@ -5819,7 +5817,7 @@
         <v>38</v>
       </c>
       <c r="AK52" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL52" s="6" t="n">
         <v>300</v>
@@ -5840,13 +5838,13 @@
         <v>40</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>78</v>
@@ -5858,10 +5856,10 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N53" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
@@ -5921,13 +5919,13 @@
         <v>40</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F54" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>78</v>
@@ -5939,10 +5937,10 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N54" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
@@ -6002,13 +6000,13 @@
         <v>40</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>78</v>
@@ -6020,10 +6018,10 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -6083,13 +6081,13 @@
         <v>40</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F56" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>78</v>
@@ -6101,10 +6099,10 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N56" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -6164,13 +6162,13 @@
         <v>40</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F57" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>78</v>
@@ -6182,10 +6180,10 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N57" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
@@ -6245,13 +6243,13 @@
         <v>40</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F58" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>78</v>
@@ -6263,7 +6261,7 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N58" s="10" t="n">
         <v>111111</v>
@@ -6326,13 +6324,13 @@
         <v>40</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F59" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>74</v>
@@ -6372,7 +6370,7 @@
         <v>45</v>
       </c>
       <c r="AK59" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL59" s="6" t="n">
         <v>300</v>
@@ -6393,13 +6391,13 @@
         <v>40</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F60" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>78</v>
@@ -6411,10 +6409,10 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N60" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
@@ -6474,13 +6472,13 @@
         <v>40</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F61" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>78</v>
@@ -6492,10 +6490,10 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N61" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -6555,13 +6553,13 @@
         <v>40</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F62" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>78</v>
@@ -6573,10 +6571,10 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N62" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
@@ -6636,13 +6634,13 @@
         <v>40</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F63" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>78</v>
@@ -6654,10 +6652,10 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
@@ -6717,13 +6715,13 @@
         <v>40</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F64" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>78</v>
@@ -6735,10 +6733,10 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N64" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
@@ -6798,13 +6796,13 @@
         <v>40</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F65" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>78</v>
@@ -6816,10 +6814,10 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
@@ -6879,13 +6877,13 @@
         <v>40</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F66" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>78</v>
@@ -6897,10 +6895,10 @@
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N66" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
@@ -6960,13 +6958,13 @@
         <v>40</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F67" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>78</v>
@@ -6978,10 +6976,10 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
@@ -7041,13 +7039,13 @@
         <v>40</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F68" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>78</v>
@@ -7059,10 +7057,10 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
@@ -7122,13 +7120,13 @@
         <v>40</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F69" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="G69" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>78</v>
@@ -7140,10 +7138,10 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
@@ -7203,13 +7201,13 @@
         <v>40</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F70" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G70" s="15" t="s">
         <v>244</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>245</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>78</v>
@@ -7221,10 +7219,10 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O70" s="10"/>
       <c r="P70" s="6"/>
@@ -7284,13 +7282,13 @@
         <v>40</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F71" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="G71" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>78</v>
@@ -7302,10 +7300,10 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
@@ -7365,13 +7363,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>78</v>
@@ -7383,23 +7381,23 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="N72" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="N72" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
       <c r="W72" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
@@ -7407,7 +7405,7 @@
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
       <c r="AC72" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD72" s="14" t="n">
         <v>0.03</v>
@@ -7443,10 +7441,10 @@
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>78</v>
@@ -7458,23 +7456,23 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
       <c r="W73" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
@@ -7482,7 +7480,7 @@
       <c r="AA73" s="6"/>
       <c r="AB73" s="6"/>
       <c r="AC73" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD73" s="14" t="n">
         <v>0.01</v>
@@ -7518,10 +7516,10 @@
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>78</v>
@@ -7533,23 +7531,23 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
       <c r="W74" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
@@ -7557,7 +7555,7 @@
       <c r="AA74" s="6"/>
       <c r="AB74" s="6"/>
       <c r="AC74" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD74" s="14" t="n">
         <v>0.01</v>
@@ -7593,10 +7591,10 @@
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>78</v>
@@ -7608,23 +7606,23 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
       <c r="W75" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
@@ -7632,7 +7630,7 @@
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
       <c r="AC75" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD75" s="14" t="n">
         <v>0.01</v>
@@ -7668,10 +7666,10 @@
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>78</v>
@@ -7683,23 +7681,23 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
       <c r="W76" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
@@ -7707,7 +7705,7 @@
       <c r="AA76" s="6"/>
       <c r="AB76" s="6"/>
       <c r="AC76" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD76" s="14" t="n">
         <v>0.06</v>
@@ -7742,16 +7740,16 @@
         <v>40</v>
       </c>
       <c r="E77" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="G77" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="H77" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6" t="n">
@@ -7764,7 +7762,7 @@
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
       <c r="Q77" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
@@ -7796,7 +7794,7 @@
         <v>63</v>
       </c>
       <c r="AK77" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AL77" s="10" t="n">
         <v>302</v>
@@ -7817,13 +7815,13 @@
         <v>40</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F78" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>78</v>
@@ -7835,10 +7833,10 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="N78" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="N78" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
@@ -7846,7 +7844,7 @@
         <v>80</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
@@ -7894,16 +7892,16 @@
         <v>40</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F79" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="H79" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6" t="n">
@@ -7946,7 +7944,7 @@
         <v>65</v>
       </c>
       <c r="AK79" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AL79" s="6" t="n">
         <v>63</v>
@@ -7967,16 +7965,16 @@
         <v>40</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F80" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="H80" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>284</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -7989,7 +7987,7 @@
         <v>5449000054227</v>
       </c>
       <c r="O80" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P80" s="10"/>
       <c r="Q80" s="6" t="s">
@@ -8018,7 +8016,7 @@
       <c r="AF80" s="6"/>
       <c r="AG80" s="6"/>
       <c r="AH80" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AI80" s="6" t="n">
         <v>4</v>
@@ -8046,16 +8044,16 @@
         <v>40</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F81" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G81" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="H81" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6" t="n">
@@ -8076,7 +8074,7 @@
       <c r="U81" s="21"/>
       <c r="V81" s="6"/>
       <c r="W81" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
@@ -8100,7 +8098,7 @@
         <v>69</v>
       </c>
       <c r="AK81" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AL81" s="10" t="n">
         <v>303</v>
@@ -8121,13 +8119,13 @@
         <v>40</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F82" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>78</v>
@@ -8139,10 +8137,10 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N82" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
@@ -8150,14 +8148,14 @@
         <v>80</v>
       </c>
       <c r="R82" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
       <c r="U82" s="21"/>
       <c r="V82" s="6"/>
       <c r="W82" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
@@ -8198,16 +8196,16 @@
         <v>40</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F83" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G83" s="6" t="s">
-        <v>293</v>
-      </c>
       <c r="H83" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6" t="n">
@@ -8228,7 +8226,7 @@
       <c r="U83" s="21"/>
       <c r="V83" s="6"/>
       <c r="W83" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
@@ -8250,7 +8248,7 @@
         <v>71</v>
       </c>
       <c r="AK83" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL83" s="6" t="n">
         <v>69</v>
@@ -8271,23 +8269,23 @@
         <v>40</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F84" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="G84" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="H84" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N84" s="10" t="n">
         <v>4607042434877</v>
@@ -8305,7 +8303,7 @@
       <c r="U84" s="21"/>
       <c r="V84" s="6"/>
       <c r="W84" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
@@ -8320,7 +8318,7 @@
       <c r="AF84" s="6"/>
       <c r="AG84" s="6"/>
       <c r="AH84" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AI84" s="6" t="n">
         <v>4</v>
@@ -8348,23 +8346,23 @@
         <v>40</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F85" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="H85" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N85" s="10" t="n">
         <v>4607042434891</v>
@@ -8382,7 +8380,7 @@
       <c r="U85" s="21"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
@@ -8397,7 +8395,7 @@
       <c r="AF85" s="6"/>
       <c r="AG85" s="6"/>
       <c r="AH85" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AI85" s="6" t="n">
         <v>4</v>
@@ -8422,19 +8420,19 @@
         <v>39</v>
       </c>
       <c r="D86" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E86" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="F86" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="H86" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6" t="n">
@@ -8455,7 +8453,7 @@
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
       <c r="W86" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
@@ -8463,7 +8461,7 @@
       <c r="AA86" s="6"/>
       <c r="AB86" s="6"/>
       <c r="AC86" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD86" s="14" t="n">
         <v>0.03</v>
@@ -8479,7 +8477,7 @@
         <v>74</v>
       </c>
       <c r="AK86" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AL86" s="10" t="n">
         <v>301</v>
@@ -8499,10 +8497,10 @@
       <c r="D87" s="6"/>
       <c r="E87" s="22"/>
       <c r="F87" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>78</v>
@@ -8515,27 +8513,27 @@
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O87" s="10"/>
       <c r="P87" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q87" s="6" t="s">
         <v>80</v>
       </c>
       <c r="R87" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="S87" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="S87" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
       <c r="X87" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
@@ -8574,13 +8572,13 @@
       <c r="D88" s="6"/>
       <c r="E88" s="22"/>
       <c r="F88" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="H88" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6" t="n">
@@ -8594,7 +8592,7 @@
       <c r="P88" s="10"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
@@ -8602,7 +8600,7 @@
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
       <c r="X88" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
@@ -8615,7 +8613,7 @@
       <c r="AE88" s="6"/>
       <c r="AF88" s="6"/>
       <c r="AG88" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH88" s="6"/>
       <c r="AI88" s="6" t="n">
@@ -8643,10 +8641,10 @@
       <c r="D89" s="6"/>
       <c r="E89" s="22"/>
       <c r="F89" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>78</v>
@@ -8658,10 +8656,10 @@
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="N89" s="23" t="s">
         <v>321</v>
-      </c>
-      <c r="N89" s="23" t="s">
-        <v>322</v>
       </c>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
@@ -8677,7 +8675,7 @@
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
       <c r="X89" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
@@ -8716,13 +8714,13 @@
       <c r="D90" s="6"/>
       <c r="E90" s="22"/>
       <c r="F90" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G90" s="6" t="s">
-        <v>325</v>
-      </c>
       <c r="H90" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6" t="n">
@@ -8736,7 +8734,7 @@
       <c r="P90" s="10"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
@@ -8744,7 +8742,7 @@
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
       <c r="X90" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y90" s="6"/>
       <c r="Z90" s="6"/>
@@ -8757,7 +8755,7 @@
       <c r="AE90" s="6"/>
       <c r="AF90" s="6"/>
       <c r="AG90" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AH90" s="6"/>
       <c r="AI90" s="6" t="n">
@@ -8786,16 +8784,16 @@
         <v>40</v>
       </c>
       <c r="E91" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="G91" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="H91" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -8806,7 +8804,7 @@
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
       <c r="Q91" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
@@ -8820,7 +8818,7 @@
       <c r="AA91" s="6"/>
       <c r="AB91" s="6"/>
       <c r="AC91" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD91" s="14" t="n">
         <v>0.18</v>
@@ -8829,7 +8827,7 @@
       <c r="AF91" s="6"/>
       <c r="AG91" s="6"/>
       <c r="AH91" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AI91" s="6" t="n">
         <v>2</v>
@@ -8838,7 +8836,7 @@
         <v>79</v>
       </c>
       <c r="AK91" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL91" s="6" t="n">
         <v>311</v>
@@ -8859,16 +8857,16 @@
         <v>40</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F92" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="H92" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6" t="n">
@@ -8879,27 +8877,27 @@
       </c>
       <c r="L92" s="6"/>
       <c r="M92" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="N92" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="N92" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
       <c r="W92" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X92" s="6"/>
       <c r="Y92" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
@@ -8911,10 +8909,10 @@
       <c r="AE92" s="6"/>
       <c r="AF92" s="6"/>
       <c r="AG92" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH92" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="AH92" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="AI92" s="6" t="n">
         <v>3</v>
@@ -8942,16 +8940,16 @@
         <v>40</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="G93" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="G93" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="H93" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6" t="n">
@@ -8962,26 +8960,26 @@
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="N93" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="N93" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="X93" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="X93" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="Y93" s="6"/>
       <c r="Z93" s="6"/>
@@ -8994,10 +8992,10 @@
       <c r="AE93" s="6"/>
       <c r="AF93" s="6"/>
       <c r="AG93" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH93" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="AH93" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="AI93" s="6" t="n">
         <v>3</v>
@@ -9025,16 +9023,16 @@
         <v>40</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F94" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="H94" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>350</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6" t="n">
@@ -9043,23 +9041,23 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
       <c r="W94" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="X94" s="6"/>
       <c r="Y94" s="6"/>
@@ -9100,16 +9098,16 @@
         <v>40</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F95" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="G95" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="H95" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="6" t="n">
@@ -9119,23 +9117,23 @@
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
       <c r="W95" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X95" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
@@ -9150,10 +9148,10 @@
       <c r="AE95" s="6"/>
       <c r="AF95" s="6"/>
       <c r="AG95" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH95" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI95" s="6" t="n">
         <v>2</v>
@@ -9181,16 +9179,16 @@
         <v>40</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F96" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="H96" s="26" t="s">
         <v>358</v>
-      </c>
-      <c r="H96" s="26" t="s">
-        <v>359</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
@@ -9201,27 +9199,27 @@
         <v>15</v>
       </c>
       <c r="M96" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="N96" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="N96" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
       <c r="W96" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X96" s="6"/>
       <c r="Y96" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
@@ -9235,10 +9233,10 @@
       <c r="AE96" s="6"/>
       <c r="AF96" s="6"/>
       <c r="AG96" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH96" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI96" s="6" t="n">
         <v>2</v>
@@ -9266,13 +9264,13 @@
         <v>40</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F97" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G97" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>74</v>
@@ -9286,7 +9284,7 @@
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
       <c r="Q97" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
@@ -9294,7 +9292,7 @@
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
       <c r="W97" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X97" s="6"/>
       <c r="Y97" s="6"/>
@@ -9302,7 +9300,7 @@
       <c r="AA97" s="6"/>
       <c r="AB97" s="6"/>
       <c r="AC97" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AD97" s="14" t="n">
         <v>0.03</v>
@@ -9314,10 +9312,10 @@
         <v>1</v>
       </c>
       <c r="AG97" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH97" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI97" s="6" t="n">
         <v>2</v>
@@ -9326,7 +9324,7 @@
         <v>85</v>
       </c>
       <c r="AK97" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AL97" s="25" t="n">
         <v>312</v>
@@ -9348,13 +9346,13 @@
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="H98" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6" t="n">
@@ -9363,46 +9361,46 @@
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="N98" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="N98" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="O98" s="10"/>
       <c r="P98" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q98" s="6" t="s">
         <v>80</v>
       </c>
       <c r="R98" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
       <c r="W98" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X98" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y98" s="6"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="6"/>
       <c r="AC98" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AD98" s="8"/>
       <c r="AE98" s="6"/>
       <c r="AF98" s="6"/>
       <c r="AG98" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH98" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI98" s="6" t="n">
         <v>3</v>
@@ -9431,13 +9429,13 @@
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G99" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="G99" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="H99" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="6" t="n">
@@ -9450,7 +9448,7 @@
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
       <c r="Q99" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
@@ -9458,7 +9456,7 @@
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
       <c r="W99" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X99" s="6"/>
       <c r="Y99" s="6"/>
@@ -9466,16 +9464,16 @@
       <c r="AA99" s="6"/>
       <c r="AB99" s="6"/>
       <c r="AC99" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AD99" s="8"/>
       <c r="AE99" s="6"/>
       <c r="AF99" s="6"/>
       <c r="AG99" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH99" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI99" s="6" t="n">
         <v>3</v>
@@ -9484,7 +9482,7 @@
         <v>88</v>
       </c>
       <c r="AK99" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AL99" s="6" t="n">
         <v>85</v>
@@ -9506,10 +9504,10 @@
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G100" s="24" t="s">
         <v>373</v>
-      </c>
-      <c r="G100" s="24" t="s">
-        <v>374</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>78</v>
@@ -9521,36 +9519,36 @@
       <c r="K100" s="6"/>
       <c r="L100" s="0"/>
       <c r="M100" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="N100" s="23" t="s">
         <v>375</v>
-      </c>
-      <c r="N100" s="23" t="s">
-        <v>376</v>
       </c>
       <c r="O100" s="23"/>
       <c r="P100" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q100" s="6" t="s">
         <v>80</v>
       </c>
       <c r="R100" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
       <c r="W100" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X100" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Y100" s="6"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AC100" s="6" t="s">
         <v>84</v>
@@ -9559,10 +9557,10 @@
       <c r="AE100" s="6"/>
       <c r="AF100" s="6"/>
       <c r="AG100" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH100" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI100" s="6" t="n">
         <v>4</v>
@@ -9591,10 +9589,10 @@
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="G101" s="24" t="s">
         <v>379</v>
-      </c>
-      <c r="G101" s="24" t="s">
-        <v>380</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>78</v>
@@ -9606,36 +9604,36 @@
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="N101" s="23" t="s">
         <v>367</v>
-      </c>
-      <c r="N101" s="23" t="s">
-        <v>368</v>
       </c>
       <c r="O101" s="23"/>
       <c r="P101" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q101" s="6" t="s">
         <v>80</v>
       </c>
       <c r="R101" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="6"/>
       <c r="W101" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X101" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Y101" s="6"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AC101" s="6" t="s">
         <v>84</v>
@@ -9644,10 +9642,10 @@
       <c r="AE101" s="6"/>
       <c r="AF101" s="6"/>
       <c r="AG101" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH101" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI101" s="6" t="n">
         <v>4</v>
@@ -9676,13 +9674,13 @@
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G102" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="H102" s="26" t="s">
         <v>383</v>
-      </c>
-      <c r="H102" s="26" t="s">
-        <v>384</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="6" t="n">
@@ -9691,10 +9689,10 @@
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
@@ -9702,17 +9700,17 @@
         <v>80</v>
       </c>
       <c r="R102" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
       <c r="V102" s="6"/>
       <c r="W102" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X102" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Y102" s="6"/>
       <c r="Z102" s="6"/>
@@ -9725,10 +9723,10 @@
       <c r="AE102" s="6"/>
       <c r="AF102" s="6"/>
       <c r="AG102" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH102" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI102" s="6" t="n">
         <v>3</v>
@@ -9756,16 +9754,16 @@
         <v>40</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F103" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="G103" s="6" t="s">
+      <c r="H103" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
@@ -9773,20 +9771,20 @@
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
       <c r="N103" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
       <c r="W103" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
@@ -9794,7 +9792,7 @@
       <c r="AA103" s="6"/>
       <c r="AB103" s="6"/>
       <c r="AC103" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD103" s="14" t="n">
         <v>0.03</v>
@@ -9802,10 +9800,10 @@
       <c r="AE103" s="6"/>
       <c r="AF103" s="6"/>
       <c r="AG103" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH103" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI103" s="6" t="n">
         <v>2</v>
@@ -9830,39 +9828,39 @@
         <v>39</v>
       </c>
       <c r="D104" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E104" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="E104" s="22" t="s">
+      <c r="F104" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="F104" s="22" t="s">
+      <c r="G104" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="G104" s="22" t="s">
+      <c r="H104" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="H104" s="6" t="s">
+      <c r="I104" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="N104" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="N104" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="O104" s="10"/>
       <c r="P104" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q104" s="6"/>
       <c r="R104" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
@@ -9885,7 +9883,7 @@
         <v>93</v>
       </c>
       <c r="AK104" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AL104" s="6"/>
       <c r="BD104" s="0"/>
@@ -9901,35 +9899,35 @@
         <v>39</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E105" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="F105" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="F105" s="22" t="s">
+      <c r="G105" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="G105" s="22" t="s">
+      <c r="H105" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="H105" s="6" t="s">
+      <c r="I105" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
       <c r="N105" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
@@ -9968,35 +9966,35 @@
         <v>39</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E106" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="F106" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="F106" s="22" t="s">
+      <c r="G106" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="G106" s="22" t="s">
+      <c r="H106" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="H106" s="6" t="s">
+      <c r="I106" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
       <c r="N106" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
       <c r="R106" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
@@ -10035,35 +10033,35 @@
         <v>39</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E107" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="F107" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="F107" s="22" t="s">
+      <c r="G107" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="G107" s="22" t="s">
+      <c r="H107" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="H107" s="6" t="s">
+      <c r="I107" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
       <c r="N107" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
       <c r="R107" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
@@ -10102,35 +10100,35 @@
         <v>39</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E108" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="F108" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="F108" s="22" t="s">
+      <c r="G108" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="G108" s="22" t="s">
+      <c r="H108" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="H108" s="6" t="s">
+      <c r="I108" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
       <c r="N108" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
       <c r="R108" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
@@ -10169,45 +10167,45 @@
         <v>39</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E109" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="F109" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="F109" s="22" t="s">
+      <c r="G109" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="G109" s="22" t="s">
+      <c r="H109" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="H109" s="6" t="s">
-        <v>404</v>
-      </c>
       <c r="I109" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
       <c r="N109" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
       <c r="R109" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
       <c r="V109" s="6"/>
       <c r="W109" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X109" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Y109" s="6"/>
       <c r="Z109" s="6"/>
@@ -10238,35 +10236,35 @@
         <v>39</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E110" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F110" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="F110" s="22" t="s">
+      <c r="G110" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="G110" s="22" t="s">
+      <c r="H110" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="H110" s="6" t="s">
-        <v>411</v>
-      </c>
       <c r="I110" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
       <c r="N110" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
       <c r="R110" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
@@ -10274,7 +10272,7 @@
       <c r="V110" s="6"/>
       <c r="W110" s="6"/>
       <c r="X110" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y110" s="6"/>
       <c r="Z110" s="6"/>
@@ -10304,35 +10302,35 @@
         <v>39</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E111" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="F111" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="F111" s="22" t="s">
+      <c r="G111" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="G111" s="22" t="s">
-        <v>416</v>
-      </c>
       <c r="H111" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
       <c r="N111" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
       <c r="R111" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
@@ -10340,7 +10338,7 @@
       <c r="V111" s="6"/>
       <c r="W111" s="6"/>
       <c r="X111" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y111" s="6"/>
       <c r="Z111" s="6"/>
@@ -10370,35 +10368,35 @@
         <v>39</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E112" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F112" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="F112" s="22" t="s">
+      <c r="G112" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="G112" s="22" t="s">
-        <v>420</v>
-      </c>
       <c r="H112" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
       <c r="N112" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
       <c r="R112" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
@@ -10406,7 +10404,7 @@
       <c r="V112" s="6"/>
       <c r="W112" s="6"/>
       <c r="X112" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y112" s="6"/>
       <c r="Z112" s="6"/>
@@ -10436,37 +10434,37 @@
         <v>39</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E113" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="F113" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="F113" s="22" t="s">
+      <c r="G113" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="G113" s="22" t="s">
-        <v>424</v>
-      </c>
       <c r="H113" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="I113" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N113" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="N113" s="12" t="s">
-        <v>426</v>
       </c>
       <c r="O113" s="6"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
       <c r="R113" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
@@ -10504,37 +10502,37 @@
         <v>39</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E114" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="F114" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="F114" s="22" t="s">
+      <c r="G114" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="G114" s="22" t="s">
-        <v>424</v>
-      </c>
       <c r="H114" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="I114" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
       <c r="M114" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N114" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="N114" s="12" t="s">
-        <v>426</v>
       </c>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
@@ -10572,37 +10570,37 @@
         <v>39</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E115" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="F115" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="F115" s="22" t="s">
+      <c r="G115" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="G115" s="22" t="s">
-        <v>424</v>
-      </c>
       <c r="H115" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="I115" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N115" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
       <c r="R115" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S115" s="6"/>
       <c r="T115" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -12,16 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1067,10 +1058,10 @@
     <t xml:space="preserve">Прикассовый дисплеи Entry Pack фейсы</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 0.25L Slim, Coca-Cola Zero - 0.25L Slim, Coca-Cola Zero Cherry - 0.25L Slim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000008046, 5449000020987, 5449000239655</t>
+    <t xml:space="preserve">Coca-Cola - 0.25L Slim, Coca-Cola Zero - 0.25L Slim, Coca-Cola Zero Cherry - 0.25L Slim, Sprite - 0.25L Slim, Fanta Orange - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000008046, 5449000020987, 5449000239655, 5449000000729, 5449000000712</t>
   </si>
   <si>
     <t xml:space="preserve">Entry_Pack</t>
@@ -1715,11 +1706,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1827,54 +1818,56 @@
   </sheetPr>
   <dimension ref="A1:BD115"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="M38" activeCellId="0" sqref="M38:N38"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.3076923076923"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="49.165991902834"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="96.5141700404858"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="86.336032388664"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3036437246964"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8259109311741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.1093117408907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.2995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.0404858299595"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.45344129554656"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.6963562753036"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="114.283400809717"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="71.3684210526316"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.78947368421053"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.2955465587045"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.24696356275304"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.7125506072875"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.9392712550607"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.3441295546559"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.9595141700405"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.8744939271255"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.9068825910931"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.417004048583"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.7570850202429"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6963562753036"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.8461538461538"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3522267206478"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="51.8582995951417"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="83.9230769230769"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.11336032388664"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.1457489878543"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.62753036437247"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +1984,7 @@
       </c>
       <c r="BD1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>174</v>
       </c>
@@ -2052,7 +2045,7 @@
       <c r="AL2" s="6"/>
       <c r="BD2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>175</v>
       </c>
@@ -2113,7 +2106,7 @@
       <c r="AL3" s="10"/>
       <c r="BD3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>176</v>
       </c>
@@ -2176,7 +2169,7 @@
       </c>
       <c r="BD4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>177</v>
       </c>
@@ -2239,7 +2232,7 @@
       </c>
       <c r="BD5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>178</v>
       </c>
@@ -2300,7 +2293,7 @@
       <c r="AL6" s="10"/>
       <c r="BD6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>179</v>
       </c>
@@ -2363,7 +2356,7 @@
       </c>
       <c r="BD7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>180</v>
       </c>
@@ -2426,7 +2419,7 @@
       </c>
       <c r="BD8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>182</v>
       </c>
@@ -2489,7 +2482,7 @@
       </c>
       <c r="BD9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>183</v>
       </c>
@@ -2552,7 +2545,7 @@
       </c>
       <c r="BD10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>184</v>
       </c>
@@ -2615,7 +2608,7 @@
       </c>
       <c r="BD11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>185</v>
       </c>
@@ -2678,7 +2671,7 @@
       </c>
       <c r="BD12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>186</v>
       </c>
@@ -2741,7 +2734,7 @@
       </c>
       <c r="BD13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>188</v>
       </c>
@@ -2802,7 +2795,7 @@
       <c r="AL14" s="6"/>
       <c r="BD14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>1</v>
       </c>
@@ -2869,7 +2862,7 @@
       </c>
       <c r="BD15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>2</v>
       </c>
@@ -2950,7 +2943,7 @@
       </c>
       <c r="BD16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>3</v>
       </c>
@@ -3031,7 +3024,7 @@
       </c>
       <c r="BD17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>4</v>
       </c>
@@ -3112,7 +3105,7 @@
       </c>
       <c r="BD18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>5</v>
       </c>
@@ -3193,7 +3186,7 @@
       </c>
       <c r="BD19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>6</v>
       </c>
@@ -3274,7 +3267,7 @@
       </c>
       <c r="BD20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>7</v>
       </c>
@@ -3355,7 +3348,7 @@
       </c>
       <c r="BD21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>8</v>
       </c>
@@ -3436,7 +3429,7 @@
       </c>
       <c r="BD22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>9</v>
       </c>
@@ -3517,7 +3510,7 @@
       </c>
       <c r="BD23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>10</v>
       </c>
@@ -3598,7 +3591,7 @@
       </c>
       <c r="BD24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>11</v>
       </c>
@@ -3679,7 +3672,7 @@
       </c>
       <c r="BD25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>12</v>
       </c>
@@ -3760,7 +3753,7 @@
       </c>
       <c r="BD26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>13</v>
       </c>
@@ -3841,7 +3834,7 @@
       </c>
       <c r="BD27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>14</v>
       </c>
@@ -3922,7 +3915,7 @@
       </c>
       <c r="BD28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>15</v>
       </c>
@@ -4003,7 +3996,7 @@
       </c>
       <c r="BD29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>16</v>
       </c>
@@ -4084,7 +4077,7 @@
       </c>
       <c r="BD30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>17</v>
       </c>
@@ -4165,7 +4158,7 @@
       </c>
       <c r="BD31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>18</v>
       </c>
@@ -4246,7 +4239,7 @@
       </c>
       <c r="BD32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>19</v>
       </c>
@@ -4327,7 +4320,7 @@
       </c>
       <c r="BD33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>20</v>
       </c>
@@ -4408,7 +4401,7 @@
       </c>
       <c r="BD34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>21</v>
       </c>
@@ -4489,7 +4482,7 @@
       </c>
       <c r="BD35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>22</v>
       </c>
@@ -4570,7 +4563,7 @@
       </c>
       <c r="BD36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>23</v>
       </c>
@@ -4651,7 +4644,7 @@
       </c>
       <c r="BD37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>24</v>
       </c>
@@ -4732,7 +4725,7 @@
       </c>
       <c r="BD38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>25</v>
       </c>
@@ -4799,7 +4792,7 @@
       </c>
       <c r="BD39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>26</v>
       </c>
@@ -4880,7 +4873,7 @@
       </c>
       <c r="BD40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>27</v>
       </c>
@@ -4961,7 +4954,7 @@
       </c>
       <c r="BD41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>28</v>
       </c>
@@ -5042,7 +5035,7 @@
       </c>
       <c r="BD42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>29</v>
       </c>
@@ -5123,7 +5116,7 @@
       </c>
       <c r="BD43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>30</v>
       </c>
@@ -5204,7 +5197,7 @@
       </c>
       <c r="BD44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>31</v>
       </c>
@@ -5285,7 +5278,7 @@
       </c>
       <c r="BD45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>32</v>
       </c>
@@ -5352,7 +5345,7 @@
       </c>
       <c r="BD46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>33</v>
       </c>
@@ -5433,7 +5426,7 @@
       </c>
       <c r="BD47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>34</v>
       </c>
@@ -5514,7 +5507,7 @@
       </c>
       <c r="BD48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>35</v>
       </c>
@@ -5595,7 +5588,7 @@
       </c>
       <c r="BD49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>36</v>
       </c>
@@ -5676,7 +5669,7 @@
       </c>
       <c r="BD50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>37</v>
       </c>
@@ -5757,7 +5750,7 @@
       </c>
       <c r="BD51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>38</v>
       </c>
@@ -5824,7 +5817,7 @@
       </c>
       <c r="BD52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>39</v>
       </c>
@@ -5905,7 +5898,7 @@
       </c>
       <c r="BD53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>40</v>
       </c>
@@ -5986,7 +5979,7 @@
       </c>
       <c r="BD54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>41</v>
       </c>
@@ -6067,7 +6060,7 @@
       </c>
       <c r="BD55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>42</v>
       </c>
@@ -6148,7 +6141,7 @@
       </c>
       <c r="BD56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>43</v>
       </c>
@@ -6229,7 +6222,7 @@
       </c>
       <c r="BD57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>44</v>
       </c>
@@ -6310,7 +6303,7 @@
       </c>
       <c r="BD58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>45</v>
       </c>
@@ -6377,7 +6370,7 @@
       </c>
       <c r="BD59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>46</v>
       </c>
@@ -6458,7 +6451,7 @@
       </c>
       <c r="BD60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>47</v>
       </c>
@@ -6539,7 +6532,7 @@
       </c>
       <c r="BD61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>48</v>
       </c>
@@ -6620,7 +6613,7 @@
       </c>
       <c r="BD62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>49</v>
       </c>
@@ -6701,7 +6694,7 @@
       </c>
       <c r="BD63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>50</v>
       </c>
@@ -6782,7 +6775,7 @@
       </c>
       <c r="BD64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>51</v>
       </c>
@@ -6863,7 +6856,7 @@
       </c>
       <c r="BD65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>52</v>
       </c>
@@ -6944,7 +6937,7 @@
       </c>
       <c r="BD66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>53</v>
       </c>
@@ -7025,7 +7018,7 @@
       </c>
       <c r="BD67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>54</v>
       </c>
@@ -7106,7 +7099,7 @@
       </c>
       <c r="BD68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>55</v>
       </c>
@@ -7187,7 +7180,7 @@
       </c>
       <c r="BD69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>56</v>
       </c>
@@ -7268,7 +7261,7 @@
       </c>
       <c r="BD70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>57</v>
       </c>
@@ -7349,7 +7342,7 @@
       </c>
       <c r="BD71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>58</v>
       </c>
@@ -7426,7 +7419,7 @@
       </c>
       <c r="BD72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>59</v>
       </c>
@@ -7501,7 +7494,7 @@
       </c>
       <c r="BD73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>60</v>
       </c>
@@ -7576,7 +7569,7 @@
       </c>
       <c r="BD74" s="0"/>
     </row>
-    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>61</v>
       </c>
@@ -7651,7 +7644,7 @@
       </c>
       <c r="BD75" s="0"/>
     </row>
-    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>62</v>
       </c>
@@ -7726,7 +7719,7 @@
       </c>
       <c r="BD76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>63</v>
       </c>
@@ -7801,7 +7794,7 @@
       </c>
       <c r="BD77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>64</v>
       </c>
@@ -7878,7 +7871,7 @@
       </c>
       <c r="BD78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>65</v>
       </c>
@@ -7951,7 +7944,7 @@
       </c>
       <c r="BD79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>66</v>
       </c>
@@ -8030,7 +8023,7 @@
       </c>
       <c r="BD80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>69</v>
       </c>
@@ -8105,7 +8098,7 @@
       </c>
       <c r="BD81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>70</v>
       </c>
@@ -8182,7 +8175,7 @@
       </c>
       <c r="BD82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>71</v>
       </c>
@@ -8255,7 +8248,7 @@
       </c>
       <c r="BD83" s="0"/>
     </row>
-    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>72</v>
       </c>
@@ -8332,7 +8325,7 @@
       </c>
       <c r="BD84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>73</v>
       </c>
@@ -8409,7 +8402,7 @@
       </c>
       <c r="BD85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>74</v>
       </c>
@@ -8484,7 +8477,7 @@
       </c>
       <c r="BD86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>75</v>
       </c>
@@ -8512,7 +8505,7 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
-      <c r="N87" s="23" t="s">
+      <c r="N87" s="10" t="s">
         <v>308</v>
       </c>
       <c r="O87" s="10"/>
@@ -8559,7 +8552,7 @@
       </c>
       <c r="BD87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>76</v>
       </c>
@@ -8587,7 +8580,7 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
-      <c r="N88" s="24"/>
+      <c r="N88" s="6"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
       <c r="Q88" s="6"/>
@@ -8628,7 +8621,7 @@
       </c>
       <c r="BD88" s="0"/>
     </row>
-    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>77</v>
       </c>
@@ -8655,10 +8648,10 @@
       </c>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="6" t="s">
+      <c r="M89" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="N89" s="23" t="s">
+      <c r="N89" s="24" t="s">
         <v>321</v>
       </c>
       <c r="O89" s="10"/>
@@ -8701,7 +8694,7 @@
       </c>
       <c r="BD89" s="0"/>
     </row>
-    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>78</v>
       </c>
@@ -8729,7 +8722,7 @@
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
-      <c r="N90" s="24"/>
+      <c r="N90" s="6"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
       <c r="Q90" s="6"/>
@@ -8770,7 +8763,7 @@
       </c>
       <c r="BD90" s="0"/>
     </row>
-    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>79</v>
       </c>
@@ -8843,7 +8836,7 @@
       </c>
       <c r="BD91" s="0"/>
     </row>
-    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>80</v>
       </c>
@@ -8926,7 +8919,7 @@
       </c>
       <c r="BD92" s="0"/>
     </row>
-    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>81</v>
       </c>
@@ -9009,7 +9002,7 @@
       </c>
       <c r="BD93" s="0"/>
     </row>
-    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>82</v>
       </c>
@@ -9084,7 +9077,7 @@
       </c>
       <c r="BD94" s="0"/>
     </row>
-    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>83</v>
       </c>
@@ -9165,7 +9158,7 @@
       </c>
       <c r="BD95" s="0"/>
     </row>
-    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>84</v>
       </c>
@@ -9250,7 +9243,7 @@
       </c>
       <c r="BD96" s="0"/>
     </row>
-    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>85</v>
       </c>
@@ -9331,7 +9324,7 @@
       </c>
       <c r="BD97" s="0"/>
     </row>
-    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>87</v>
       </c>
@@ -9414,7 +9407,7 @@
       </c>
       <c r="BD98" s="0"/>
     </row>
-    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>88</v>
       </c>
@@ -9489,7 +9482,7 @@
       </c>
       <c r="BD99" s="0"/>
     </row>
-    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>89</v>
       </c>
@@ -9506,7 +9499,7 @@
       <c r="F100" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="G100" s="24" t="s">
+      <c r="G100" s="23" t="s">
         <v>373</v>
       </c>
       <c r="H100" s="6" t="s">
@@ -9518,14 +9511,14 @@
       </c>
       <c r="K100" s="6"/>
       <c r="L100" s="0"/>
-      <c r="M100" s="24" t="s">
+      <c r="M100" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="N100" s="23" t="s">
+      <c r="N100" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="O100" s="23"/>
-      <c r="P100" s="23" t="s">
+      <c r="O100" s="24"/>
+      <c r="P100" s="24" t="s">
         <v>375</v>
       </c>
       <c r="Q100" s="6" t="s">
@@ -9574,7 +9567,7 @@
       </c>
       <c r="BD100" s="0"/>
     </row>
-    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>90</v>
       </c>
@@ -9591,7 +9584,7 @@
       <c r="F101" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="G101" s="24" t="s">
+      <c r="G101" s="23" t="s">
         <v>379</v>
       </c>
       <c r="H101" s="6" t="s">
@@ -9603,14 +9596,14 @@
       </c>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
-      <c r="M101" s="24" t="s">
+      <c r="M101" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="N101" s="23" t="s">
+      <c r="N101" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="O101" s="23"/>
-      <c r="P101" s="23" t="s">
+      <c r="O101" s="24"/>
+      <c r="P101" s="24" t="s">
         <v>367</v>
       </c>
       <c r="Q101" s="6" t="s">
@@ -9659,7 +9652,7 @@
       </c>
       <c r="BD101" s="0"/>
     </row>
-    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>91</v>
       </c>
@@ -9740,7 +9733,7 @@
       </c>
       <c r="BD102" s="0"/>
     </row>
-    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>92</v>
       </c>
@@ -9817,7 +9810,7 @@
       </c>
       <c r="BD103" s="0"/>
     </row>
-    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>93</v>
       </c>
@@ -9888,7 +9881,7 @@
       <c r="AL104" s="6"/>
       <c r="BD104" s="0"/>
     </row>
-    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>94</v>
       </c>
@@ -9920,7 +9913,7 @@
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
-      <c r="N105" s="24" t="s">
+      <c r="N105" s="23" t="s">
         <v>311</v>
       </c>
       <c r="O105" s="6"/>
@@ -9955,7 +9948,7 @@
       <c r="AL105" s="6"/>
       <c r="BD105" s="0"/>
     </row>
-    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>95</v>
       </c>
@@ -9987,7 +9980,7 @@
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
-      <c r="N106" s="24" t="s">
+      <c r="N106" s="23" t="s">
         <v>316</v>
       </c>
       <c r="O106" s="6"/>
@@ -10022,7 +10015,7 @@
       <c r="AL106" s="6"/>
       <c r="BD106" s="0"/>
     </row>
-    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
         <v>96</v>
       </c>
@@ -10054,7 +10047,7 @@
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
-      <c r="N107" s="24" t="s">
+      <c r="N107" s="23" t="s">
         <v>322</v>
       </c>
       <c r="O107" s="6"/>
@@ -10089,7 +10082,7 @@
       <c r="AL107" s="6"/>
       <c r="BD107" s="0"/>
     </row>
-    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>97</v>
       </c>
@@ -10121,7 +10114,7 @@
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
-      <c r="N108" s="24" t="s">
+      <c r="N108" s="23" t="s">
         <v>325</v>
       </c>
       <c r="O108" s="6"/>
@@ -10156,7 +10149,7 @@
       <c r="AL108" s="6"/>
       <c r="BD108" s="0"/>
     </row>
-    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>98</v>
       </c>
@@ -10225,7 +10218,7 @@
       <c r="AL109" s="6"/>
       <c r="BD109" s="28"/>
     </row>
-    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>99</v>
       </c>
@@ -10291,7 +10284,7 @@
       <c r="AK110" s="6"/>
       <c r="AL110" s="6"/>
     </row>
-    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>100</v>
       </c>
@@ -10357,7 +10350,7 @@
       <c r="AK111" s="6"/>
       <c r="AL111" s="6"/>
     </row>
-    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
         <v>101</v>
       </c>
@@ -10423,7 +10416,7 @@
       <c r="AK112" s="6"/>
       <c r="AL112" s="6"/>
     </row>
-    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>102</v>
       </c>
@@ -10491,7 +10484,7 @@
       </c>
       <c r="AL113" s="6"/>
     </row>
-    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>103</v>
       </c>
@@ -10559,7 +10552,7 @@
       </c>
       <c r="AL114" s="6"/>
     </row>
-    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>104</v>
       </c>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
   </definedNames>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="427">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -702,10 +703,13 @@
     <t xml:space="preserve">5449000233509, 5449000259462</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 10</t>
+    <t xml:space="preserve">Fuze Peach-Rose - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Персик - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000238863</t>
   </si>
   <si>
     <t xml:space="preserve">Juice (JNSD) Availability</t>
@@ -1536,14 +1540,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1612,7 +1616,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1693,11 +1697,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1717,15 +1737,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1833,56 +1853,57 @@
   </sheetPr>
   <dimension ref="A1:BD115"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L80" activeCellId="0" sqref="J:L"/>
+      <selection pane="bottomLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.914979757085"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.9838056680162"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="115.368421052632"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="71.9838056680162"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="117.51012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="73.2712550607288"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="52.2753036437247"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="86.0161943319838"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1023" min="39" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2020,7 @@
       </c>
       <c r="BD1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>174</v>
       </c>
@@ -2060,7 +2081,7 @@
       <c r="AL2" s="8"/>
       <c r="BD2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
         <v>175</v>
       </c>
@@ -2121,7 +2142,7 @@
       <c r="AL3" s="13"/>
       <c r="BD3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>176</v>
       </c>
@@ -2184,7 +2205,7 @@
       </c>
       <c r="BD4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>177</v>
       </c>
@@ -2247,7 +2268,7 @@
       </c>
       <c r="BD5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>178</v>
       </c>
@@ -2308,7 +2329,7 @@
       <c r="AL6" s="13"/>
       <c r="BD6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>179</v>
       </c>
@@ -2371,7 +2392,7 @@
       </c>
       <c r="BD7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>180</v>
       </c>
@@ -2434,7 +2455,7 @@
       </c>
       <c r="BD8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>182</v>
       </c>
@@ -2497,7 +2518,7 @@
       </c>
       <c r="BD9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>183</v>
       </c>
@@ -2560,7 +2581,7 @@
       </c>
       <c r="BD10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>184</v>
       </c>
@@ -2623,7 +2644,7 @@
       </c>
       <c r="BD11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>185</v>
       </c>
@@ -2686,7 +2707,7 @@
       </c>
       <c r="BD12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>186</v>
       </c>
@@ -2749,7 +2770,7 @@
       </c>
       <c r="BD13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>188</v>
       </c>
@@ -2810,7 +2831,7 @@
       <c r="AL14" s="8"/>
       <c r="BD14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>1</v>
       </c>
@@ -2877,7 +2898,7 @@
       </c>
       <c r="BD15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>2</v>
       </c>
@@ -2958,7 +2979,7 @@
       </c>
       <c r="BD16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>3</v>
       </c>
@@ -3039,7 +3060,7 @@
       </c>
       <c r="BD17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>4</v>
       </c>
@@ -3120,7 +3141,7 @@
       </c>
       <c r="BD18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>5</v>
       </c>
@@ -3201,7 +3222,7 @@
       </c>
       <c r="BD19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>6</v>
       </c>
@@ -3282,7 +3303,7 @@
       </c>
       <c r="BD20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>7</v>
       </c>
@@ -3363,7 +3384,7 @@
       </c>
       <c r="BD21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>8</v>
       </c>
@@ -3444,7 +3465,7 @@
       </c>
       <c r="BD22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>9</v>
       </c>
@@ -3525,7 +3546,7 @@
       </c>
       <c r="BD23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
         <v>10</v>
       </c>
@@ -3606,7 +3627,7 @@
       </c>
       <c r="BD24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>11</v>
       </c>
@@ -3687,7 +3708,7 @@
       </c>
       <c r="BD25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>12</v>
       </c>
@@ -3768,7 +3789,7 @@
       </c>
       <c r="BD26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>13</v>
       </c>
@@ -3849,7 +3870,7 @@
       </c>
       <c r="BD27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>14</v>
       </c>
@@ -3930,7 +3951,7 @@
       </c>
       <c r="BD28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>15</v>
       </c>
@@ -4011,7 +4032,7 @@
       </c>
       <c r="BD29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>16</v>
       </c>
@@ -4092,7 +4113,7 @@
       </c>
       <c r="BD30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
         <v>17</v>
       </c>
@@ -4173,7 +4194,7 @@
       </c>
       <c r="BD31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="n">
         <v>18</v>
       </c>
@@ -4254,7 +4275,7 @@
       </c>
       <c r="BD32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="n">
         <v>19</v>
       </c>
@@ -4335,7 +4356,7 @@
       </c>
       <c r="BD33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="n">
         <v>20</v>
       </c>
@@ -4416,7 +4437,7 @@
       </c>
       <c r="BD34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="n">
         <v>21</v>
       </c>
@@ -4497,7 +4518,7 @@
       </c>
       <c r="BD35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="n">
         <v>22</v>
       </c>
@@ -4578,7 +4599,7 @@
       </c>
       <c r="BD36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="n">
         <v>23</v>
       </c>
@@ -4659,7 +4680,7 @@
       </c>
       <c r="BD37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="n">
         <v>24</v>
       </c>
@@ -4740,7 +4761,7 @@
       </c>
       <c r="BD38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="n">
         <v>25</v>
       </c>
@@ -4807,7 +4828,7 @@
       </c>
       <c r="BD39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="n">
         <v>26</v>
       </c>
@@ -4888,7 +4909,7 @@
       </c>
       <c r="BD40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="n">
         <v>27</v>
       </c>
@@ -4969,7 +4990,7 @@
       </c>
       <c r="BD41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="n">
         <v>28</v>
       </c>
@@ -5050,7 +5071,7 @@
       </c>
       <c r="BD42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="n">
         <v>29</v>
       </c>
@@ -5131,7 +5152,7 @@
       </c>
       <c r="BD43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="n">
         <v>30</v>
       </c>
@@ -5212,7 +5233,7 @@
       </c>
       <c r="BD44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="n">
         <v>31</v>
       </c>
@@ -5293,7 +5314,7 @@
       </c>
       <c r="BD45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="n">
         <v>32</v>
       </c>
@@ -5360,7 +5381,7 @@
       </c>
       <c r="BD46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="n">
         <v>33</v>
       </c>
@@ -5441,7 +5462,7 @@
       </c>
       <c r="BD47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="n">
         <v>34</v>
       </c>
@@ -5522,7 +5543,7 @@
       </c>
       <c r="BD48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="n">
         <v>35</v>
       </c>
@@ -5603,7 +5624,7 @@
       </c>
       <c r="BD49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="n">
         <v>36</v>
       </c>
@@ -5684,7 +5705,7 @@
       </c>
       <c r="BD50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="n">
         <v>37</v>
       </c>
@@ -5765,7 +5786,7 @@
       </c>
       <c r="BD51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="n">
         <v>38</v>
       </c>
@@ -5832,7 +5853,7 @@
       </c>
       <c r="BD52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="n">
         <v>39</v>
       </c>
@@ -5913,7 +5934,7 @@
       </c>
       <c r="BD53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="n">
         <v>40</v>
       </c>
@@ -5994,7 +6015,7 @@
       </c>
       <c r="BD54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="n">
         <v>41</v>
       </c>
@@ -6075,7 +6096,7 @@
       </c>
       <c r="BD55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="n">
         <v>42</v>
       </c>
@@ -6156,7 +6177,7 @@
       </c>
       <c r="BD56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="n">
         <v>43</v>
       </c>
@@ -6237,7 +6258,7 @@
       </c>
       <c r="BD57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="n">
         <v>44</v>
       </c>
@@ -6253,26 +6274,26 @@
       <c r="E58" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I58" s="8"/>
-      <c r="J58" s="10" t="n">
+      <c r="I58" s="22"/>
+      <c r="J58" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="8" t="s">
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="N58" s="13" t="n">
-        <v>111111</v>
+      <c r="N58" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
@@ -6318,7 +6339,7 @@
       </c>
       <c r="BD58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="n">
         <v>45</v>
       </c>
@@ -6335,10 +6356,10 @@
         <v>151</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>74</v>
@@ -6378,14 +6399,14 @@
         <v>45</v>
       </c>
       <c r="AK59" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL59" s="8" t="n">
         <v>300</v>
       </c>
       <c r="BD59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="n">
         <v>46</v>
       </c>
@@ -6402,10 +6423,10 @@
         <v>151</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>78</v>
@@ -6417,10 +6438,10 @@
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
       <c r="M60" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N60" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
@@ -6466,7 +6487,7 @@
       </c>
       <c r="BD60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="n">
         <v>47</v>
       </c>
@@ -6483,10 +6504,10 @@
         <v>151</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>78</v>
@@ -6498,10 +6519,10 @@
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
       <c r="M61" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
@@ -6547,7 +6568,7 @@
       </c>
       <c r="BD61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="n">
         <v>48</v>
       </c>
@@ -6564,10 +6585,10 @@
         <v>151</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>78</v>
@@ -6579,10 +6600,10 @@
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
       <c r="M62" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N62" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
@@ -6628,7 +6649,7 @@
       </c>
       <c r="BD62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="n">
         <v>49</v>
       </c>
@@ -6645,10 +6666,10 @@
         <v>151</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>78</v>
@@ -6660,10 +6681,10 @@
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N63" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
@@ -6709,7 +6730,7 @@
       </c>
       <c r="BD63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="n">
         <v>50</v>
       </c>
@@ -6726,10 +6747,10 @@
         <v>151</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>78</v>
@@ -6741,10 +6762,10 @@
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
       <c r="M64" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N64" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
@@ -6790,7 +6811,7 @@
       </c>
       <c r="BD64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="n">
         <v>51</v>
       </c>
@@ -6807,10 +6828,10 @@
         <v>151</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>78</v>
@@ -6822,10 +6843,10 @@
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
       <c r="M65" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N65" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
@@ -6871,7 +6892,7 @@
       </c>
       <c r="BD65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="n">
         <v>52</v>
       </c>
@@ -6888,10 +6909,10 @@
         <v>151</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>78</v>
@@ -6903,10 +6924,10 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
       <c r="M66" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N66" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O66" s="13"/>
       <c r="P66" s="13"/>
@@ -6952,7 +6973,7 @@
       </c>
       <c r="BD66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="n">
         <v>53</v>
       </c>
@@ -6969,10 +6990,10 @@
         <v>151</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>78</v>
@@ -6984,10 +7005,10 @@
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
       <c r="M67" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N67" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
@@ -7033,7 +7054,7 @@
       </c>
       <c r="BD67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="n">
         <v>54</v>
       </c>
@@ -7050,10 +7071,10 @@
         <v>151</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>78</v>
@@ -7065,10 +7086,10 @@
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
       <c r="M68" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N68" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
@@ -7114,7 +7135,7 @@
       </c>
       <c r="BD68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="n">
         <v>55</v>
       </c>
@@ -7130,11 +7151,11 @@
       <c r="E69" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F69" s="20" t="s">
-        <v>240</v>
+      <c r="F69" s="24" t="s">
+        <v>241</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>78</v>
@@ -7145,11 +7166,11 @@
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
-      <c r="M69" s="20" t="s">
-        <v>240</v>
+      <c r="M69" s="24" t="s">
+        <v>241</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O69" s="13"/>
       <c r="P69" s="13"/>
@@ -7195,7 +7216,7 @@
       </c>
       <c r="BD69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="n">
         <v>56</v>
       </c>
@@ -7211,11 +7232,11 @@
       <c r="E70" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F70" s="20" t="s">
-        <v>243</v>
+      <c r="F70" s="24" t="s">
+        <v>244</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>78</v>
@@ -7226,11 +7247,11 @@
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
-      <c r="M70" s="20" t="s">
-        <v>243</v>
+      <c r="M70" s="24" t="s">
+        <v>244</v>
       </c>
       <c r="N70" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O70" s="13"/>
       <c r="P70" s="8"/>
@@ -7276,7 +7297,7 @@
       </c>
       <c r="BD70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="n">
         <v>57</v>
       </c>
@@ -7292,11 +7313,11 @@
       <c r="E71" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F71" s="20" t="s">
-        <v>246</v>
+      <c r="F71" s="24" t="s">
+        <v>247</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>78</v>
@@ -7307,11 +7328,11 @@
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
-      <c r="M71" s="20" t="s">
-        <v>246</v>
+      <c r="M71" s="24" t="s">
+        <v>247</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O71" s="13"/>
       <c r="P71" s="13"/>
@@ -7357,7 +7378,7 @@
       </c>
       <c r="BD71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="n">
         <v>58</v>
       </c>
@@ -7371,13 +7392,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>78</v>
@@ -7389,23 +7410,23 @@
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
       <c r="M72" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O72" s="13"/>
       <c r="P72" s="13"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S72" s="8"/>
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
       <c r="V72" s="8"/>
       <c r="W72" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
@@ -7413,7 +7434,7 @@
       <c r="AA72" s="8"/>
       <c r="AB72" s="8"/>
       <c r="AC72" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD72" s="17" t="n">
         <v>0.03</v>
@@ -7429,12 +7450,12 @@
         <v>58</v>
       </c>
       <c r="AK72" s="8"/>
-      <c r="AL72" s="21" t="n">
+      <c r="AL72" s="25" t="n">
         <v>501</v>
       </c>
       <c r="BD72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="n">
         <v>59</v>
       </c>
@@ -7449,10 +7470,10 @@
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>78</v>
@@ -7464,23 +7485,23 @@
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
       <c r="M73" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N73" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O73" s="13"/>
       <c r="P73" s="13"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S73" s="8"/>
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
       <c r="W73" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
@@ -7488,7 +7509,7 @@
       <c r="AA73" s="8"/>
       <c r="AB73" s="8"/>
       <c r="AC73" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD73" s="17" t="n">
         <v>0.01</v>
@@ -7504,12 +7525,12 @@
         <v>59</v>
       </c>
       <c r="AK73" s="8"/>
-      <c r="AL73" s="21" t="n">
+      <c r="AL73" s="25" t="n">
         <v>503</v>
       </c>
       <c r="BD73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="n">
         <v>60</v>
       </c>
@@ -7524,10 +7545,10 @@
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>78</v>
@@ -7539,23 +7560,23 @@
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
       <c r="M74" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S74" s="8"/>
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
       <c r="W74" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
@@ -7563,7 +7584,7 @@
       <c r="AA74" s="8"/>
       <c r="AB74" s="8"/>
       <c r="AC74" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD74" s="17" t="n">
         <v>0.01</v>
@@ -7579,12 +7600,12 @@
         <v>60</v>
       </c>
       <c r="AK74" s="8"/>
-      <c r="AL74" s="21" t="n">
+      <c r="AL74" s="25" t="n">
         <v>504</v>
       </c>
       <c r="BD74" s="0"/>
     </row>
-    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="n">
         <v>61</v>
       </c>
@@ -7599,10 +7620,10 @@
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>78</v>
@@ -7614,23 +7635,23 @@
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
       <c r="M75" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
       <c r="W75" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
@@ -7638,7 +7659,7 @@
       <c r="AA75" s="8"/>
       <c r="AB75" s="8"/>
       <c r="AC75" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD75" s="17" t="n">
         <v>0.01</v>
@@ -7654,12 +7675,12 @@
         <v>61</v>
       </c>
       <c r="AK75" s="8"/>
-      <c r="AL75" s="21" t="n">
+      <c r="AL75" s="25" t="n">
         <v>505</v>
       </c>
       <c r="BD75" s="0"/>
     </row>
-    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="n">
         <v>62</v>
       </c>
@@ -7674,10 +7695,10 @@
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>78</v>
@@ -7689,23 +7710,23 @@
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
       <c r="M76" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N76" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O76" s="13"/>
       <c r="P76" s="13"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
       <c r="W76" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
@@ -7713,7 +7734,7 @@
       <c r="AA76" s="8"/>
       <c r="AB76" s="8"/>
       <c r="AC76" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD76" s="17" t="n">
         <v>0.06</v>
@@ -7729,12 +7750,12 @@
         <v>62</v>
       </c>
       <c r="AK76" s="8"/>
-      <c r="AL76" s="21" t="n">
+      <c r="AL76" s="25" t="n">
         <v>502</v>
       </c>
       <c r="BD76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="n">
         <v>63</v>
       </c>
@@ -7748,16 +7769,16 @@
         <v>40</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="10" t="n">
@@ -7770,7 +7791,7 @@
       <c r="O77" s="13"/>
       <c r="P77" s="13"/>
       <c r="Q77" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R77" s="8"/>
       <c r="S77" s="8"/>
@@ -7801,15 +7822,15 @@
       <c r="AJ77" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="AK77" s="22" t="s">
-        <v>274</v>
+      <c r="AK77" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="AL77" s="13" t="n">
         <v>302</v>
       </c>
       <c r="BD77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="n">
         <v>64</v>
       </c>
@@ -7823,13 +7844,13 @@
         <v>40</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>78</v>
@@ -7841,10 +7862,10 @@
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
       <c r="M78" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N78" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O78" s="13"/>
       <c r="P78" s="13"/>
@@ -7852,7 +7873,7 @@
         <v>80</v>
       </c>
       <c r="R78" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
@@ -7886,7 +7907,7 @@
       </c>
       <c r="BD78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="n">
         <v>65</v>
       </c>
@@ -7900,16 +7921,16 @@
         <v>40</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="10" t="n">
@@ -7952,14 +7973,14 @@
         <v>65</v>
       </c>
       <c r="AK79" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL79" s="8" t="n">
         <v>63</v>
       </c>
       <c r="BD79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="n">
         <v>66</v>
       </c>
@@ -7973,29 +7994,29 @@
         <v>40</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
-      <c r="M80" s="23" t="s">
+      <c r="M80" s="27" t="s">
         <v>76</v>
       </c>
       <c r="N80" s="13" t="n">
         <v>5449000054227</v>
       </c>
       <c r="O80" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P80" s="13"/>
       <c r="Q80" s="8" t="s">
@@ -8024,7 +8045,7 @@
       <c r="AF80" s="8"/>
       <c r="AG80" s="8"/>
       <c r="AH80" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AI80" s="8" t="n">
         <v>4</v>
@@ -8038,7 +8059,7 @@
       </c>
       <c r="BD80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="n">
         <v>69</v>
       </c>
@@ -8052,16 +8073,16 @@
         <v>40</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="10" t="n">
@@ -8079,10 +8100,10 @@
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
-      <c r="U81" s="24"/>
+      <c r="U81" s="28"/>
       <c r="V81" s="8"/>
       <c r="W81" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
@@ -8106,14 +8127,14 @@
         <v>69</v>
       </c>
       <c r="AK81" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL81" s="13" t="n">
         <v>303</v>
       </c>
       <c r="BD81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="n">
         <v>70</v>
       </c>
@@ -8127,13 +8148,13 @@
         <v>40</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>78</v>
@@ -8145,10 +8166,10 @@
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
       <c r="M82" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N82" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O82" s="13"/>
       <c r="P82" s="13"/>
@@ -8156,14 +8177,14 @@
         <v>80</v>
       </c>
       <c r="R82" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S82" s="8"/>
       <c r="T82" s="8"/>
-      <c r="U82" s="24"/>
+      <c r="U82" s="28"/>
       <c r="V82" s="8"/>
       <c r="W82" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
@@ -8190,7 +8211,7 @@
       </c>
       <c r="BD82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="n">
         <v>71</v>
       </c>
@@ -8204,16 +8225,16 @@
         <v>40</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="10" t="n">
@@ -8231,10 +8252,10 @@
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
-      <c r="U83" s="24"/>
+      <c r="U83" s="28"/>
       <c r="V83" s="8"/>
       <c r="W83" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
@@ -8256,14 +8277,14 @@
         <v>71</v>
       </c>
       <c r="AK83" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL83" s="8" t="n">
         <v>69</v>
       </c>
       <c r="BD83" s="0"/>
     </row>
-    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="n">
         <v>72</v>
       </c>
@@ -8277,23 +8298,23 @@
         <v>40</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N84" s="13" t="n">
         <v>4607042434877</v>
@@ -8308,10 +8329,10 @@
       </c>
       <c r="S84" s="8"/>
       <c r="T84" s="8"/>
-      <c r="U84" s="24"/>
+      <c r="U84" s="28"/>
       <c r="V84" s="8"/>
       <c r="W84" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
@@ -8326,7 +8347,7 @@
       <c r="AF84" s="8"/>
       <c r="AG84" s="8"/>
       <c r="AH84" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AI84" s="8" t="n">
         <v>4</v>
@@ -8340,7 +8361,7 @@
       </c>
       <c r="BD84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="n">
         <v>73</v>
       </c>
@@ -8354,23 +8375,23 @@
         <v>40</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N85" s="13" t="n">
         <v>4607042434891</v>
@@ -8385,10 +8406,10 @@
       </c>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
-      <c r="U85" s="24"/>
+      <c r="U85" s="28"/>
       <c r="V85" s="8"/>
       <c r="W85" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
@@ -8403,7 +8424,7 @@
       <c r="AF85" s="8"/>
       <c r="AG85" s="8"/>
       <c r="AH85" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AI85" s="8" t="n">
         <v>4</v>
@@ -8417,7 +8438,7 @@
       </c>
       <c r="BD85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="n">
         <v>74</v>
       </c>
@@ -8428,19 +8449,19 @@
         <v>39</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E86" s="25" t="s">
         <v>301</v>
       </c>
+      <c r="E86" s="29" t="s">
+        <v>302</v>
+      </c>
       <c r="F86" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="10" t="n">
@@ -8461,7 +8482,7 @@
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
       <c r="W86" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
@@ -8469,7 +8490,7 @@
       <c r="AA86" s="8"/>
       <c r="AB86" s="8"/>
       <c r="AC86" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD86" s="17" t="n">
         <v>0.03</v>
@@ -8485,14 +8506,14 @@
         <v>74</v>
       </c>
       <c r="AK86" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL86" s="13" t="n">
         <v>301</v>
       </c>
       <c r="BD86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="n">
         <v>75</v>
       </c>
@@ -8503,12 +8524,12 @@
         <v>39</v>
       </c>
       <c r="D87" s="8"/>
-      <c r="E87" s="25"/>
+      <c r="E87" s="29"/>
       <c r="F87" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>78</v>
@@ -8521,27 +8542,27 @@
       <c r="L87" s="10"/>
       <c r="M87" s="8"/>
       <c r="N87" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O87" s="13"/>
       <c r="P87" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q87" s="8" t="s">
         <v>80</v>
       </c>
       <c r="R87" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S87" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
       <c r="X87" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
@@ -8567,7 +8588,7 @@
       </c>
       <c r="BD87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="n">
         <v>76</v>
       </c>
@@ -8578,15 +8599,15 @@
         <v>39</v>
       </c>
       <c r="D88" s="8"/>
-      <c r="E88" s="25"/>
+      <c r="E88" s="29"/>
       <c r="F88" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="10" t="n">
@@ -8600,7 +8621,7 @@
       <c r="P88" s="13"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S88" s="8"/>
       <c r="T88" s="8"/>
@@ -8608,7 +8629,7 @@
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
       <c r="X88" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
@@ -8621,7 +8642,7 @@
       <c r="AE88" s="8"/>
       <c r="AF88" s="8"/>
       <c r="AG88" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AH88" s="8"/>
       <c r="AI88" s="8" t="n">
@@ -8636,7 +8657,7 @@
       </c>
       <c r="BD88" s="0"/>
     </row>
-    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="n">
         <v>77</v>
       </c>
@@ -8647,12 +8668,12 @@
         <v>39</v>
       </c>
       <c r="D89" s="8"/>
-      <c r="E89" s="25"/>
+      <c r="E89" s="29"/>
       <c r="F89" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>78</v>
@@ -8663,11 +8684,11 @@
       </c>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
-      <c r="M89" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="N89" s="27" t="s">
+      <c r="M89" s="30" t="s">
         <v>321</v>
+      </c>
+      <c r="N89" s="31" t="s">
+        <v>322</v>
       </c>
       <c r="O89" s="13"/>
       <c r="P89" s="13"/>
@@ -8683,7 +8704,7 @@
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
       <c r="X89" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
@@ -8709,7 +8730,7 @@
       </c>
       <c r="BD89" s="0"/>
     </row>
-    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="n">
         <v>78</v>
       </c>
@@ -8720,15 +8741,15 @@
         <v>39</v>
       </c>
       <c r="D90" s="8"/>
-      <c r="E90" s="25"/>
+      <c r="E90" s="29"/>
       <c r="F90" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="10" t="n">
@@ -8742,7 +8763,7 @@
       <c r="P90" s="13"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
@@ -8750,7 +8771,7 @@
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
       <c r="X90" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
@@ -8763,7 +8784,7 @@
       <c r="AE90" s="8"/>
       <c r="AF90" s="8"/>
       <c r="AG90" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AH90" s="8"/>
       <c r="AI90" s="8" t="n">
@@ -8778,7 +8799,7 @@
       </c>
       <c r="BD90" s="0"/>
     </row>
-    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="n">
         <v>79</v>
       </c>
@@ -8792,16 +8813,16 @@
         <v>40</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="10"/>
@@ -8812,7 +8833,7 @@
       <c r="O91" s="13"/>
       <c r="P91" s="13"/>
       <c r="Q91" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
@@ -8826,7 +8847,7 @@
       <c r="AA91" s="8"/>
       <c r="AB91" s="8"/>
       <c r="AC91" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD91" s="17" t="n">
         <v>0.18</v>
@@ -8835,7 +8856,7 @@
       <c r="AF91" s="8"/>
       <c r="AG91" s="8"/>
       <c r="AH91" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AI91" s="8" t="n">
         <v>2</v>
@@ -8844,14 +8865,14 @@
         <v>79</v>
       </c>
       <c r="AK91" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL91" s="8" t="n">
         <v>311</v>
       </c>
       <c r="BD91" s="0"/>
     </row>
-    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="n">
         <v>80</v>
       </c>
@@ -8865,16 +8886,16 @@
         <v>40</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="10" t="n">
@@ -8885,27 +8906,27 @@
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N92" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O92" s="13"/>
       <c r="P92" s="13"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
       <c r="W92" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X92" s="8"/>
       <c r="Y92" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8"/>
@@ -8917,10 +8938,10 @@
       <c r="AE92" s="8"/>
       <c r="AF92" s="8"/>
       <c r="AG92" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AH92" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AI92" s="8" t="n">
         <v>3</v>
@@ -8934,7 +8955,7 @@
       </c>
       <c r="BD92" s="0"/>
     </row>
-    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="n">
         <v>81</v>
       </c>
@@ -8948,16 +8969,16 @@
         <v>40</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="10" t="n">
@@ -8968,26 +8989,26 @@
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N93" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O93" s="13"/>
       <c r="P93" s="13"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
       <c r="W93" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X93" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
@@ -9000,10 +9021,10 @@
       <c r="AE93" s="8"/>
       <c r="AF93" s="8"/>
       <c r="AG93" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AH93" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AI93" s="8" t="n">
         <v>3</v>
@@ -9017,7 +9038,7 @@
       </c>
       <c r="BD93" s="0"/>
     </row>
-    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="n">
         <v>82</v>
       </c>
@@ -9031,16 +9052,16 @@
         <v>40</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="10" t="n">
@@ -9049,23 +9070,23 @@
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
       <c r="M94" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N94" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O94" s="13"/>
       <c r="P94" s="13"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
       <c r="U94" s="8"/>
       <c r="V94" s="8"/>
       <c r="W94" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X94" s="8"/>
       <c r="Y94" s="8"/>
@@ -9092,7 +9113,7 @@
       </c>
       <c r="BD94" s="0"/>
     </row>
-    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="n">
         <v>83</v>
       </c>
@@ -9106,16 +9127,16 @@
         <v>40</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="10" t="n">
@@ -9125,23 +9146,23 @@
       <c r="L95" s="10"/>
       <c r="M95" s="8"/>
       <c r="N95" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O95" s="13"/>
       <c r="P95" s="13"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
       <c r="W95" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="X95" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="X95" s="8" t="s">
-        <v>353</v>
       </c>
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
@@ -9156,10 +9177,10 @@
       <c r="AE95" s="8"/>
       <c r="AF95" s="8"/>
       <c r="AG95" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH95" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI95" s="8" t="n">
         <v>2</v>
@@ -9168,12 +9189,12 @@
         <v>83</v>
       </c>
       <c r="AK95" s="8"/>
-      <c r="AL95" s="28" t="n">
+      <c r="AL95" s="32" t="n">
         <v>312</v>
       </c>
       <c r="BD95" s="0"/>
     </row>
-    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="n">
         <v>84</v>
       </c>
@@ -9187,16 +9208,16 @@
         <v>40</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="H96" s="29" t="s">
         <v>358</v>
+      </c>
+      <c r="H96" s="33" t="s">
+        <v>359</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="10"/>
@@ -9207,27 +9228,27 @@
         <v>15</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N96" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O96" s="13"/>
       <c r="P96" s="13"/>
       <c r="Q96" s="8"/>
-      <c r="R96" s="30" t="s">
-        <v>339</v>
+      <c r="R96" s="34" t="s">
+        <v>340</v>
       </c>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
       <c r="W96" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X96" s="8"/>
       <c r="Y96" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z96" s="8"/>
       <c r="AA96" s="8"/>
@@ -9241,10 +9262,10 @@
       <c r="AE96" s="8"/>
       <c r="AF96" s="8"/>
       <c r="AG96" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH96" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI96" s="8" t="n">
         <v>2</v>
@@ -9253,12 +9274,12 @@
         <v>84</v>
       </c>
       <c r="AK96" s="8"/>
-      <c r="AL96" s="28" t="n">
+      <c r="AL96" s="32" t="n">
         <v>312</v>
       </c>
       <c r="BD96" s="0"/>
     </row>
-    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="n">
         <v>85</v>
       </c>
@@ -9272,13 +9293,13 @@
         <v>40</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>74</v>
@@ -9292,7 +9313,7 @@
       <c r="O97" s="13"/>
       <c r="P97" s="13"/>
       <c r="Q97" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R97" s="8"/>
       <c r="S97" s="8"/>
@@ -9300,7 +9321,7 @@
       <c r="U97" s="8"/>
       <c r="V97" s="8"/>
       <c r="W97" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X97" s="8"/>
       <c r="Y97" s="8"/>
@@ -9308,7 +9329,7 @@
       <c r="AA97" s="8"/>
       <c r="AB97" s="8"/>
       <c r="AC97" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD97" s="17" t="n">
         <v>0.03</v>
@@ -9316,10 +9337,10 @@
       <c r="AE97" s="8"/>
       <c r="AF97" s="8"/>
       <c r="AG97" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH97" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI97" s="8" t="n">
         <v>2</v>
@@ -9327,15 +9348,15 @@
       <c r="AJ97" s="8" t="n">
         <v>85</v>
       </c>
-      <c r="AK97" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="AL97" s="28" t="n">
+      <c r="AK97" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="AL97" s="32" t="n">
         <v>312</v>
       </c>
       <c r="BD97" s="0"/>
     </row>
-    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="n">
         <v>87</v>
       </c>
@@ -9350,13 +9371,13 @@
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="10" t="n">
@@ -9365,30 +9386,30 @@
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N98" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O98" s="13"/>
       <c r="P98" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q98" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R98" s="21" t="s">
-        <v>309</v>
+      <c r="R98" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
       <c r="V98" s="8"/>
       <c r="W98" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X98" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
@@ -9401,10 +9422,10 @@
       <c r="AE98" s="8"/>
       <c r="AF98" s="8"/>
       <c r="AG98" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH98" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI98" s="8" t="n">
         <v>3</v>
@@ -9418,7 +9439,7 @@
       </c>
       <c r="BD98" s="0"/>
     </row>
-    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="8" t="n">
         <v>88</v>
       </c>
@@ -9433,13 +9454,13 @@
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="10" t="n">
@@ -9452,7 +9473,7 @@
       <c r="O99" s="13"/>
       <c r="P99" s="13"/>
       <c r="Q99" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R99" s="8"/>
       <c r="S99" s="8"/>
@@ -9460,7 +9481,7 @@
       <c r="U99" s="8"/>
       <c r="V99" s="8"/>
       <c r="W99" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X99" s="8"/>
       <c r="Y99" s="8"/>
@@ -9474,10 +9495,10 @@
       <c r="AE99" s="8"/>
       <c r="AF99" s="8"/>
       <c r="AG99" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH99" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI99" s="8" t="n">
         <v>3</v>
@@ -9485,15 +9506,15 @@
       <c r="AJ99" s="8" t="n">
         <v>88</v>
       </c>
-      <c r="AK99" s="22" t="s">
-        <v>370</v>
+      <c r="AK99" s="26" t="s">
+        <v>371</v>
       </c>
       <c r="AL99" s="8" t="n">
         <v>85</v>
       </c>
       <c r="BD99" s="0"/>
     </row>
-    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="n">
         <v>89</v>
       </c>
@@ -9508,10 +9529,10 @@
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="G100" s="26" t="s">
         <v>372</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>373</v>
       </c>
       <c r="H100" s="8" t="s">
         <v>78</v>
@@ -9521,38 +9542,38 @@
         <v>4</v>
       </c>
       <c r="K100" s="10"/>
-      <c r="L100" s="31"/>
-      <c r="M100" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="N100" s="27" t="s">
+      <c r="L100" s="35"/>
+      <c r="M100" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="O100" s="27"/>
-      <c r="P100" s="27" t="s">
-        <v>374</v>
+      <c r="N100" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="O100" s="31"/>
+      <c r="P100" s="31" t="s">
+        <v>375</v>
       </c>
       <c r="Q100" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R100" s="21" t="s">
-        <v>309</v>
+      <c r="R100" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="S100" s="8"/>
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
       <c r="V100" s="8"/>
       <c r="W100" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X100" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
       <c r="AA100" s="8"/>
       <c r="AB100" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AC100" s="8" t="s">
         <v>84</v>
@@ -9561,10 +9582,10 @@
       <c r="AE100" s="8"/>
       <c r="AF100" s="8"/>
       <c r="AG100" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH100" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI100" s="8" t="n">
         <v>4</v>
@@ -9578,7 +9599,7 @@
       </c>
       <c r="BD100" s="0"/>
     </row>
-    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="n">
         <v>90</v>
       </c>
@@ -9593,10 +9614,10 @@
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="G101" s="26" t="s">
         <v>378</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>379</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>78</v>
@@ -9607,37 +9628,37 @@
       </c>
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
-      <c r="M101" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="N101" s="27" t="s">
+      <c r="M101" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="O101" s="27"/>
-      <c r="P101" s="27" t="s">
-        <v>366</v>
+      <c r="N101" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="O101" s="31"/>
+      <c r="P101" s="31" t="s">
+        <v>367</v>
       </c>
       <c r="Q101" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R101" s="21" t="s">
-        <v>309</v>
+      <c r="R101" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
       <c r="V101" s="8"/>
       <c r="W101" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X101" s="15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
       <c r="AA101" s="8"/>
       <c r="AB101" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AC101" s="8" t="s">
         <v>84</v>
@@ -9646,10 +9667,10 @@
       <c r="AE101" s="8"/>
       <c r="AF101" s="8"/>
       <c r="AG101" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH101" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI101" s="8" t="n">
         <v>4</v>
@@ -9663,7 +9684,7 @@
       </c>
       <c r="BD101" s="0"/>
     </row>
-    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="n">
         <v>91</v>
       </c>
@@ -9678,13 +9699,13 @@
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="H102" s="29" t="s">
         <v>382</v>
+      </c>
+      <c r="H102" s="33" t="s">
+        <v>383</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="10" t="n">
@@ -9693,28 +9714,28 @@
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N102" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O102" s="13"/>
       <c r="P102" s="13"/>
       <c r="Q102" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R102" s="30" t="s">
-        <v>339</v>
+      <c r="R102" s="34" t="s">
+        <v>340</v>
       </c>
       <c r="S102" s="8"/>
       <c r="T102" s="8"/>
       <c r="U102" s="8"/>
       <c r="V102" s="8"/>
       <c r="W102" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X102" s="15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
@@ -9727,10 +9748,10 @@
       <c r="AE102" s="8"/>
       <c r="AF102" s="8"/>
       <c r="AG102" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH102" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI102" s="8" t="n">
         <v>3</v>
@@ -9744,7 +9765,7 @@
       </c>
       <c r="BD102" s="0"/>
     </row>
-    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="n">
         <v>92</v>
       </c>
@@ -9758,16 +9779,16 @@
         <v>40</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="10"/>
@@ -9775,20 +9796,20 @@
       <c r="L103" s="10"/>
       <c r="M103" s="8"/>
       <c r="N103" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O103" s="13"/>
       <c r="P103" s="13"/>
       <c r="Q103" s="8"/>
       <c r="R103" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S103" s="8"/>
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
       <c r="W103" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X103" s="8"/>
       <c r="Y103" s="8"/>
@@ -9796,7 +9817,7 @@
       <c r="AA103" s="8"/>
       <c r="AB103" s="8"/>
       <c r="AC103" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD103" s="17" t="n">
         <v>0.03</v>
@@ -9804,10 +9825,10 @@
       <c r="AE103" s="8"/>
       <c r="AF103" s="8"/>
       <c r="AG103" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH103" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI103" s="8" t="n">
         <v>2</v>
@@ -9816,12 +9837,12 @@
         <v>92</v>
       </c>
       <c r="AK103" s="8"/>
-      <c r="AL103" s="28" t="n">
+      <c r="AL103" s="32" t="n">
         <v>312</v>
       </c>
       <c r="BD103" s="0"/>
     </row>
-    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="n">
         <v>93</v>
       </c>
@@ -9832,39 +9853,39 @@
         <v>39</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E104" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="F104" s="25" t="s">
+      <c r="E104" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="G104" s="25" t="s">
+      <c r="F104" s="29" t="s">
         <v>389</v>
       </c>
+      <c r="G104" s="29" t="s">
+        <v>390</v>
+      </c>
       <c r="H104" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
       <c r="M104" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N104" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O104" s="13"/>
       <c r="P104" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q104" s="8"/>
       <c r="R104" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S104" s="8"/>
       <c r="T104" s="8"/>
@@ -9887,12 +9908,12 @@
         <v>93</v>
       </c>
       <c r="AK104" s="15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL104" s="8"/>
       <c r="BD104" s="0"/>
     </row>
-    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="n">
         <v>94</v>
       </c>
@@ -9903,35 +9924,35 @@
         <v>39</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="F105" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E105" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="G105" s="25" t="s">
+      <c r="F105" s="29" t="s">
         <v>396</v>
       </c>
+      <c r="G105" s="29" t="s">
+        <v>397</v>
+      </c>
       <c r="H105" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
       <c r="M105" s="8"/>
-      <c r="N105" s="26" t="s">
-        <v>311</v>
+      <c r="N105" s="30" t="s">
+        <v>312</v>
       </c>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S105" s="8"/>
       <c r="T105" s="8"/>
@@ -9959,7 +9980,7 @@
       <c r="AL105" s="8"/>
       <c r="BD105" s="0"/>
     </row>
-    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="n">
         <v>95</v>
       </c>
@@ -9970,35 +9991,35 @@
         <v>39</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="F106" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E106" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="G106" s="25" t="s">
+      <c r="F106" s="29" t="s">
         <v>396</v>
       </c>
+      <c r="G106" s="29" t="s">
+        <v>397</v>
+      </c>
       <c r="H106" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
       <c r="M106" s="8"/>
-      <c r="N106" s="26" t="s">
-        <v>316</v>
+      <c r="N106" s="30" t="s">
+        <v>317</v>
       </c>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
       <c r="R106" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S106" s="8"/>
       <c r="T106" s="8"/>
@@ -10026,7 +10047,7 @@
       <c r="AL106" s="8"/>
       <c r="BD106" s="0"/>
     </row>
-    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="n">
         <v>96</v>
       </c>
@@ -10037,35 +10058,35 @@
         <v>39</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E107" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="F107" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E107" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="G107" s="25" t="s">
+      <c r="F107" s="29" t="s">
         <v>396</v>
       </c>
+      <c r="G107" s="29" t="s">
+        <v>397</v>
+      </c>
       <c r="H107" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
       <c r="M107" s="8"/>
-      <c r="N107" s="26" t="s">
-        <v>322</v>
+      <c r="N107" s="30" t="s">
+        <v>323</v>
       </c>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
       <c r="R107" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
@@ -10093,7 +10114,7 @@
       <c r="AL107" s="8"/>
       <c r="BD107" s="0"/>
     </row>
-    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="n">
         <v>97</v>
       </c>
@@ -10104,35 +10125,35 @@
         <v>39</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="F108" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E108" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="G108" s="25" t="s">
+      <c r="F108" s="29" t="s">
         <v>396</v>
       </c>
+      <c r="G108" s="29" t="s">
+        <v>397</v>
+      </c>
       <c r="H108" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
       <c r="M108" s="8"/>
-      <c r="N108" s="26" t="s">
-        <v>325</v>
+      <c r="N108" s="30" t="s">
+        <v>326</v>
       </c>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
@@ -10160,7 +10181,7 @@
       <c r="AL108" s="8"/>
       <c r="BD108" s="0"/>
     </row>
-    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="n">
         <v>98</v>
       </c>
@@ -10171,45 +10192,45 @@
         <v>39</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E109" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="F109" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E109" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="G109" s="25" t="s">
+      <c r="F109" s="29" t="s">
         <v>401</v>
       </c>
+      <c r="G109" s="29" t="s">
+        <v>402</v>
+      </c>
       <c r="H109" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
       <c r="M109" s="8"/>
       <c r="N109" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
       <c r="R109" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S109" s="8"/>
       <c r="T109" s="8"/>
       <c r="U109" s="8"/>
       <c r="V109" s="8"/>
       <c r="W109" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X109" s="15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y109" s="8"/>
       <c r="Z109" s="8"/>
@@ -10227,9 +10248,9 @@
       </c>
       <c r="AK109" s="8"/>
       <c r="AL109" s="8"/>
-      <c r="BD109" s="32"/>
-    </row>
-    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BD109" s="36"/>
+    </row>
+    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="n">
         <v>99</v>
       </c>
@@ -10240,35 +10261,35 @@
         <v>39</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F110" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E110" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="G110" s="25" t="s">
+      <c r="F110" s="29" t="s">
         <v>408</v>
       </c>
+      <c r="G110" s="29" t="s">
+        <v>409</v>
+      </c>
       <c r="H110" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
       <c r="M110" s="8"/>
       <c r="N110" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
       <c r="R110" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S110" s="8"/>
       <c r="T110" s="8"/>
@@ -10276,7 +10297,7 @@
       <c r="V110" s="8"/>
       <c r="W110" s="8"/>
       <c r="X110" s="15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Y110" s="8"/>
       <c r="Z110" s="8"/>
@@ -10295,7 +10316,7 @@
       <c r="AK110" s="8"/>
       <c r="AL110" s="8"/>
     </row>
-    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="n">
         <v>100</v>
       </c>
@@ -10306,35 +10327,35 @@
         <v>39</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="F111" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E111" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="G111" s="25" t="s">
+      <c r="F111" s="29" t="s">
         <v>414</v>
       </c>
+      <c r="G111" s="29" t="s">
+        <v>415</v>
+      </c>
       <c r="H111" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J111" s="10"/>
       <c r="K111" s="10"/>
       <c r="L111" s="10"/>
       <c r="M111" s="8"/>
       <c r="N111" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
       <c r="R111" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S111" s="8"/>
       <c r="T111" s="8"/>
@@ -10342,7 +10363,7 @@
       <c r="V111" s="8"/>
       <c r="W111" s="8"/>
       <c r="X111" s="15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
@@ -10361,7 +10382,7 @@
       <c r="AK111" s="8"/>
       <c r="AL111" s="8"/>
     </row>
-    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="n">
         <v>101</v>
       </c>
@@ -10372,35 +10393,35 @@
         <v>39</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="F112" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E112" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="G112" s="25" t="s">
+      <c r="F112" s="29" t="s">
         <v>418</v>
       </c>
+      <c r="G112" s="29" t="s">
+        <v>419</v>
+      </c>
       <c r="H112" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
       <c r="L112" s="10"/>
       <c r="M112" s="8"/>
       <c r="N112" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
       <c r="R112" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S112" s="8"/>
       <c r="T112" s="8"/>
@@ -10408,7 +10429,7 @@
       <c r="V112" s="8"/>
       <c r="W112" s="8"/>
       <c r="X112" s="15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Y112" s="8"/>
       <c r="Z112" s="8"/>
@@ -10427,7 +10448,7 @@
       <c r="AK112" s="8"/>
       <c r="AL112" s="8"/>
     </row>
-    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="n">
         <v>102</v>
       </c>
@@ -10438,37 +10459,37 @@
         <v>39</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E113" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="F113" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E113" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="G113" s="25" t="s">
+      <c r="F113" s="29" t="s">
         <v>422</v>
       </c>
+      <c r="G113" s="29" t="s">
+        <v>423</v>
+      </c>
       <c r="H113" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
       <c r="L113" s="10"/>
       <c r="M113" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N113" s="15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
       <c r="R113" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S113" s="8"/>
       <c r="T113" s="8"/>
@@ -10490,12 +10511,12 @@
       <c r="AJ113" s="8" t="n">
         <v>102</v>
       </c>
-      <c r="AK113" s="21" t="n">
+      <c r="AK113" s="25" t="n">
         <v>64</v>
       </c>
       <c r="AL113" s="8"/>
     </row>
-    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="n">
         <v>103</v>
       </c>
@@ -10506,37 +10527,37 @@
         <v>39</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="F114" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E114" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="G114" s="25" t="s">
+      <c r="F114" s="29" t="s">
         <v>422</v>
       </c>
+      <c r="G114" s="29" t="s">
+        <v>423</v>
+      </c>
       <c r="H114" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
       <c r="L114" s="10"/>
       <c r="M114" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N114" s="15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S114" s="8"/>
       <c r="T114" s="8"/>
@@ -10558,12 +10579,12 @@
       <c r="AJ114" s="8" t="n">
         <v>103</v>
       </c>
-      <c r="AK114" s="21" t="n">
+      <c r="AK114" s="25" t="n">
         <v>69</v>
       </c>
       <c r="AL114" s="8"/>
     </row>
-    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="8" t="n">
         <v>104</v>
       </c>
@@ -10574,37 +10595,37 @@
         <v>39</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E115" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="F115" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E115" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="G115" s="25" t="s">
+      <c r="F115" s="29" t="s">
         <v>422</v>
       </c>
+      <c r="G115" s="29" t="s">
+        <v>423</v>
+      </c>
       <c r="H115" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
       <c r="L115" s="10"/>
       <c r="M115" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="N115" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="N115" s="37" t="s">
+        <v>426</v>
       </c>
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S115" s="8"/>
       <c r="T115" s="8"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="430">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1446,6 +1447,15 @@
   <si>
     <t xml:space="preserve">OTG
 No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1851,54 +1861,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BD115"/>
+  <dimension ref="A1:BD116"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="A116" activeCellId="0" sqref="116:116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.9838056680162"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="117.51012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="73.2712550607288"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="118.578947368421"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="73.8056680161943"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="49.5951417004049"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="86.0161943319838"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="86.7651821862348"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1023" min="39" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -10650,6 +10660,66 @@
       <c r="AK115" s="8"/>
       <c r="AL115" s="8"/>
     </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="8" t="n">
+        <v>521</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="G116" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="37"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8"/>
+      <c r="X116" s="8"/>
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
+      <c r="AB116" s="8"/>
+      <c r="AC116" s="8"/>
+      <c r="AD116" s="11"/>
+      <c r="AE116" s="8"/>
+      <c r="AF116" s="8"/>
+      <c r="AG116" s="8"/>
+      <c r="AH116" s="8"/>
+      <c r="AI116" s="8"/>
+      <c r="AJ116" s="8" t="n">
+        <v>521</v>
+      </c>
+      <c r="AK116" s="8"/>
+      <c r="AL116" s="8"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AL115"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="443">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -289,15 +289,18 @@
 24</t>
   </si>
   <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coca-Cola - 1L</t>
   </si>
   <si>
-    <t xml:space="preserve">Кока-Кола - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
     <t xml:space="preserve">5449000054227, 5449000228970</t>
   </si>
   <si>
@@ -334,21 +337,27 @@
     <t xml:space="preserve">5449000008046</t>
   </si>
   <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 1л</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fanta Orange - 1L</t>
   </si>
   <si>
-    <t xml:space="preserve">Фанта Апельсин - 1л</t>
-  </si>
-  <si>
     <t xml:space="preserve">5449000006271, 5449000228963</t>
   </si>
   <si>
+    <t xml:space="preserve">Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 1л</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sprite - 1L</t>
   </si>
   <si>
-    <t xml:space="preserve">Спрайт - 1л</t>
-  </si>
-  <si>
     <t xml:space="preserve">5449000050939, 5449000228956</t>
   </si>
   <si>
@@ -424,10 +433,13 @@
     <t xml:space="preserve">5449000020987</t>
   </si>
   <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 1л</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coca-Cola Zero - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 1л</t>
   </si>
   <si>
     <t xml:space="preserve">5449000133328, 5449000231659</t>
@@ -1064,7 +1076,7 @@
     <t xml:space="preserve">Dobry 0.2_Zone</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculated only if Promo Displays Dobry 0.2 is passed</t>
+    <t xml:space="preserve">Calculate only if passed KPI Cashier Displays Dobry 0.2</t>
   </si>
   <si>
     <t xml:space="preserve">Cashier Displays Entry Pack</t>
@@ -1091,7 +1103,7 @@
     <t xml:space="preserve">Entry_PacK_ Zone</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculated only if Promo Displays Entry Pack Zone is passed </t>
+    <t xml:space="preserve">Calculate only if passed KPI Cashier Displays Entry Pack</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 22</t>
@@ -1533,7 +1545,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1548,50 +1560,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFF8CBAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFF8CBAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFF4B183"/>
       </patternFill>
     </fill>
   </fills>
@@ -1676,13 +1646,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1733,27 +1703,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1765,51 +1719,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1821,19 +1743,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1845,11 +1755,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1863,14 +1769,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1887,66 +1785,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF3300"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFF4B183"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF8CBAD"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1957,22 +1795,26 @@
   </sheetPr>
   <dimension ref="A1:BE115"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O108" activeCellId="0" sqref="O108"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK101" activeCellId="0" sqref="AK101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.2874493927125"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="1" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.9797570850202"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="33" min="16" style="1" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="35.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="1" width="8.81376518218623"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2090,7 +1932,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="78.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>174</v>
       </c>
@@ -2151,7 +1993,7 @@
       </c>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>175</v>
       </c>
@@ -2212,7 +2054,7 @@
       </c>
       <c r="AM3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>176</v>
       </c>
@@ -2275,7 +2117,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>177</v>
       </c>
@@ -2338,7 +2180,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>178</v>
       </c>
@@ -2399,7 +2241,7 @@
       </c>
       <c r="AM6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>179</v>
       </c>
@@ -2462,7 +2304,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>180</v>
       </c>
@@ -2525,7 +2367,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>182</v>
       </c>
@@ -2588,7 +2430,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>183</v>
       </c>
@@ -2651,7 +2493,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>184</v>
       </c>
@@ -2714,7 +2556,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>185</v>
       </c>
@@ -2777,7 +2619,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>186</v>
       </c>
@@ -2840,7 +2682,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="53.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>188</v>
       </c>
@@ -2901,7 +2743,7 @@
       </c>
       <c r="AM14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="297.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>1</v>
       </c>
@@ -2968,7 +2810,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>2</v>
       </c>
@@ -2985,7 +2827,7 @@
         <v>72</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="14" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -3001,37 +2843,37 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O16" s="14" t="s">
         <v>80</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE16" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE16" s="9" t="n">
         <v>0.01793</v>
       </c>
       <c r="AF16" s="6"/>
@@ -3049,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>3</v>
       </c>
@@ -3067,10 +2909,10 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>79</v>
@@ -3082,37 +2924,37 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE17" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE17" s="9" t="n">
         <v>0.01793</v>
       </c>
       <c r="AF17" s="6"/>
@@ -3130,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>4</v>
       </c>
@@ -3148,10 +2990,10 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>79</v>
@@ -3163,37 +3005,37 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE18" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE18" s="9" t="n">
         <v>0.01793</v>
       </c>
       <c r="AF18" s="6"/>
@@ -3211,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>5</v>
       </c>
@@ -3228,11 +3070,11 @@
         <v>72</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>92</v>
+      <c r="G19" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>79</v>
@@ -3244,37 +3086,37 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE19" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE19" s="9" t="n">
         <v>0.01793</v>
       </c>
       <c r="AF19" s="6"/>
@@ -3292,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>6</v>
       </c>
@@ -3309,11 +3151,11 @@
         <v>72</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>95</v>
+      <c r="G20" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>79</v>
@@ -3325,37 +3167,37 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE20" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE20" s="9" t="n">
         <v>0.01793</v>
       </c>
       <c r="AF20" s="6"/>
@@ -3373,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>7</v>
       </c>
@@ -3391,10 +3233,10 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>79</v>
@@ -3406,37 +3248,37 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE21" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE21" s="9" t="n">
         <v>0.01793</v>
       </c>
       <c r="AF21" s="6"/>
@@ -3454,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>8</v>
       </c>
@@ -3472,10 +3314,10 @@
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>79</v>
@@ -3487,37 +3329,37 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE22" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE22" s="9" t="n">
         <v>0.01793</v>
       </c>
       <c r="AF22" s="6"/>
@@ -3535,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>9</v>
       </c>
@@ -3553,10 +3395,10 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>79</v>
@@ -3568,37 +3410,37 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE23" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE23" s="9" t="n">
         <v>0.01793</v>
       </c>
       <c r="AF23" s="6"/>
@@ -3616,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>10</v>
       </c>
@@ -3634,10 +3476,10 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>79</v>
@@ -3649,37 +3491,37 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE24" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE24" s="9" t="n">
         <v>0.006507</v>
       </c>
       <c r="AF24" s="6"/>
@@ -3697,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>11</v>
       </c>
@@ -3715,10 +3557,10 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>79</v>
@@ -3730,37 +3572,37 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE25" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE25" s="9" t="n">
         <v>0.006507</v>
       </c>
       <c r="AF25" s="6"/>
@@ -3778,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>12</v>
       </c>
@@ -3794,56 +3636,56 @@
       <c r="E26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="17" t="s">
+      <c r="F26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18" t="n">
+      <c r="J26" s="6"/>
+      <c r="K26" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="O26" s="19" t="n">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O26" s="11" t="n">
         <v>5449000213631</v>
       </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE26" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE26" s="9" t="n">
         <v>0.006507</v>
       </c>
       <c r="AF26" s="6"/>
@@ -3861,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>13</v>
       </c>
@@ -3879,10 +3721,10 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>79</v>
@@ -3894,37 +3736,37 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE27" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE27" s="9" t="n">
         <v>0.006507</v>
       </c>
       <c r="AF27" s="6"/>
@@ -3942,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>14</v>
       </c>
@@ -3960,10 +3802,10 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>79</v>
@@ -3975,37 +3817,37 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE28" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE28" s="9" t="n">
         <v>0.006507</v>
       </c>
       <c r="AF28" s="6"/>
@@ -4023,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>15</v>
       </c>
@@ -4040,11 +3882,11 @@
         <v>72</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
-        <v>122</v>
+      <c r="G29" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>79</v>
@@ -4056,37 +3898,37 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>124</v>
+        <v>127</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE29" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE29" s="9" t="n">
         <v>0.006507</v>
       </c>
       <c r="AF29" s="6"/>
@@ -4104,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>16</v>
       </c>
@@ -4122,10 +3964,10 @@
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>79</v>
@@ -4137,37 +3979,37 @@
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE30" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE30" s="9" t="n">
         <v>0.006507</v>
       </c>
       <c r="AF30" s="6"/>
@@ -4185,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>17</v>
       </c>
@@ -4203,10 +4045,10 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>79</v>
@@ -4218,37 +4060,37 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE31" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE31" s="9" t="n">
         <v>0.006507</v>
       </c>
       <c r="AF31" s="6"/>
@@ -4266,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>18</v>
       </c>
@@ -4284,10 +4126,10 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>79</v>
@@ -4299,37 +4141,37 @@
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE32" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE32" s="9" t="n">
         <v>0.006507</v>
       </c>
       <c r="AF32" s="6"/>
@@ -4347,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>19</v>
       </c>
@@ -4365,10 +4207,10 @@
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>79</v>
@@ -4380,37 +4222,37 @@
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
       <c r="AD33" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE33" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE33" s="9" t="n">
         <v>0.006507</v>
       </c>
       <c r="AF33" s="6"/>
@@ -4428,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>20</v>
       </c>
@@ -4446,10 +4288,10 @@
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>79</v>
@@ -4461,37 +4303,37 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE34" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE34" s="9" t="n">
         <v>0.006507</v>
       </c>
       <c r="AF34" s="6"/>
@@ -4509,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>21</v>
       </c>
@@ -4527,10 +4369,10 @@
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>79</v>
@@ -4542,37 +4384,37 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE35" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE35" s="9" t="n">
         <v>0.006507</v>
       </c>
       <c r="AF35" s="6"/>
@@ -4590,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>22</v>
       </c>
@@ -4608,10 +4450,10 @@
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>79</v>
@@ -4623,37 +4465,37 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE36" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE36" s="9" t="n">
         <v>0.006507</v>
       </c>
       <c r="AF36" s="6"/>
@@ -4671,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>23</v>
       </c>
@@ -4689,10 +4531,10 @@
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>79</v>
@@ -4704,37 +4546,37 @@
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE37" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE37" s="9" t="n">
         <v>0.006483</v>
       </c>
       <c r="AF37" s="6"/>
@@ -4752,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>24</v>
       </c>
@@ -4770,10 +4612,10 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>79</v>
@@ -4785,37 +4627,37 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="O38" s="14" t="n">
+        <v>154</v>
+      </c>
+      <c r="O38" s="15" t="n">
         <v>5449000046390</v>
       </c>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE38" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE38" s="9" t="n">
         <v>0.006483</v>
       </c>
       <c r="AF38" s="6"/>
@@ -4833,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="91.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>25</v>
       </c>
@@ -4847,14 +4689,14 @@
         <v>41</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>75</v>
@@ -4894,13 +4736,13 @@
         <v>25</v>
       </c>
       <c r="AL39" s="13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AM39" s="6" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>26</v>
       </c>
@@ -4914,14 +4756,14 @@
         <v>41</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>79</v>
@@ -4933,37 +4775,37 @@
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE40" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE40" s="9" t="n">
         <v>0.014349</v>
       </c>
       <c r="AF40" s="6"/>
@@ -4981,7 +4823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>27</v>
       </c>
@@ -4995,14 +4837,14 @@
         <v>41</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>79</v>
@@ -5014,37 +4856,37 @@
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="O41" s="14" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE41" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE41" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF41" s="6"/>
@@ -5062,7 +4904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>28</v>
       </c>
@@ -5076,14 +4918,14 @@
         <v>41</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>79</v>
@@ -5095,37 +4937,37 @@
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="O42" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE42" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE42" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF42" s="6"/>
@@ -5143,7 +4985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>29</v>
       </c>
@@ -5157,14 +4999,14 @@
         <v>41</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>79</v>
@@ -5176,37 +5018,37 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="O43" s="14" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE43" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE43" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF43" s="6"/>
@@ -5224,7 +5066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>30</v>
       </c>
@@ -5238,14 +5080,14 @@
         <v>41</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>79</v>
@@ -5257,37 +5099,37 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE44" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE44" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF44" s="6"/>
@@ -5305,7 +5147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>31</v>
       </c>
@@ -5319,14 +5161,14 @@
         <v>41</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>79</v>
@@ -5338,37 +5180,37 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE45" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE45" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF45" s="6"/>
@@ -5386,7 +5228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>32</v>
       </c>
@@ -5400,14 +5242,14 @@
         <v>41</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>75</v>
@@ -5447,13 +5289,13 @@
         <v>32</v>
       </c>
       <c r="AL46" s="13" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AM46" s="6" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>33</v>
       </c>
@@ -5467,14 +5309,14 @@
         <v>41</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>79</v>
@@ -5486,37 +5328,37 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="O47" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="O47" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
       <c r="AD47" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE47" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE47" s="9" t="n">
         <v>0.014349</v>
       </c>
       <c r="AF47" s="6"/>
@@ -5534,7 +5376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>34</v>
       </c>
@@ -5548,14 +5390,14 @@
         <v>41</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>79</v>
@@ -5567,37 +5409,37 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="O48" s="14" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE48" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE48" s="9" t="n">
         <v>0.014349</v>
       </c>
       <c r="AF48" s="6"/>
@@ -5615,7 +5457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>35</v>
       </c>
@@ -5629,14 +5471,14 @@
         <v>41</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>79</v>
@@ -5648,37 +5490,37 @@
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="O49" s="14" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
       <c r="AD49" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE49" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE49" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF49" s="6"/>
@@ -5696,7 +5538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>36</v>
       </c>
@@ -5710,14 +5552,14 @@
         <v>41</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>79</v>
@@ -5729,37 +5571,37 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="O50" s="14" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="O50" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE50" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE50" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF50" s="6"/>
@@ -5777,7 +5619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>37</v>
       </c>
@@ -5791,14 +5633,14 @@
         <v>41</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>190</v>
+        <v>193</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>79</v>
@@ -5810,7 +5652,7 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O51" s="11" t="n">
         <v>5449000148056</v>
@@ -5818,29 +5660,29 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE51" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE51" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF51" s="6"/>
@@ -5858,7 +5700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="78.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>38</v>
       </c>
@@ -5872,14 +5714,14 @@
         <v>41</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>75</v>
@@ -5919,13 +5761,13 @@
         <v>38</v>
       </c>
       <c r="AL52" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AM52" s="6" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>39</v>
       </c>
@@ -5939,14 +5781,14 @@
         <v>41</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>79</v>
@@ -5958,37 +5800,37 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O53" s="14" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="O53" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
       <c r="W53" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE53" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE53" s="9" t="n">
         <v>0.014321</v>
       </c>
       <c r="AF53" s="6"/>
@@ -6006,7 +5848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>40</v>
       </c>
@@ -6020,14 +5862,14 @@
         <v>41</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>79</v>
@@ -6039,37 +5881,37 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="O54" s="21" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="O54" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
       <c r="AD54" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE54" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE54" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF54" s="6"/>
@@ -6087,7 +5929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>41</v>
       </c>
@@ -6101,14 +5943,14 @@
         <v>41</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>79</v>
@@ -6120,37 +5962,37 @@
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O55" s="21" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="O55" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
       <c r="W55" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
       <c r="Z55" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
       <c r="AC55" s="6"/>
       <c r="AD55" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE55" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE55" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF55" s="6"/>
@@ -6168,7 +6010,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>42</v>
       </c>
@@ -6182,14 +6024,14 @@
         <v>41</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>79</v>
@@ -6201,37 +6043,37 @@
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="O56" s="14" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="O56" s="15" t="s">
+        <v>209</v>
       </c>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
       <c r="W56" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE56" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE56" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF56" s="6"/>
@@ -6249,7 +6091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>43</v>
       </c>
@@ -6263,14 +6105,14 @@
         <v>41</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>79</v>
@@ -6282,37 +6124,37 @@
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="N57" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="O57" s="21" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
       <c r="W57" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
       <c r="AC57" s="6"/>
       <c r="AD57" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE57" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE57" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF57" s="6"/>
@@ -6330,7 +6172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>44</v>
       </c>
@@ -6344,56 +6186,56 @@
         <v>41</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F58" s="6"/>
-      <c r="G58" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="I58" s="24" t="s">
+      <c r="G58" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24" t="n">
+      <c r="J58" s="6"/>
+      <c r="K58" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="O58" s="25" t="s">
-        <v>211</v>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="O58" s="17" t="s">
+        <v>215</v>
       </c>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
       <c r="W58" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
       <c r="AC58" s="6"/>
       <c r="AD58" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE58" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE58" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF58" s="6"/>
@@ -6411,7 +6253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="168.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>45</v>
       </c>
@@ -6425,14 +6267,14 @@
         <v>41</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>75</v>
@@ -6472,13 +6314,13 @@
         <v>45</v>
       </c>
       <c r="AL59" s="13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AM59" s="6" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>46</v>
       </c>
@@ -6492,14 +6334,14 @@
         <v>41</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>79</v>
@@ -6511,37 +6353,37 @@
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="O60" s="14" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>221</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S60" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
       <c r="W60" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X60" s="6"/>
       <c r="Y60" s="6"/>
       <c r="Z60" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA60" s="6"/>
       <c r="AB60" s="6"/>
       <c r="AC60" s="6"/>
       <c r="AD60" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE60" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE60" s="9" t="n">
         <v>0.014323</v>
       </c>
       <c r="AF60" s="6"/>
@@ -6559,7 +6401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>47</v>
       </c>
@@ -6573,14 +6415,14 @@
         <v>41</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>79</v>
@@ -6592,37 +6434,37 @@
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
       <c r="N61" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="O61" s="14" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="O61" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S61" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
       <c r="W61" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA61" s="6"/>
       <c r="AB61" s="6"/>
       <c r="AC61" s="6"/>
       <c r="AD61" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE61" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE61" s="9" t="n">
         <v>0.014323</v>
       </c>
       <c r="AF61" s="6"/>
@@ -6640,7 +6482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>48</v>
       </c>
@@ -6654,14 +6496,14 @@
         <v>41</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>79</v>
@@ -6673,37 +6515,37 @@
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="O62" s="14" t="s">
-        <v>223</v>
+        <v>225</v>
+      </c>
+      <c r="O62" s="15" t="s">
+        <v>227</v>
       </c>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S62" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
       <c r="W62" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X62" s="6"/>
       <c r="Y62" s="6"/>
       <c r="Z62" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA62" s="6"/>
       <c r="AB62" s="6"/>
       <c r="AC62" s="6"/>
       <c r="AD62" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE62" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE62" s="9" t="n">
         <v>0.014323</v>
       </c>
       <c r="AF62" s="6"/>
@@ -6721,7 +6563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>49</v>
       </c>
@@ -6735,14 +6577,14 @@
         <v>41</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>79</v>
@@ -6754,37 +6596,37 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="O63" s="14" t="s">
-        <v>226</v>
+        <v>228</v>
+      </c>
+      <c r="O63" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
       <c r="W63" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
       <c r="Z63" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA63" s="6"/>
       <c r="AB63" s="6"/>
       <c r="AC63" s="6"/>
       <c r="AD63" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE63" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE63" s="9" t="n">
         <v>0.014323</v>
       </c>
       <c r="AF63" s="6"/>
@@ -6802,7 +6644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>50</v>
       </c>
@@ -6816,14 +6658,14 @@
         <v>41</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>79</v>
@@ -6835,37 +6677,37 @@
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="O64" s="14" t="s">
-        <v>229</v>
+        <v>231</v>
+      </c>
+      <c r="O64" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
       <c r="W64" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
       <c r="Z64" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA64" s="6"/>
       <c r="AB64" s="6"/>
       <c r="AC64" s="6"/>
       <c r="AD64" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE64" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE64" s="9" t="n">
         <v>0.014323</v>
       </c>
       <c r="AF64" s="6"/>
@@ -6883,7 +6725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>51</v>
       </c>
@@ -6897,14 +6739,14 @@
         <v>41</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>79</v>
@@ -6916,37 +6758,37 @@
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="O65" s="14" t="s">
-        <v>232</v>
+        <v>234</v>
+      </c>
+      <c r="O65" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
       <c r="R65" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T65" s="6"/>
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
       <c r="W65" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA65" s="6"/>
       <c r="AB65" s="6"/>
       <c r="AC65" s="6"/>
       <c r="AD65" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE65" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE65" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF65" s="6"/>
@@ -6964,7 +6806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>52</v>
       </c>
@@ -6978,14 +6820,14 @@
         <v>41</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>79</v>
@@ -6997,37 +6839,37 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="N66" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="O66" s="14" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="O66" s="15" t="s">
+        <v>239</v>
       </c>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
       <c r="W66" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X66" s="6"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
       <c r="AC66" s="6"/>
       <c r="AD66" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE66" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE66" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF66" s="6"/>
@@ -7045,7 +6887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>53</v>
       </c>
@@ -7059,14 +6901,14 @@
         <v>41</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>79</v>
@@ -7078,37 +6920,37 @@
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
       <c r="N67" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="O67" s="14" t="s">
-        <v>238</v>
+        <v>240</v>
+      </c>
+      <c r="O67" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
       <c r="W67" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
       <c r="Z67" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA67" s="6"/>
       <c r="AB67" s="6"/>
       <c r="AC67" s="6"/>
       <c r="AD67" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE67" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE67" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF67" s="6"/>
@@ -7126,7 +6968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>54</v>
       </c>
@@ -7140,14 +6982,14 @@
         <v>41</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>79</v>
@@ -7159,37 +7001,37 @@
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
       <c r="N68" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="O68" s="14" t="s">
-        <v>241</v>
+        <v>243</v>
+      </c>
+      <c r="O68" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S68" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
       <c r="W68" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
       <c r="Z68" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA68" s="6"/>
       <c r="AB68" s="6"/>
       <c r="AC68" s="6"/>
       <c r="AD68" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE68" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE68" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF68" s="6"/>
@@ -7207,7 +7049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>55</v>
       </c>
@@ -7221,14 +7063,14 @@
         <v>41</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F69" s="6"/>
-      <c r="G69" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H69" s="20" t="s">
-        <v>243</v>
+      <c r="G69" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>79</v>
@@ -7239,38 +7081,38 @@
       </c>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
-      <c r="N69" s="26" t="s">
-        <v>242</v>
+      <c r="N69" s="18" t="s">
+        <v>246</v>
       </c>
       <c r="O69" s="11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
       <c r="W69" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA69" s="6"/>
       <c r="AB69" s="6"/>
       <c r="AC69" s="6"/>
       <c r="AD69" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE69" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE69" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF69" s="6"/>
@@ -7288,7 +7130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>56</v>
       </c>
@@ -7302,14 +7144,14 @@
         <v>41</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F70" s="6"/>
-      <c r="G70" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>246</v>
+      <c r="G70" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>79</v>
@@ -7320,38 +7162,38 @@
       </c>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
-      <c r="N70" s="26" t="s">
-        <v>245</v>
+      <c r="N70" s="18" t="s">
+        <v>249</v>
       </c>
       <c r="O70" s="11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P70" s="11"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S70" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
       <c r="W70" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
       <c r="Z70" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA70" s="6"/>
       <c r="AB70" s="6"/>
       <c r="AC70" s="6"/>
       <c r="AD70" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE70" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE70" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF70" s="6"/>
@@ -7369,7 +7211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>57</v>
       </c>
@@ -7383,14 +7225,14 @@
         <v>41</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F71" s="6"/>
-      <c r="G71" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>249</v>
+      <c r="G71" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>79</v>
@@ -7401,38 +7243,38 @@
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
-      <c r="N71" s="26" t="s">
-        <v>248</v>
+      <c r="N71" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="O71" s="11" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S71" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
       <c r="W71" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA71" s="6"/>
       <c r="AB71" s="6"/>
       <c r="AC71" s="6"/>
       <c r="AD71" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE71" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE71" s="9" t="n">
         <v>0.006501</v>
       </c>
       <c r="AF71" s="6"/>
@@ -7450,7 +7292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>58</v>
       </c>
@@ -7464,14 +7306,14 @@
         <v>41</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>79</v>
@@ -7483,23 +7325,23 @@
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
       <c r="N72" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
@@ -7507,9 +7349,9 @@
       <c r="AB72" s="6"/>
       <c r="AC72" s="6"/>
       <c r="AD72" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE72" s="15" t="n">
+        <v>262</v>
+      </c>
+      <c r="AE72" s="9" t="n">
         <v>0.03</v>
       </c>
       <c r="AF72" s="6"/>
@@ -7523,11 +7365,11 @@
         <v>58</v>
       </c>
       <c r="AL72" s="6"/>
-      <c r="AM72" s="27" t="n">
+      <c r="AM72" s="6" t="n">
         <v>501</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>59</v>
       </c>
@@ -7543,10 +7385,10 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>79</v>
@@ -7558,23 +7400,23 @@
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
       <c r="N73" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O73" s="11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
@@ -7582,9 +7424,9 @@
       <c r="AB73" s="6"/>
       <c r="AC73" s="6"/>
       <c r="AD73" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE73" s="15" t="n">
+        <v>262</v>
+      </c>
+      <c r="AE73" s="9" t="n">
         <v>0.01</v>
       </c>
       <c r="AF73" s="6"/>
@@ -7598,11 +7440,11 @@
         <v>59</v>
       </c>
       <c r="AL73" s="6"/>
-      <c r="AM73" s="27" t="n">
+      <c r="AM73" s="6" t="n">
         <v>503</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>60</v>
       </c>
@@ -7618,10 +7460,10 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>79</v>
@@ -7633,23 +7475,23 @@
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
       <c r="N74" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O74" s="11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P74" s="11"/>
       <c r="Q74" s="11"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
@@ -7657,9 +7499,9 @@
       <c r="AB74" s="6"/>
       <c r="AC74" s="6"/>
       <c r="AD74" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE74" s="15" t="n">
+        <v>262</v>
+      </c>
+      <c r="AE74" s="9" t="n">
         <v>0.01</v>
       </c>
       <c r="AF74" s="6"/>
@@ -7673,11 +7515,11 @@
         <v>60</v>
       </c>
       <c r="AL74" s="6"/>
-      <c r="AM74" s="27" t="n">
+      <c r="AM74" s="6" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>61</v>
       </c>
@@ -7693,10 +7535,10 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>79</v>
@@ -7708,23 +7550,23 @@
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
       <c r="N75" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O75" s="11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
@@ -7732,9 +7574,9 @@
       <c r="AB75" s="6"/>
       <c r="AC75" s="6"/>
       <c r="AD75" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE75" s="15" t="n">
+        <v>262</v>
+      </c>
+      <c r="AE75" s="9" t="n">
         <v>0.01</v>
       </c>
       <c r="AF75" s="6"/>
@@ -7748,11 +7590,11 @@
         <v>61</v>
       </c>
       <c r="AL75" s="6"/>
-      <c r="AM75" s="27" t="n">
+      <c r="AM75" s="6" t="n">
         <v>505</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>62</v>
       </c>
@@ -7768,10 +7610,10 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>79</v>
@@ -7783,23 +7625,23 @@
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
       <c r="N76" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O76" s="11" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
       <c r="X76" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
@@ -7807,9 +7649,9 @@
       <c r="AB76" s="6"/>
       <c r="AC76" s="6"/>
       <c r="AD76" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE76" s="15" t="n">
+        <v>262</v>
+      </c>
+      <c r="AE76" s="9" t="n">
         <v>0.06</v>
       </c>
       <c r="AF76" s="6"/>
@@ -7823,11 +7665,11 @@
         <v>62</v>
       </c>
       <c r="AL76" s="6"/>
-      <c r="AM76" s="27" t="n">
+      <c r="AM76" s="6" t="n">
         <v>502</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>63</v>
       </c>
@@ -7841,17 +7683,17 @@
         <v>41</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="8" t="n">
@@ -7864,7 +7706,7 @@
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
@@ -7880,9 +7722,9 @@
       <c r="AB77" s="6"/>
       <c r="AC77" s="6"/>
       <c r="AD77" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE77" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE77" s="9" t="n">
         <v>0.03</v>
       </c>
       <c r="AF77" s="6"/>
@@ -7895,14 +7737,14 @@
       <c r="AK77" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="AL77" s="28" t="s">
-        <v>276</v>
+      <c r="AL77" s="13" t="s">
+        <v>280</v>
       </c>
       <c r="AM77" s="11" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>64</v>
       </c>
@@ -7916,14 +7758,14 @@
         <v>41</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>79</v>
@@ -7935,18 +7777,18 @@
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
       <c r="N78" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O78" s="11" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
       <c r="R78" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S78" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
@@ -7961,7 +7803,7 @@
       <c r="AB78" s="6"/>
       <c r="AC78" s="6"/>
       <c r="AD78" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE78" s="9"/>
       <c r="AF78" s="6"/>
@@ -7979,7 +7821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>65</v>
       </c>
@@ -7993,19 +7835,19 @@
         <v>41</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="I79" s="24" t="s">
-        <v>282</v>
+        <v>275</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="8" t="n">
@@ -8018,7 +7860,7 @@
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
       <c r="R79" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
@@ -8034,9 +7876,9 @@
       <c r="AB79" s="6"/>
       <c r="AC79" s="6"/>
       <c r="AD79" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE79" s="29"/>
+        <v>86</v>
+      </c>
+      <c r="AE79" s="9"/>
       <c r="AF79" s="6"/>
       <c r="AG79" s="6"/>
       <c r="AH79" s="6"/>
@@ -8047,14 +7889,14 @@
       <c r="AK79" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="AL79" s="30" t="s">
-        <v>283</v>
+      <c r="AL79" s="13" t="s">
+        <v>287</v>
       </c>
       <c r="AM79" s="6" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>66</v>
       </c>
@@ -8068,35 +7910,35 @@
         <v>41</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
-      <c r="N80" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="O80" s="16" t="s">
+      <c r="N80" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="P80" s="19"/>
+      <c r="O80" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
       <c r="R80" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S80" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
@@ -8111,14 +7953,14 @@
       <c r="AB80" s="6"/>
       <c r="AC80" s="6"/>
       <c r="AD80" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE80" s="29"/>
+        <v>86</v>
+      </c>
+      <c r="AE80" s="9"/>
       <c r="AF80" s="6"/>
       <c r="AG80" s="6"/>
       <c r="AH80" s="6"/>
       <c r="AI80" s="6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AJ80" s="6" t="n">
         <v>4</v>
@@ -8131,7 +7973,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>67</v>
       </c>
@@ -8145,72 +7987,72 @@
         <v>41</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="H81" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I81" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I81" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="J81" s="17"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="O81" s="19" t="n">
+      <c r="J81" s="6"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="O81" s="11" t="n">
         <v>5449000000439</v>
       </c>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="S81" s="17" t="s">
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="T81" s="17"/>
-      <c r="U81" s="17"/>
-      <c r="V81" s="17"/>
-      <c r="W81" s="17"/>
-      <c r="X81" s="17" t="s">
+      <c r="S81" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Y81" s="17"/>
-      <c r="Z81" s="17"/>
-      <c r="AA81" s="17"/>
-      <c r="AB81" s="17"/>
-      <c r="AC81" s="17"/>
-      <c r="AD81" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE81" s="33"/>
-      <c r="AF81" s="17"/>
-      <c r="AG81" s="17"/>
-      <c r="AH81" s="17"/>
-      <c r="AI81" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="AJ81" s="17" t="n">
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE81" s="21"/>
+      <c r="AF81" s="6"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="6"/>
+      <c r="AI81" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ81" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AK81" s="17" t="n">
+      <c r="AK81" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="AL81" s="17"/>
-      <c r="AM81" s="17" t="n">
+      <c r="AL81" s="6"/>
+      <c r="AM81" s="6" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>69</v>
       </c>
@@ -8224,17 +8066,17 @@
         <v>41</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="8" t="n">
@@ -8247,15 +8089,15 @@
       <c r="P82" s="11"/>
       <c r="Q82" s="11"/>
       <c r="R82" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
-      <c r="V82" s="34"/>
+      <c r="V82" s="22"/>
       <c r="W82" s="6"/>
       <c r="X82" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
@@ -8263,9 +8105,9 @@
       <c r="AB82" s="6"/>
       <c r="AC82" s="6"/>
       <c r="AD82" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE82" s="29" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE82" s="9" t="n">
         <v>0.02</v>
       </c>
       <c r="AF82" s="6"/>
@@ -8279,13 +8121,13 @@
         <v>69</v>
       </c>
       <c r="AL82" s="13" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AM82" s="11" t="n">
         <v>303</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>70</v>
       </c>
@@ -8299,14 +8141,14 @@
         <v>41</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>79</v>
@@ -8318,25 +8160,25 @@
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
       <c r="N83" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O83" s="11" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S83" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
-      <c r="V83" s="34"/>
+      <c r="V83" s="22"/>
       <c r="W83" s="6"/>
       <c r="X83" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
@@ -8344,7 +8186,7 @@
       <c r="AB83" s="6"/>
       <c r="AC83" s="6"/>
       <c r="AD83" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE83" s="9"/>
       <c r="AF83" s="6"/>
@@ -8362,7 +8204,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>71</v>
       </c>
@@ -8376,17 +8218,17 @@
         <v>41</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="8" t="n">
@@ -8399,15 +8241,15 @@
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
       <c r="R84" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
-      <c r="V84" s="34"/>
+      <c r="V84" s="22"/>
       <c r="W84" s="6"/>
       <c r="X84" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
@@ -8415,7 +8257,7 @@
       <c r="AB84" s="6"/>
       <c r="AC84" s="6"/>
       <c r="AD84" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE84" s="9"/>
       <c r="AF84" s="6"/>
@@ -8429,13 +8271,13 @@
         <v>71</v>
       </c>
       <c r="AL84" s="13" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AM84" s="6" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>72</v>
       </c>
@@ -8449,24 +8291,24 @@
         <v>41</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
       <c r="N85" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O85" s="11" t="n">
         <v>4607042434877</v>
@@ -8474,17 +8316,17 @@
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
-      <c r="V85" s="34"/>
+      <c r="V85" s="22"/>
       <c r="W85" s="6"/>
       <c r="X85" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
@@ -8492,14 +8334,14 @@
       <c r="AB85" s="6"/>
       <c r="AC85" s="6"/>
       <c r="AD85" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE85" s="9"/>
       <c r="AF85" s="6"/>
       <c r="AG85" s="6"/>
       <c r="AH85" s="6"/>
       <c r="AI85" s="6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AJ85" s="6" t="n">
         <v>4</v>
@@ -8512,7 +8354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>73</v>
       </c>
@@ -8526,24 +8368,24 @@
         <v>41</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
       <c r="N86" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O86" s="11" t="n">
         <v>4607042434891</v>
@@ -8551,17 +8393,17 @@
       <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
       <c r="R86" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S86" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
-      <c r="V86" s="34"/>
+      <c r="V86" s="22"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
@@ -8569,14 +8411,14 @@
       <c r="AB86" s="6"/>
       <c r="AC86" s="6"/>
       <c r="AD86" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE86" s="9"/>
       <c r="AF86" s="6"/>
       <c r="AG86" s="6"/>
       <c r="AH86" s="6"/>
       <c r="AI86" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AJ86" s="6" t="n">
         <v>4</v>
@@ -8589,7 +8431,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="53.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>74</v>
       </c>
@@ -8600,20 +8442,20 @@
         <v>40</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E87" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="F87" s="35"/>
+        <v>311</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="F87" s="23"/>
       <c r="G87" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="8" t="n">
@@ -8626,7 +8468,7 @@
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
@@ -8634,7 +8476,7 @@
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
       <c r="X87" s="6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
@@ -8642,9 +8484,9 @@
       <c r="AB87" s="6"/>
       <c r="AC87" s="6"/>
       <c r="AD87" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE87" s="15" t="n">
+        <v>262</v>
+      </c>
+      <c r="AE87" s="9" t="n">
         <v>0.03</v>
       </c>
       <c r="AF87" s="6"/>
@@ -8658,13 +8500,13 @@
         <v>74</v>
       </c>
       <c r="AL87" s="13" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AM87" s="11" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>75</v>
       </c>
@@ -8675,13 +8517,13 @@
         <v>40</v>
       </c>
       <c r="D88" s="6"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
       <c r="G88" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>79</v>
@@ -8694,34 +8536,34 @@
       <c r="M88" s="8"/>
       <c r="N88" s="6"/>
       <c r="O88" s="11" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P88" s="11"/>
       <c r="Q88" s="11" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S88" s="6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
       <c r="Y88" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="6"/>
       <c r="AC88" s="6"/>
       <c r="AD88" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE88" s="9"/>
       <c r="AF88" s="6"/>
@@ -8739,7 +8581,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>76</v>
       </c>
@@ -8750,16 +8592,16 @@
         <v>40</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
       <c r="G89" s="6" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J89" s="6"/>
       <c r="K89" s="8" t="n">
@@ -8773,7 +8615,7 @@
       <c r="Q89" s="11"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
@@ -8781,22 +8623,24 @@
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
       <c r="Y89" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="6"/>
       <c r="AC89" s="6"/>
       <c r="AD89" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE89" s="9"/>
       <c r="AF89" s="6"/>
       <c r="AG89" s="6"/>
-      <c r="AH89" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AI89" s="6"/>
+      <c r="AH89" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI89" s="14" t="s">
+        <v>328</v>
+      </c>
       <c r="AJ89" s="6" t="n">
         <v>3</v>
       </c>
@@ -8808,7 +8652,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>77</v>
       </c>
@@ -8819,13 +8663,13 @@
         <v>40</v>
       </c>
       <c r="D90" s="6"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
       <c r="G90" s="6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>79</v>
@@ -8836,19 +8680,19 @@
       </c>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
-      <c r="N90" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="O90" s="37" t="s">
-        <v>328</v>
+      <c r="N90" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="O90" s="11" t="s">
+        <v>332</v>
       </c>
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
       <c r="R90" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S90" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
@@ -8856,20 +8700,20 @@
       <c r="W90" s="6"/>
       <c r="X90" s="6"/>
       <c r="Y90" s="6" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="6"/>
       <c r="AC90" s="6"/>
       <c r="AD90" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE90" s="9"/>
       <c r="AF90" s="6"/>
       <c r="AG90" s="6"/>
-      <c r="AH90" s="6"/>
-      <c r="AI90" s="6"/>
+      <c r="AH90" s="24"/>
+      <c r="AI90" s="24"/>
       <c r="AJ90" s="6" t="n">
         <v>3</v>
       </c>
@@ -8881,7 +8725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>78</v>
       </c>
@@ -8892,16 +8736,16 @@
         <v>40</v>
       </c>
       <c r="D91" s="6"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
       <c r="G91" s="6" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="8" t="n">
@@ -8915,7 +8759,7 @@
       <c r="Q91" s="11"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
@@ -8923,22 +8767,24 @@
       <c r="W91" s="6"/>
       <c r="X91" s="6"/>
       <c r="Y91" s="6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="6"/>
       <c r="AC91" s="6"/>
       <c r="AD91" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE91" s="9"/>
       <c r="AF91" s="6"/>
       <c r="AG91" s="6"/>
-      <c r="AH91" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="AI91" s="6"/>
+      <c r="AH91" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI91" s="14" t="s">
+        <v>337</v>
+      </c>
       <c r="AJ91" s="6" t="n">
         <v>3</v>
       </c>
@@ -8950,7 +8796,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="53.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>79</v>
       </c>
@@ -8964,17 +8810,17 @@
         <v>41</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="J92" s="6"/>
       <c r="K92" s="8"/>
@@ -8985,7 +8831,7 @@
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
       <c r="R92" s="6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
@@ -8999,16 +8845,16 @@
       <c r="AB92" s="6"/>
       <c r="AC92" s="6"/>
       <c r="AD92" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE92" s="15" t="n">
+        <v>262</v>
+      </c>
+      <c r="AE92" s="9" t="n">
         <v>0.18</v>
       </c>
       <c r="AF92" s="6"/>
       <c r="AG92" s="6"/>
       <c r="AH92" s="6"/>
       <c r="AI92" s="6" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AJ92" s="6" t="n">
         <v>2</v>
@@ -9017,13 +8863,13 @@
         <v>79</v>
       </c>
       <c r="AL92" s="13" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM92" s="6" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>80</v>
       </c>
@@ -9037,17 +8883,17 @@
         <v>41</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="8" t="n">
@@ -9058,42 +8904,42 @@
       </c>
       <c r="M93" s="8"/>
       <c r="N93" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O93" s="11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P93" s="11"/>
       <c r="Q93" s="11"/>
       <c r="R93" s="6"/>
       <c r="S93" s="6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
       <c r="X93" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Y93" s="6"/>
       <c r="Z93" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AA93" s="6"/>
       <c r="AB93" s="6"/>
       <c r="AC93" s="6"/>
       <c r="AD93" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE93" s="9"/>
       <c r="AF93" s="6"/>
       <c r="AG93" s="6"/>
       <c r="AH93" s="6" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AI93" s="6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AJ93" s="6" t="n">
         <v>3</v>
@@ -9106,7 +8952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>81</v>
       </c>
@@ -9120,17 +8966,17 @@
         <v>41</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="8" t="n">
@@ -9141,42 +8987,42 @@
       </c>
       <c r="M94" s="8"/>
       <c r="N94" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O94" s="11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P94" s="11"/>
       <c r="Q94" s="11"/>
       <c r="R94" s="6"/>
       <c r="S94" s="6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
       <c r="X94" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Y94" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="6"/>
       <c r="AC94" s="6"/>
       <c r="AD94" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE94" s="9"/>
       <c r="AF94" s="6"/>
       <c r="AG94" s="6"/>
       <c r="AH94" s="6" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AI94" s="6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AJ94" s="6" t="n">
         <v>3</v>
@@ -9189,7 +9035,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>82</v>
       </c>
@@ -9203,17 +9049,17 @@
         <v>41</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="J95" s="6"/>
       <c r="K95" s="8" t="n">
@@ -9222,23 +9068,23 @@
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
       <c r="N95" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O95" s="11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P95" s="11"/>
       <c r="Q95" s="11"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
       <c r="X95" s="6" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
@@ -9246,7 +9092,7 @@
       <c r="AB95" s="6"/>
       <c r="AC95" s="6"/>
       <c r="AD95" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE95" s="9"/>
       <c r="AF95" s="6"/>
@@ -9264,7 +9110,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>83</v>
       </c>
@@ -9278,17 +9124,17 @@
         <v>41</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="8" t="n">
@@ -9298,41 +9144,41 @@
       <c r="M96" s="8"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P96" s="11"/>
       <c r="Q96" s="11"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
       <c r="X96" s="6" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Y96" s="6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="6"/>
       <c r="AC96" s="6"/>
       <c r="AD96" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE96" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE96" s="9" t="n">
         <v>0.03</v>
       </c>
       <c r="AF96" s="6"/>
       <c r="AG96" s="6"/>
       <c r="AH96" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AI96" s="6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AJ96" s="6" t="n">
         <v>2</v>
@@ -9341,11 +9187,11 @@
         <v>83</v>
       </c>
       <c r="AL96" s="6"/>
-      <c r="AM96" s="38" t="n">
+      <c r="AM96" s="23" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>84</v>
       </c>
@@ -9359,17 +9205,17 @@
         <v>41</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="I97" s="17" t="s">
-        <v>365</v>
+        <v>368</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="8"/>
@@ -9380,44 +9226,44 @@
         <v>15</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O97" s="11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P97" s="11"/>
       <c r="Q97" s="11"/>
       <c r="R97" s="6"/>
-      <c r="S97" s="39" t="s">
-        <v>346</v>
+      <c r="S97" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
       <c r="X97" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Y97" s="6"/>
       <c r="Z97" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AA97" s="6"/>
       <c r="AB97" s="6"/>
       <c r="AC97" s="6"/>
       <c r="AD97" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE97" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE97" s="9" t="n">
         <v>0.03</v>
       </c>
       <c r="AF97" s="6"/>
       <c r="AG97" s="6"/>
       <c r="AH97" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AI97" s="6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AJ97" s="6" t="n">
         <v>2</v>
@@ -9426,11 +9272,11 @@
         <v>84</v>
       </c>
       <c r="AL97" s="6"/>
-      <c r="AM97" s="38" t="n">
+      <c r="AM97" s="23" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="53.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>85</v>
       </c>
@@ -9444,14 +9290,14 @@
         <v>41</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>75</v>
@@ -9465,7 +9311,7 @@
       <c r="P98" s="11"/>
       <c r="Q98" s="11"/>
       <c r="R98" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
@@ -9473,7 +9319,7 @@
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
       <c r="X98" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Y98" s="6"/>
       <c r="Z98" s="6"/>
@@ -9481,18 +9327,18 @@
       <c r="AB98" s="6"/>
       <c r="AC98" s="6"/>
       <c r="AD98" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE98" s="15" t="n">
+        <v>262</v>
+      </c>
+      <c r="AE98" s="9" t="n">
         <v>0.03</v>
       </c>
       <c r="AF98" s="6"/>
       <c r="AG98" s="6"/>
       <c r="AH98" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AI98" s="6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AJ98" s="6" t="n">
         <v>2</v>
@@ -9500,14 +9346,14 @@
       <c r="AK98" s="6" t="n">
         <v>85</v>
       </c>
-      <c r="AL98" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="AM98" s="38" t="n">
+      <c r="AL98" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM98" s="23" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>87</v>
       </c>
@@ -9523,13 +9369,13 @@
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="J99" s="6"/>
       <c r="K99" s="8" t="n">
@@ -9538,46 +9384,46 @@
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
       <c r="N99" s="6" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="O99" s="11" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P99" s="11"/>
       <c r="Q99" s="11" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="S99" s="27" t="s">
-        <v>316</v>
+        <v>82</v>
+      </c>
+      <c r="S99" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
       <c r="X99" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Y99" s="6" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="6"/>
       <c r="AC99" s="6"/>
       <c r="AD99" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE99" s="9"/>
       <c r="AF99" s="6"/>
       <c r="AG99" s="6"/>
       <c r="AH99" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AI99" s="6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AJ99" s="6" t="n">
         <v>3</v>
@@ -9590,7 +9436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>88</v>
       </c>
@@ -9606,13 +9452,13 @@
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="8" t="n">
@@ -9625,7 +9471,7 @@
       <c r="P100" s="11"/>
       <c r="Q100" s="11"/>
       <c r="R100" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
@@ -9633,7 +9479,7 @@
       <c r="V100" s="6"/>
       <c r="W100" s="6"/>
       <c r="X100" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Y100" s="6"/>
       <c r="Z100" s="6"/>
@@ -9641,16 +9487,16 @@
       <c r="AB100" s="6"/>
       <c r="AC100" s="6"/>
       <c r="AD100" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE100" s="9"/>
       <c r="AF100" s="6"/>
       <c r="AG100" s="6"/>
       <c r="AH100" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AI100" s="6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AJ100" s="6" t="n">
         <v>3</v>
@@ -9658,14 +9504,14 @@
       <c r="AK100" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="AL100" s="28" t="s">
-        <v>377</v>
+      <c r="AL100" s="13" t="s">
+        <v>381</v>
       </c>
       <c r="AM100" s="6" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="156" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>89</v>
       </c>
@@ -9681,10 +9527,10 @@
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="H101" s="36" t="s">
-        <v>379</v>
+        <v>382</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>79</v>
@@ -9694,50 +9540,50 @@
         <v>4</v>
       </c>
       <c r="L101" s="8"/>
-      <c r="M101" s="40"/>
-      <c r="N101" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="O101" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="P101" s="37"/>
-      <c r="Q101" s="37" t="s">
-        <v>381</v>
+      <c r="M101" s="25"/>
+      <c r="N101" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="O101" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="R101" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="S101" s="27" t="s">
-        <v>316</v>
+        <v>82</v>
+      </c>
+      <c r="S101" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="6"/>
       <c r="W101" s="6"/>
       <c r="X101" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Y101" s="13" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="6"/>
       <c r="AC101" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AD101" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE101" s="9"/>
       <c r="AF101" s="6"/>
       <c r="AG101" s="6"/>
       <c r="AH101" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AI101" s="6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AJ101" s="6" t="n">
         <v>4</v>
@@ -9750,7 +9596,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="143.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>90</v>
       </c>
@@ -9766,10 +9612,10 @@
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="H102" s="36" t="s">
-        <v>385</v>
+        <v>388</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>389</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>79</v>
@@ -9780,49 +9626,49 @@
       </c>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
-      <c r="N102" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="O102" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="P102" s="37"/>
-      <c r="Q102" s="37" t="s">
-        <v>373</v>
+      <c r="N102" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="O102" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="S102" s="27" t="s">
-        <v>316</v>
+        <v>82</v>
+      </c>
+      <c r="S102" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
       <c r="V102" s="6"/>
       <c r="W102" s="6"/>
       <c r="X102" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Y102" s="13" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Z102" s="6"/>
       <c r="AA102" s="6"/>
       <c r="AB102" s="6"/>
       <c r="AC102" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AD102" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE102" s="9"/>
       <c r="AF102" s="6"/>
       <c r="AG102" s="6"/>
       <c r="AH102" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AI102" s="6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AJ102" s="6" t="n">
         <v>4</v>
@@ -9835,7 +9681,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="143.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>91</v>
       </c>
@@ -9851,13 +9697,13 @@
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="I103" s="17" t="s">
-        <v>389</v>
+        <v>392</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="J103" s="6"/>
       <c r="K103" s="8" t="n">
@@ -9866,44 +9712,44 @@
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
       <c r="N103" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O103" s="11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P103" s="11"/>
       <c r="Q103" s="11"/>
       <c r="R103" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="S103" s="39" t="s">
-        <v>346</v>
+        <v>82</v>
+      </c>
+      <c r="S103" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
       <c r="X103" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Y103" s="13" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Z103" s="6"/>
       <c r="AA103" s="6"/>
       <c r="AB103" s="6"/>
       <c r="AC103" s="6"/>
       <c r="AD103" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE103" s="9"/>
       <c r="AF103" s="6"/>
       <c r="AG103" s="6"/>
       <c r="AH103" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AI103" s="6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AJ103" s="6" t="n">
         <v>3</v>
@@ -9916,7 +9762,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>92</v>
       </c>
@@ -9930,17 +9776,17 @@
         <v>41</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J104" s="6"/>
       <c r="K104" s="8"/>
@@ -9948,20 +9794,20 @@
       <c r="M104" s="8"/>
       <c r="N104" s="6"/>
       <c r="O104" s="11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P104" s="11"/>
       <c r="Q104" s="11"/>
       <c r="R104" s="6"/>
       <c r="S104" s="6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
       <c r="W104" s="6"/>
       <c r="X104" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Y104" s="6"/>
       <c r="Z104" s="6"/>
@@ -9969,18 +9815,18 @@
       <c r="AB104" s="6"/>
       <c r="AC104" s="6"/>
       <c r="AD104" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE104" s="15" t="n">
+        <v>262</v>
+      </c>
+      <c r="AE104" s="9" t="n">
         <v>0.03</v>
       </c>
       <c r="AF104" s="6"/>
       <c r="AG104" s="6"/>
       <c r="AH104" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AI104" s="6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AJ104" s="6" t="n">
         <v>2</v>
@@ -9989,11 +9835,11 @@
         <v>92</v>
       </c>
       <c r="AL104" s="6"/>
-      <c r="AM104" s="38" t="n">
+      <c r="AM104" s="23" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="53.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>93</v>
       </c>
@@ -10004,34 +9850,34 @@
         <v>40</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E105" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="F105" s="35"/>
-      <c r="G105" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="H105" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>400</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
       <c r="N105" s="6"/>
-      <c r="O105" s="41"/>
+      <c r="O105" s="26"/>
       <c r="P105" s="11"/>
       <c r="Q105" s="11"/>
       <c r="R105" s="6"/>
       <c r="S105" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
@@ -10053,12 +9899,12 @@
       <c r="AK105" s="6" t="n">
         <v>93</v>
       </c>
-      <c r="AL105" s="42" t="s">
-        <v>400</v>
+      <c r="AL105" s="13" t="s">
+        <v>404</v>
       </c>
       <c r="AM105" s="6"/>
     </row>
-    <row r="106" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>94</v>
       </c>
@@ -10069,38 +9915,38 @@
         <v>40</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E106" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="F106" s="35"/>
-      <c r="G106" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="H106" s="35" t="s">
-        <v>403</v>
+        <v>397</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>407</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
-      <c r="N106" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O106" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="P106" s="44"/>
+      <c r="N106" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="O106" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="P106" s="28"/>
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
       <c r="S106" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
@@ -10127,7 +9973,7 @@
       </c>
       <c r="AM106" s="6"/>
     </row>
-    <row r="107" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
         <v>95</v>
       </c>
@@ -10138,38 +9984,38 @@
         <v>40</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E107" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="F107" s="35"/>
-      <c r="G107" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="H107" s="35" t="s">
-        <v>403</v>
+        <v>397</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>407</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
-      <c r="N107" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O107" s="43" t="s">
-        <v>408</v>
-      </c>
-      <c r="P107" s="44"/>
+      <c r="N107" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="O107" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="P107" s="28"/>
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
       <c r="S107" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
@@ -10196,7 +10042,7 @@
       </c>
       <c r="AM107" s="6"/>
     </row>
-    <row r="108" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>96</v>
       </c>
@@ -10207,38 +10053,38 @@
         <v>40</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E108" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="F108" s="35"/>
-      <c r="G108" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="H108" s="35" t="s">
-        <v>403</v>
+        <v>397</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>407</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
-      <c r="N108" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O108" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="P108" s="44"/>
+      <c r="N108" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="O108" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="P108" s="28"/>
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
       <c r="S108" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
@@ -10265,7 +10111,7 @@
       </c>
       <c r="AM108" s="6"/>
     </row>
-    <row r="109" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>97</v>
       </c>
@@ -10276,38 +10122,38 @@
         <v>40</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E109" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="F109" s="35"/>
-      <c r="G109" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="H109" s="35" t="s">
-        <v>403</v>
+        <v>397</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>407</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
-      <c r="N109" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O109" s="43" t="s">
+      <c r="N109" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="P109" s="44"/>
+      <c r="O109" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="P109" s="28"/>
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
@@ -10345,46 +10191,46 @@
         <v>40</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E110" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="H110" s="35" t="s">
-        <v>413</v>
+        <v>397</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>417</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
       <c r="N110" s="6"/>
-      <c r="O110" s="45" t="s">
-        <v>415</v>
+      <c r="O110" s="29" t="s">
+        <v>419</v>
       </c>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
       <c r="S110" s="6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
       <c r="V110" s="6"/>
       <c r="W110" s="6"/>
       <c r="X110" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Y110" s="13" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Z110" s="6"/>
       <c r="AA110" s="6"/>
@@ -10402,7 +10248,7 @@
       </c>
       <c r="AL110" s="6"/>
       <c r="AM110" s="6"/>
-      <c r="BE110" s="46"/>
+      <c r="BE110" s="30"/>
     </row>
     <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
@@ -10415,44 +10261,44 @@
         <v>40</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E111" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="H111" s="35" t="s">
-        <v>420</v>
+        <v>397</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>424</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
       <c r="N111" s="6"/>
       <c r="O111" s="6" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
       <c r="S111" s="6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
       <c r="V111" s="6"/>
       <c r="W111" s="6"/>
       <c r="X111" s="6"/>
-      <c r="Y111" s="47" t="s">
-        <v>423</v>
+      <c r="Y111" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="Z111" s="6"/>
       <c r="AA111" s="6"/>
@@ -10482,44 +10328,44 @@
         <v>40</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E112" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="I112" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="H112" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="J112" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
       <c r="N112" s="6"/>
       <c r="O112" s="6" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
       <c r="S112" s="6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
       <c r="W112" s="6"/>
       <c r="X112" s="6"/>
-      <c r="Y112" s="47" t="s">
-        <v>423</v>
+      <c r="Y112" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="Z112" s="6"/>
       <c r="AA112" s="6"/>
@@ -10538,7 +10384,7 @@
       <c r="AL112" s="6"/>
       <c r="AM112" s="6"/>
     </row>
-    <row r="113" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>102</v>
       </c>
@@ -10549,38 +10395,38 @@
         <v>40</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E113" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="H113" s="35" t="s">
-        <v>430</v>
+        <v>397</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>434</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
-      <c r="N113" s="24" t="s">
-        <v>431</v>
+      <c r="N113" s="6" t="s">
+        <v>435</v>
       </c>
       <c r="O113" s="13" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
       <c r="S113" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="T113" s="6"/>
       <c r="U113" s="6"/>
@@ -10602,12 +10448,12 @@
       <c r="AK113" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="AL113" s="48" t="s">
-        <v>433</v>
+      <c r="AL113" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="AM113" s="6"/>
     </row>
-    <row r="114" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="53.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>104</v>
       </c>
@@ -10618,38 +10464,38 @@
         <v>40</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E114" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="F114" s="35"/>
-      <c r="G114" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="H114" s="35" t="s">
-        <v>430</v>
+        <v>397</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>434</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
-      <c r="N114" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="O114" s="49" t="s">
-        <v>434</v>
+      <c r="N114" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="O114" s="31" t="s">
+        <v>438</v>
       </c>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
       <c r="S114" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="T114" s="6"/>
       <c r="U114" s="6"/>
@@ -10671,12 +10517,12 @@
       <c r="AK114" s="6" t="n">
         <v>104</v>
       </c>
-      <c r="AL114" s="48" t="s">
-        <v>435</v>
+      <c r="AL114" s="13" t="s">
+        <v>439</v>
       </c>
       <c r="AM114" s="6"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>521</v>
       </c>
@@ -10687,32 +10533,32 @@
         <v>40</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E115" s="35"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="H115" s="35" t="s">
-        <v>437</v>
+        <v>397</v>
+      </c>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>441</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
       <c r="N115" s="6"/>
-      <c r="O115" s="49"/>
+      <c r="O115" s="31"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
       <c r="S115" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$104</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$104</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$104</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1773,45 +1774,44 @@
   </sheetPr>
   <dimension ref="A1:AL104"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="40.7044534412955"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="64.165991902834"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="107.975708502024"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="25.5141700404858"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="79.2672064777328"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="79.9109311740891"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.6032388663968"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$104</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$104</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$104</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$104</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -180,21 +181,22 @@
 3
 4
 5
-6
+16
 7
 8
 9
 14
 15
-16
-18
+6
+603
 19
 20
 21
+18
+602
+24
 23
-24
-603
-602</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola - 0.9L/1L</t>
@@ -453,8 +455,9 @@
     <t xml:space="preserve">33
 34
 36
+650
 37
-650</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Burn Original - 0.5L</t>
@@ -505,7 +508,8 @@
     <t xml:space="preserve">39
 40
 41
-42</t>
+42
+</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
@@ -662,7 +666,8 @@
     <t xml:space="preserve">501
 502
 503
-504</t>
+504
+505</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Shelf</t>
@@ -1363,7 +1368,7 @@
     <numFmt numFmtId="172" formatCode="0%"/>
     <numFmt numFmtId="173" formatCode="D\-MMM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1403,6 +1408,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val=""/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1521,11 +1532,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1590,7 +1601,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1637,6 +1648,10 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1774,44 +1789,44 @@
   </sheetPr>
   <dimension ref="A1:AL104"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ71" activeCellId="0" sqref="AJ71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="64.165991902834"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="25.5141700404858"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="79.9109311740891"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="80.5546558704453"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.6032388663968"/>
@@ -5741,7 +5756,7 @@
       <c r="AJ50" s="9" t="n">
         <v>520</v>
       </c>
-      <c r="AK50" s="16" t="s">
+      <c r="AK50" s="28" t="s">
         <v>196</v>
       </c>
       <c r="AL50" s="9"/>
@@ -6615,7 +6630,7 @@
       <c r="AJ63" s="9" t="n">
         <v>63</v>
       </c>
-      <c r="AK63" s="16" t="s">
+      <c r="AK63" s="28" t="s">
         <v>235</v>
       </c>
       <c r="AL63" s="14" t="n">
@@ -6763,7 +6778,7 @@
       <c r="AJ65" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="AK65" s="16" t="s">
+      <c r="AK65" s="28" t="s">
         <v>241</v>
       </c>
       <c r="AL65" s="9" t="n">
@@ -6799,7 +6814,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
-      <c r="M66" s="28" t="s">
+      <c r="M66" s="29" t="s">
         <v>52</v>
       </c>
       <c r="N66" s="17" t="s">
@@ -6875,7 +6890,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
-      <c r="M67" s="28" t="s">
+      <c r="M67" s="29" t="s">
         <v>78</v>
       </c>
       <c r="N67" s="14" t="n">
@@ -6904,7 +6919,7 @@
       <c r="AC67" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AD67" s="29"/>
+      <c r="AD67" s="30"/>
       <c r="AE67" s="9"/>
       <c r="AF67" s="9"/>
       <c r="AG67" s="9"/>
@@ -7025,7 +7040,7 @@
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
-      <c r="U69" s="30"/>
+      <c r="U69" s="31"/>
       <c r="V69" s="9"/>
       <c r="W69" s="9" t="s">
         <v>253</v>
@@ -7051,7 +7066,7 @@
       <c r="AJ69" s="9" t="n">
         <v>69</v>
       </c>
-      <c r="AK69" s="16" t="s">
+      <c r="AK69" s="28" t="s">
         <v>254</v>
       </c>
       <c r="AL69" s="14" t="n">
@@ -7105,7 +7120,7 @@
       </c>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
-      <c r="U70" s="30"/>
+      <c r="U70" s="31"/>
       <c r="V70" s="9"/>
       <c r="W70" s="9" t="s">
         <v>253</v>
@@ -7175,7 +7190,7 @@
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
-      <c r="U71" s="30"/>
+      <c r="U71" s="31"/>
       <c r="V71" s="9"/>
       <c r="W71" s="9" t="s">
         <v>253</v>
@@ -7199,7 +7214,7 @@
       <c r="AJ71" s="9" t="n">
         <v>71</v>
       </c>
-      <c r="AK71" s="16" t="s">
+      <c r="AK71" s="28" t="s">
         <v>259</v>
       </c>
       <c r="AL71" s="9" t="n">
@@ -7251,7 +7266,7 @@
       </c>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
-      <c r="U72" s="30"/>
+      <c r="U72" s="31"/>
       <c r="V72" s="9"/>
       <c r="W72" s="9" t="s">
         <v>253</v>
@@ -7327,7 +7342,7 @@
       </c>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
-      <c r="U73" s="30"/>
+      <c r="U73" s="31"/>
       <c r="V73" s="9"/>
       <c r="W73" s="9" t="s">
         <v>253</v>
@@ -7371,7 +7386,7 @@
       <c r="D74" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E74" s="31" t="s">
+      <c r="E74" s="32" t="s">
         <v>267</v>
       </c>
       <c r="F74" s="9" t="s">
@@ -7425,7 +7440,7 @@
       <c r="AJ74" s="9" t="n">
         <v>74</v>
       </c>
-      <c r="AK74" s="16" t="s">
+      <c r="AK74" s="28" t="s">
         <v>271</v>
       </c>
       <c r="AL74" s="14" t="n">
@@ -7443,7 +7458,7 @@
         <v>39</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="31"/>
+      <c r="E75" s="32"/>
       <c r="F75" s="9" t="s">
         <v>272</v>
       </c>
@@ -7454,7 +7469,7 @@
         <v>51</v>
       </c>
       <c r="I75" s="9"/>
-      <c r="J75" s="32" t="n">
+      <c r="J75" s="33" t="n">
         <v>3</v>
       </c>
       <c r="K75" s="11"/>
@@ -7473,7 +7488,7 @@
       <c r="R75" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="S75" s="33" t="s">
+      <c r="S75" s="34" t="s">
         <v>276</v>
       </c>
       <c r="T75" s="9"/>
@@ -7517,7 +7532,7 @@
         <v>39</v>
       </c>
       <c r="D76" s="9"/>
-      <c r="E76" s="31"/>
+      <c r="E76" s="32"/>
       <c r="F76" s="9" t="s">
         <v>278</v>
       </c>
@@ -7587,7 +7602,7 @@
         <v>39</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="31"/>
+      <c r="E77" s="32"/>
       <c r="F77" s="9" t="s">
         <v>284</v>
       </c>
@@ -7659,7 +7674,7 @@
         <v>39</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="31"/>
+      <c r="E78" s="32"/>
       <c r="F78" s="9" t="s">
         <v>289</v>
       </c>
@@ -7905,7 +7920,7 @@
       <c r="AJ81" s="9" t="n">
         <v>79</v>
       </c>
-      <c r="AK81" s="16" t="s">
+      <c r="AK81" s="28" t="s">
         <v>304</v>
       </c>
       <c r="AL81" s="9" t="n">
@@ -8206,7 +8221,7 @@
         <v>83</v>
       </c>
       <c r="AK85" s="9"/>
-      <c r="AL85" s="31" t="n">
+      <c r="AL85" s="32" t="n">
         <v>312</v>
       </c>
     </row>
@@ -8290,7 +8305,7 @@
         <v>84</v>
       </c>
       <c r="AK86" s="9"/>
-      <c r="AL86" s="31" t="n">
+      <c r="AL86" s="32" t="n">
         <v>312</v>
       </c>
     </row>
@@ -8363,10 +8378,10 @@
       <c r="AJ87" s="9" t="n">
         <v>85</v>
       </c>
-      <c r="AK87" s="16" t="s">
+      <c r="AK87" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="AL87" s="31" t="n">
+      <c r="AL87" s="32" t="n">
         <v>312</v>
       </c>
     </row>
@@ -8519,7 +8534,7 @@
       <c r="AJ89" s="9" t="n">
         <v>88</v>
       </c>
-      <c r="AK89" s="16" t="s">
+      <c r="AK89" s="28" t="s">
         <v>341</v>
       </c>
       <c r="AL89" s="9" t="n">
@@ -8554,7 +8569,7 @@
         <v>4</v>
       </c>
       <c r="K90" s="11"/>
-      <c r="L90" s="34"/>
+      <c r="L90" s="35"/>
       <c r="M90" s="9" t="s">
         <v>344</v>
       </c>
@@ -8578,7 +8593,7 @@
       <c r="W90" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="X90" s="35" t="s">
+      <c r="X90" s="36" t="s">
         <v>346</v>
       </c>
       <c r="Y90" s="9"/>
@@ -8662,7 +8677,7 @@
       <c r="W91" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="X91" s="35" t="s">
+      <c r="X91" s="36" t="s">
         <v>346</v>
       </c>
       <c r="Y91" s="9"/>
@@ -8744,7 +8759,7 @@
       <c r="W92" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="X92" s="35" t="s">
+      <c r="X92" s="36" t="s">
         <v>346</v>
       </c>
       <c r="Y92" s="9"/>
@@ -8846,7 +8861,7 @@
         <v>92</v>
       </c>
       <c r="AK93" s="9"/>
-      <c r="AL93" s="31" t="n">
+      <c r="AL93" s="32" t="n">
         <v>312</v>
       </c>
     </row>
@@ -8863,13 +8878,13 @@
       <c r="D94" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E94" s="31" t="s">
+      <c r="E94" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="F94" s="31" t="s">
+      <c r="F94" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="G94" s="31" t="s">
+      <c r="G94" s="32" t="s">
         <v>359</v>
       </c>
       <c r="H94" s="9" t="s">
@@ -8882,7 +8897,7 @@
       <c r="K94" s="11"/>
       <c r="L94" s="11"/>
       <c r="M94" s="9"/>
-      <c r="N94" s="36"/>
+      <c r="N94" s="37"/>
       <c r="O94" s="14"/>
       <c r="P94" s="14"/>
       <c r="Q94" s="9"/>
@@ -8909,7 +8924,7 @@
       <c r="AJ94" s="9" t="n">
         <v>93</v>
       </c>
-      <c r="AK94" s="16" t="s">
+      <c r="AK94" s="28" t="s">
         <v>363</v>
       </c>
       <c r="AL94" s="9"/>
@@ -8927,13 +8942,13 @@
       <c r="D95" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E95" s="31" t="s">
+      <c r="E95" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="F95" s="31" t="s">
+      <c r="F95" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="G95" s="31" t="s">
+      <c r="G95" s="32" t="s">
         <v>366</v>
       </c>
       <c r="H95" s="9" t="s">
@@ -8948,10 +8963,10 @@
       <c r="M95" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="N95" s="37" t="s">
+      <c r="N95" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="O95" s="38"/>
+      <c r="O95" s="39"/>
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
       <c r="R95" s="9" t="s">
@@ -8995,13 +9010,13 @@
       <c r="D96" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E96" s="31" t="s">
+      <c r="E96" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="F96" s="31" t="s">
+      <c r="F96" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="G96" s="31" t="s">
+      <c r="G96" s="32" t="s">
         <v>366</v>
       </c>
       <c r="H96" s="9" t="s">
@@ -9016,10 +9031,10 @@
       <c r="M96" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="N96" s="37" t="s">
+      <c r="N96" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="O96" s="38"/>
+      <c r="O96" s="39"/>
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
       <c r="R96" s="9" t="s">
@@ -9063,13 +9078,13 @@
       <c r="D97" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E97" s="31" t="s">
+      <c r="E97" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="F97" s="31" t="s">
+      <c r="F97" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="G97" s="31" t="s">
+      <c r="G97" s="32" t="s">
         <v>366</v>
       </c>
       <c r="H97" s="9" t="s">
@@ -9084,10 +9099,10 @@
       <c r="M97" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="N97" s="37" t="s">
+      <c r="N97" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="O97" s="38"/>
+      <c r="O97" s="39"/>
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
       <c r="R97" s="9" t="s">
@@ -9131,13 +9146,13 @@
       <c r="D98" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E98" s="31" t="s">
+      <c r="E98" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="F98" s="31" t="s">
+      <c r="F98" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="G98" s="31" t="s">
+      <c r="G98" s="32" t="s">
         <v>366</v>
       </c>
       <c r="H98" s="9" t="s">
@@ -9152,10 +9167,10 @@
       <c r="M98" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="N98" s="37" t="s">
+      <c r="N98" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="O98" s="38"/>
+      <c r="O98" s="39"/>
       <c r="P98" s="9"/>
       <c r="Q98" s="9"/>
       <c r="R98" s="9" t="s">
@@ -9199,13 +9214,13 @@
       <c r="D99" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E99" s="31" t="s">
+      <c r="E99" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="F99" s="31" t="s">
+      <c r="F99" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="G99" s="31" t="s">
+      <c r="G99" s="32" t="s">
         <v>376</v>
       </c>
       <c r="H99" s="9" t="s">
@@ -9218,7 +9233,7 @@
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
       <c r="M99" s="9"/>
-      <c r="N99" s="39" t="s">
+      <c r="N99" s="40" t="s">
         <v>378</v>
       </c>
       <c r="O99" s="9"/>
@@ -9234,7 +9249,7 @@
       <c r="W99" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="X99" s="16" t="s">
+      <c r="X99" s="28" t="s">
         <v>380</v>
       </c>
       <c r="Y99" s="9"/>
@@ -9267,13 +9282,13 @@
       <c r="D100" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E100" s="31" t="s">
+      <c r="E100" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="F100" s="31" t="s">
+      <c r="F100" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="G100" s="31" t="s">
+      <c r="G100" s="32" t="s">
         <v>383</v>
       </c>
       <c r="H100" s="9" t="s">
@@ -9300,7 +9315,7 @@
       <c r="U100" s="9"/>
       <c r="V100" s="9"/>
       <c r="W100" s="9"/>
-      <c r="X100" s="16" t="s">
+      <c r="X100" s="28" t="s">
         <v>386</v>
       </c>
       <c r="Y100" s="9"/>
@@ -9333,13 +9348,13 @@
       <c r="D101" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E101" s="31" t="s">
+      <c r="E101" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="F101" s="31" t="s">
+      <c r="F101" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="G101" s="31" t="s">
+      <c r="G101" s="32" t="s">
         <v>389</v>
       </c>
       <c r="H101" s="9" t="s">
@@ -9366,7 +9381,7 @@
       <c r="U101" s="9"/>
       <c r="V101" s="9"/>
       <c r="W101" s="9"/>
-      <c r="X101" s="16" t="s">
+      <c r="X101" s="28" t="s">
         <v>386</v>
       </c>
       <c r="Y101" s="9"/>
@@ -9399,13 +9414,13 @@
       <c r="D102" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E102" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="F102" s="31" t="s">
+      <c r="F102" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="G102" s="31" t="s">
+      <c r="G102" s="32" t="s">
         <v>393</v>
       </c>
       <c r="H102" s="9" t="s">
@@ -9420,7 +9435,7 @@
       <c r="M102" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="N102" s="16" t="s">
+      <c r="N102" s="28" t="s">
         <v>395</v>
       </c>
       <c r="O102" s="9"/>
@@ -9449,7 +9464,7 @@
       <c r="AJ102" s="9" t="n">
         <v>102</v>
       </c>
-      <c r="AK102" s="16" t="s">
+      <c r="AK102" s="28" t="s">
         <v>396</v>
       </c>
       <c r="AL102" s="9"/>
@@ -9467,13 +9482,13 @@
       <c r="D103" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E103" s="31" t="s">
+      <c r="E103" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="F103" s="31" t="s">
+      <c r="F103" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="G103" s="31" t="s">
+      <c r="G103" s="32" t="s">
         <v>393</v>
       </c>
       <c r="H103" s="9" t="s">
@@ -9488,7 +9503,7 @@
       <c r="M103" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="N103" s="40" t="s">
+      <c r="N103" s="41" t="s">
         <v>397</v>
       </c>
       <c r="O103" s="9"/>
@@ -9517,7 +9532,7 @@
       <c r="AJ103" s="9" t="n">
         <v>104</v>
       </c>
-      <c r="AK103" s="16" t="s">
+      <c r="AK103" s="28" t="s">
         <v>398</v>
       </c>
       <c r="AL103" s="9"/>
@@ -9535,11 +9550,11 @@
       <c r="D104" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31" t="s">
+      <c r="E104" s="32"/>
+      <c r="F104" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="G104" s="31" t="s">
+      <c r="G104" s="32" t="s">
         <v>400</v>
       </c>
       <c r="H104" s="9" t="s">
@@ -9552,7 +9567,7 @@
       <c r="K104" s="11"/>
       <c r="L104" s="11"/>
       <c r="M104" s="9"/>
-      <c r="N104" s="40"/>
+      <c r="N104" s="41"/>
       <c r="O104" s="9"/>
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\0212\PoS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDE0294-03AF-46B4-BA49-B73C95130378}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5D8085-906C-45AD-A2FD-D9A631CDD3AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AN$103</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AN$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -917,9 +917,6 @@
     <t>0.2, 0.11</t>
   </si>
   <si>
-    <t>Dobry 0.2, SS_Dobry 0.2</t>
-  </si>
-  <si>
     <t>Cashier Displays Dobry 0.2 Zone</t>
   </si>
   <si>
@@ -932,9 +929,6 @@
     <t>NUM_SCENES</t>
   </si>
   <si>
-    <t>Dobry 0.2_Zone, SS_Dobry 0.2_Zone</t>
-  </si>
-  <si>
     <t>Calculate only if passed KPI Cashier Displays Dobry 0.2</t>
   </si>
   <si>
@@ -950,16 +944,10 @@
     <t>5449000008046, 5449000020987, 5449000239655, 5449000000729, 5449000000712</t>
   </si>
   <si>
-    <t>Entry_Pack, SS_Dobry 0.2_Zone</t>
-  </si>
-  <si>
     <t>Cashier Displays Entry Pack Zone</t>
   </si>
   <si>
     <t>Прикассовый дисплеи Entry Pack Зона</t>
-  </si>
-  <si>
-    <t>Entry_PacK_ Zone, SS_Dobry 0.2_Zone</t>
   </si>
   <si>
     <t>Calculate only if passed KPI Cashier Displays Entry Pack</t>
@@ -1106,9 +1094,6 @@
     <t>Coca-Cola</t>
   </si>
   <si>
-    <t>SSD 1 door, SSD 1.5 door, Mixed 1 door, Mixed  1.5 door, SS_SSD 1 door, SS_SSD 1.5 door, SS_Mixed 1 door, SS_Mixed  1.5 door</t>
-  </si>
-  <si>
     <t>Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3</t>
   </si>
   <si>
@@ -1129,9 +1114,6 @@
   </si>
   <si>
     <t>Fuzetea</t>
-  </si>
-  <si>
-    <t>SSD 1 door, NCB 1 door, Mixed 1 door, SSD 1.5 door, NSB  1.5 door, Mixed  1.5 door, SSDFL 1 door, SSDFL 1.5 door, SS_SSD 1 door, SS_NCB 1 door, SS_Mixed 1 door, SS_SSD 1.5 door, SS_NSB  1.5 door, SS_Mixed  1.5 door, SS_SSDFL 1 door, SS_SSDFL 1.5 door</t>
   </si>
   <si>
     <t>2,3</t>
@@ -1240,9 +1222,6 @@
     <t>SCENE LEVEL</t>
   </si>
   <si>
-    <t>SSD 1 door, NSB 1 door, Mixed 1 door, FC 1 door, SSD 1.5 door, NSB  1.5 door, Mixed  1.5 door, FC door 1.5 door</t>
-  </si>
-  <si>
     <t>Attribute 1</t>
   </si>
   <si>
@@ -1256,9 +1235,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Freezer BIG SSD, SSD Cooler-Side Rack Big, SSD Cooler-Side Rack Small, SSD Mini pallet, SSD Neck-hanging Rack, Freezer Small SSD, Other SSD Display BIG, Other SSD Display Small, Juice Cooler-Side Rack, Juice Freezer, Juice Mini Pallet, Other Juice Display BIG, Pulpy Cooler-Side Rack, Pulpy Other, Other Juice Display Small, Bonaqua Display, Fuzetea Display, Energy Display, Promo SSD, Promo Juice, Promo Water, Promo Energy, Promo Fuzetea</t>
   </si>
   <si>
     <t>Scene Sub Type 1</t>
@@ -1311,12 +1287,6 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Panoramic Photo, SS_Panoramic Photo</t>
-  </si>
-  <si>
-    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Traditional Trade</t>
-  </si>
-  <si>
     <t>Category KPI Type</t>
   </si>
   <si>
@@ -1327,6 +1297,36 @@
   </si>
   <si>
     <t>Schweppes Bitter Lemon - 0.9/1L</t>
+  </si>
+  <si>
+    <t>Panoramic Photo; SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Dobry 0.2; SS_Dobry 0.2</t>
+  </si>
+  <si>
+    <t>Dobry 0.2_Zone; SS_Dobry 0.2_Zone</t>
+  </si>
+  <si>
+    <t>Entry_Pack; SS_Dobry 0.2_Zone</t>
+  </si>
+  <si>
+    <t>Entry_PacK_ Zone; SS_Dobry 0.2_Zone</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler; SS_Panoramic photo of Cooler - Traditional Trade</t>
+  </si>
+  <si>
+    <t>SSD 1 door; SSD 1.5 door; Mixed 1 door; Mixed  1.5 door; SS_SSD 1 door; SS_SSD 1.5 door; SS_Mixed 1 door; SS_Mixed  1.5 door</t>
+  </si>
+  <si>
+    <t>SSD 1 door; NCB 1 door; Mixed 1 door; SSD 1.5 door; NSB  1.5 door; Mixed  1.5 door; SSDFL 1 door; SSDFL 1.5 door; SS_SSD 1 door; SS_NCB 1 door; SS_Mixed 1 door; SS_SSD 1.5 door; SS_NSB  1.5 door; SS_Mixed  1.5 door; SS_SSDFL 1 door; SS_SSDFL 1.5 door</t>
+  </si>
+  <si>
+    <t>SSD 1 door; NSB 1 door; Mixed 1 door; FC 1 door; SSD 1.5 door; NSB  1.5 door; Mixed  1.5 door; FC door 1.5 door</t>
+  </si>
+  <si>
+    <t>Freezer BIG SSD; SSD Cooler-Side Rack Big; SSD Cooler-Side Rack Small; SSD Mini pallet; SSD Neck-hanging Rack; Freezer Small SSD; Other SSD Display BIG; Other SSD Display Small; Juice Cooler-Side Rack; Juice Freezer; Juice Mini Pallet; Other Juice Display BIG; Pulpy Cooler-Side Rack; Pulpy Other; Other Juice Display Small; Bonaqua Display; Fuzetea Display; Energy Display; Promo SSD; Promo Juice; Promo Water; Promo Energy; Promo Fuzetea</t>
   </si>
 </sst>
 </file>
@@ -1823,58 +1823,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML103"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="I1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="T1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="O18:P18"/>
+      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="3"/>
-    <col min="2" max="2" width="15.5703125" style="3"/>
-    <col min="3" max="3" width="25.7109375" style="3"/>
+    <col min="1" max="1" width="13.6640625" style="3"/>
+    <col min="2" max="2" width="15.5546875" style="3"/>
+    <col min="3" max="3" width="25.6640625" style="3"/>
     <col min="4" max="4" width="15" style="3"/>
-    <col min="5" max="5" width="20.85546875" style="3"/>
-    <col min="6" max="6" width="64.28515625" style="3"/>
-    <col min="7" max="7" width="91.7109375" style="3"/>
-    <col min="8" max="8" width="58.28515625" style="3"/>
+    <col min="5" max="5" width="20.88671875" style="3"/>
+    <col min="6" max="6" width="64.33203125" style="3"/>
+    <col min="7" max="7" width="91.6640625" style="3"/>
+    <col min="8" max="8" width="58.33203125" style="3"/>
     <col min="9" max="9" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="3"/>
-    <col min="12" max="12" width="12.42578125" style="3"/>
-    <col min="13" max="13" width="18.140625" style="3"/>
-    <col min="14" max="14" width="19.28515625" style="3"/>
-    <col min="15" max="15" width="31.140625" style="3"/>
-    <col min="16" max="16" width="97.28515625" style="3"/>
+    <col min="10" max="10" width="25.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="3"/>
+    <col min="12" max="12" width="12.44140625" style="3"/>
+    <col min="13" max="13" width="18.109375" style="3"/>
+    <col min="14" max="14" width="19.33203125" style="3"/>
+    <col min="15" max="15" width="31.109375" style="3"/>
+    <col min="16" max="16" width="97.33203125" style="3"/>
     <col min="17" max="17" width="27" style="3"/>
-    <col min="18" max="18" width="13.28515625" style="3"/>
+    <col min="18" max="18" width="13.33203125" style="3"/>
     <col min="19" max="19" width="26" style="3"/>
-    <col min="20" max="20" width="18.5703125" style="3"/>
-    <col min="21" max="21" width="10.7109375" style="3"/>
-    <col min="22" max="22" width="19.7109375" style="3"/>
-    <col min="23" max="23" width="24.140625" style="3"/>
-    <col min="24" max="24" width="30.85546875" style="3"/>
-    <col min="25" max="25" width="29.85546875" style="3"/>
-    <col min="26" max="26" width="65.28515625" style="3"/>
-    <col min="27" max="27" width="32.28515625" style="3"/>
-    <col min="28" max="28" width="34.7109375" style="3"/>
+    <col min="20" max="20" width="18.5546875" style="3"/>
+    <col min="21" max="21" width="10.6640625" style="3"/>
+    <col min="22" max="22" width="19.6640625" style="3"/>
+    <col min="23" max="23" width="24.109375" style="3"/>
+    <col min="24" max="24" width="30.88671875" style="3"/>
+    <col min="25" max="25" width="29.88671875" style="3"/>
+    <col min="26" max="26" width="65.33203125" style="3"/>
+    <col min="27" max="27" width="32.33203125" style="3"/>
+    <col min="28" max="28" width="34.6640625" style="3"/>
     <col min="29" max="29" width="36" style="3"/>
-    <col min="30" max="31" width="21.5703125" style="3"/>
-    <col min="32" max="32" width="18.140625" style="3"/>
-    <col min="33" max="33" width="17.28515625" style="3"/>
-    <col min="34" max="34" width="17.7109375" style="3"/>
-    <col min="35" max="35" width="33.28515625" style="3"/>
-    <col min="36" max="36" width="114.28515625" style="3"/>
-    <col min="37" max="37" width="10.28515625" style="3"/>
+    <col min="30" max="31" width="21.5546875" style="3"/>
+    <col min="32" max="32" width="18.109375" style="3"/>
+    <col min="33" max="33" width="17.33203125" style="3"/>
+    <col min="34" max="34" width="17.6640625" style="3"/>
+    <col min="35" max="35" width="33.33203125" style="3"/>
+    <col min="36" max="36" width="114.33203125" style="3"/>
+    <col min="37" max="37" width="10.33203125" style="3"/>
     <col min="38" max="38" width="12" style="3"/>
-    <col min="39" max="39" width="14.7109375" style="3"/>
-    <col min="40" max="40" width="13.140625" style="3"/>
+    <col min="39" max="39" width="14.6640625" style="3"/>
+    <col min="40" max="40" width="13.109375" style="3"/>
     <col min="41" max="1026" width="12" style="3"/>
-    <col min="1027" max="16384" width="8.85546875" style="4"/>
+    <col min="1027" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1025" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1900,10 +1900,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1996,7 +1996,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3045,7 +3045,7 @@
       <c r="AMJ2" s="4"/>
       <c r="AMK2" s="4"/>
     </row>
-    <row r="3" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -3199,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3254,7 +3254,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3335,7 +3335,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3497,7 +3497,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -3523,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -3604,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3659,7 +3659,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -3685,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3740,7 +3740,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3821,7 +3821,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -3928,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -4009,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -4090,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4145,7 +4145,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -4171,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -4252,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4285,10 +4285,10 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="9" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -4307,7 +4307,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4469,7 +4469,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4631,7 +4631,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>28</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>29</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -4811,7 +4811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>30</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -4892,7 +4892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>31</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -4973,7 +4973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>32</v>
       </c>
@@ -5028,7 +5028,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -5054,7 +5054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>35</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>36</v>
       </c>
@@ -5182,7 +5182,7 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -5208,7 +5208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>37</v>
       </c>
@@ -5263,7 +5263,7 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -5289,7 +5289,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>38</v>
       </c>
@@ -5344,7 +5344,7 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -5370,7 +5370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>39</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
@@ -5451,7 +5451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>40</v>
       </c>
@@ -5506,7 +5506,7 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
@@ -5532,7 +5532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>42</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>43</v>
       </c>
@@ -5660,7 +5660,7 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
@@ -5686,7 +5686,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>44</v>
       </c>
@@ -5741,7 +5741,7 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
@@ -5767,7 +5767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
@@ -5848,7 +5848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>46</v>
       </c>
@@ -5903,7 +5903,7 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
@@ -5929,7 +5929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>49</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>50</v>
       </c>
@@ -6056,7 +6056,7 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
@@ -6082,7 +6082,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>51</v>
       </c>
@@ -6136,7 +6136,7 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
@@ -6162,7 +6162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>52</v>
       </c>
@@ -6216,7 +6216,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
@@ -6242,7 +6242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>53</v>
       </c>
@@ -6296,7 +6296,7 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
@@ -6322,7 +6322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>54</v>
       </c>
@@ -6376,7 +6376,7 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
@@ -6402,7 +6402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>55</v>
       </c>
@@ -6456,7 +6456,7 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
@@ -6482,7 +6482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>56</v>
       </c>
@@ -6536,7 +6536,7 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
@@ -6562,7 +6562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>57</v>
       </c>
@@ -6616,7 +6616,7 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
@@ -6642,7 +6642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>58</v>
       </c>
@@ -6696,7 +6696,7 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
       <c r="AA48" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
@@ -6722,7 +6722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>59</v>
       </c>
@@ -6776,7 +6776,7 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
       <c r="AA49" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
@@ -6802,7 +6802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>62</v>
       </c>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="AN50" s="4"/>
     </row>
-    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>63</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>64</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>65</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>66</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>67</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>68</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>69</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>70</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>71</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>72</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>73</v>
       </c>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="AN61" s="4"/>
     </row>
-    <row r="62" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>74</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="63" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>75</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>76</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>77</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>78</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>80</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="68" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>81</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>82</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>83</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>84</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>85</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>86</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="74" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>87</v>
       </c>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="Y74" s="4"/>
       <c r="Z74" s="3" t="s">
-        <v>273</v>
+        <v>394</v>
       </c>
       <c r="AA74" s="4"/>
       <c r="AD74" s="4"/>
@@ -8361,7 +8361,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>88</v>
       </c>
@@ -8374,13 +8374,13 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="3">
@@ -8393,11 +8393,11 @@
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
       <c r="T75" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y75" s="4"/>
       <c r="Z75" s="3" t="s">
-        <v>278</v>
+        <v>395</v>
       </c>
       <c r="AA75" s="4"/>
       <c r="AD75" s="4"/>
@@ -8409,7 +8409,7 @@
         <v>268</v>
       </c>
       <c r="AJ75" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AK75" s="3">
         <v>3</v>
@@ -8422,7 +8422,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>89</v>
       </c>
@@ -8435,10 +8435,10 @@
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>51</v>
@@ -8450,10 +8450,10 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R76" s="4"/>
       <c r="S76" s="3" t="s">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="Y76" s="4"/>
       <c r="Z76" s="3" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="AA76" s="4"/>
       <c r="AD76" s="4"/>
@@ -8485,7 +8485,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>90</v>
       </c>
@@ -8498,13 +8498,13 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="3">
@@ -8517,11 +8517,11 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
       <c r="T77" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y77" s="4"/>
       <c r="Z77" s="3" t="s">
-        <v>287</v>
+        <v>397</v>
       </c>
       <c r="AA77" s="4"/>
       <c r="AD77" s="4"/>
@@ -8530,10 +8530,10 @@
       </c>
       <c r="AF77" s="4"/>
       <c r="AI77" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AJ77" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AK77" s="3">
         <v>3</v>
@@ -8546,7 +8546,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>91</v>
       </c>
@@ -8561,10 +8561,10 @@
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>40</v>
@@ -8593,11 +8593,11 @@
         <v>310</v>
       </c>
       <c r="AM78" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AN78" s="4"/>
     </row>
-    <row r="79" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>92</v>
       </c>
@@ -8612,10 +8612,10 @@
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>40</v>
@@ -8650,7 +8650,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>93</v>
       </c>
@@ -8664,16 +8664,16 @@
         <v>40</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -8683,7 +8683,7 @@
       <c r="P80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="T80" s="4"/>
       <c r="Y80" s="4"/>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="AI80" s="4"/>
       <c r="AJ80" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AK80" s="3">
         <v>2</v>
@@ -8707,13 +8707,13 @@
         <v>79</v>
       </c>
       <c r="AM80" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AN80" s="3">
         <v>311</v>
       </c>
     </row>
-    <row r="81" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>94</v>
       </c>
@@ -8727,16 +8727,16 @@
         <v>40</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="3">
@@ -8747,18 +8747,18 @@
       </c>
       <c r="N81" s="4"/>
       <c r="O81" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
       <c r="T81" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Y81" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
@@ -8768,10 +8768,10 @@
       </c>
       <c r="AF81" s="4"/>
       <c r="AI81" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AJ81" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AK81" s="3">
         <v>3</v>
@@ -8784,7 +8784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>96</v>
       </c>
@@ -8798,16 +8798,16 @@
         <v>40</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="3">
@@ -8819,15 +8819,15 @@
         <v>201</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
       <c r="T82" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Y82" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
@@ -8849,7 +8849,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>97</v>
       </c>
@@ -8864,10 +8864,10 @@
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>40</v>
@@ -8896,13 +8896,13 @@
         <v>312</v>
       </c>
       <c r="AM83" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AN83" s="3">
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>98</v>
       </c>
@@ -8919,13 +8919,13 @@
         <v>263</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="3">
@@ -8935,15 +8935,15 @@
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
       <c r="T84" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y84" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Z84" s="3" t="s">
         <v>398</v>
@@ -8957,10 +8957,10 @@
         <v>0.03</v>
       </c>
       <c r="AI84" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AJ84" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK84" s="3">
         <v>2</v>
@@ -8973,7 +8973,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="85" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>99</v>
       </c>
@@ -8990,13 +8990,13 @@
         <v>263</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -9007,18 +9007,18 @@
         <v>15</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
       <c r="T85" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Y85" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Z85" s="4"/>
       <c r="AD85" s="4"/>
@@ -9029,10 +9029,10 @@
         <v>0.03</v>
       </c>
       <c r="AI85" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AJ85" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK85" s="3">
         <v>2</v>
@@ -9045,7 +9045,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="86" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>100</v>
       </c>
@@ -9062,10 +9062,10 @@
         <v>263</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>47</v>
@@ -9080,7 +9080,7 @@
       </c>
       <c r="T86" s="4"/>
       <c r="Y86" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Z86" s="4"/>
       <c r="AD86" s="4"/>
@@ -9091,10 +9091,10 @@
         <v>0.03</v>
       </c>
       <c r="AI86" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AJ86" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK86" s="3">
         <v>2</v>
@@ -9103,13 +9103,13 @@
         <v>85</v>
       </c>
       <c r="AM86" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AN86" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="87" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>101</v>
       </c>
@@ -9124,26 +9124,26 @@
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="3">
         <v>0.4</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="S87" s="3" t="s">
         <v>54</v>
@@ -9152,10 +9152,10 @@
         <v>271</v>
       </c>
       <c r="Y87" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Z87" s="3" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="AD87" s="4"/>
       <c r="AE87" s="3" t="s">
@@ -9163,10 +9163,10 @@
       </c>
       <c r="AF87" s="4"/>
       <c r="AI87" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AJ87" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK87" s="3">
         <v>3</v>
@@ -9179,7 +9179,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>102</v>
       </c>
@@ -9194,10 +9194,10 @@
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>240</v>
@@ -9214,7 +9214,7 @@
       </c>
       <c r="T88" s="4"/>
       <c r="Y88" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Z88" s="4"/>
       <c r="AD88" s="4"/>
@@ -9223,10 +9223,10 @@
       </c>
       <c r="AF88" s="4"/>
       <c r="AI88" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AJ88" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK88" s="3">
         <v>3</v>
@@ -9235,13 +9235,13 @@
         <v>88</v>
       </c>
       <c r="AM88" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AN88" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>103</v>
       </c>
@@ -9256,10 +9256,10 @@
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>51</v>
@@ -9269,13 +9269,13 @@
         <v>4</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="R89" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>54</v>
@@ -9284,23 +9284,23 @@
         <v>271</v>
       </c>
       <c r="Y89" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Z89" s="6" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="AD89" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AE89" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AF89" s="4"/>
       <c r="AI89" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AJ89" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK89" s="3">
         <v>4</v>
@@ -9313,7 +9313,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>104</v>
       </c>
@@ -9328,10 +9328,10 @@
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>51</v>
@@ -9341,13 +9341,13 @@
         <v>4</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="S90" s="3" t="s">
         <v>54</v>
@@ -9356,23 +9356,23 @@
         <v>271</v>
       </c>
       <c r="Y90" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Z90" s="6" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="AD90" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AE90" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AF90" s="4"/>
       <c r="AI90" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AJ90" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK90" s="3">
         <v>4</v>
@@ -9385,7 +9385,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>105</v>
       </c>
@@ -9400,13 +9400,13 @@
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="3">
@@ -9416,29 +9416,29 @@
         <v>201</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>54</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Y91" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Z91" s="6" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="AE91" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AF91" s="4"/>
       <c r="AI91" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AJ91" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK91" s="3">
         <v>3</v>
@@ -9451,7 +9451,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>106</v>
       </c>
@@ -9468,24 +9468,24 @@
         <v>263</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Y92" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Z92" s="4"/>
       <c r="AE92" s="3" t="s">
@@ -9495,10 +9495,10 @@
         <v>0.03</v>
       </c>
       <c r="AI92" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AJ92" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK92" s="3">
         <v>2</v>
@@ -9511,7 +9511,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="93" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>107</v>
       </c>
@@ -9522,27 +9522,27 @@
         <v>39</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="T93" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
@@ -9550,10 +9550,10 @@
         <v>93</v>
       </c>
       <c r="AM93" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>108</v>
       </c>
@@ -9564,31 +9564,31 @@
         <v>39</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="T94" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="P94" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
@@ -9599,7 +9599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>109</v>
       </c>
@@ -9610,31 +9610,31 @@
         <v>39</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="T95" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="O95" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="P95" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="T95" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
@@ -9645,7 +9645,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>110</v>
       </c>
@@ -9656,31 +9656,31 @@
         <v>39</v>
       </c>
       <c r="D96" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="T96" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="O96" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="P96" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="T96" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
@@ -9691,7 +9691,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>111</v>
       </c>
@@ -9702,31 +9702,31 @@
         <v>39</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="T97" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="P97" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="T97" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
@@ -9737,7 +9737,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>112</v>
       </c>
@@ -9748,42 +9748,42 @@
         <v>39</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="O98" s="4"/>
       <c r="P98" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Y98" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Z98" s="6" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="AL98" s="3">
         <v>98</v>
       </c>
       <c r="AM98" s="4"/>
     </row>
-    <row r="99" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>113</v>
       </c>
@@ -9794,39 +9794,39 @@
         <v>39</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="O99" s="4"/>
       <c r="P99" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Z99" s="6" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="AL99" s="3">
         <v>99</v>
       </c>
       <c r="AM99" s="4"/>
     </row>
-    <row r="100" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>114</v>
       </c>
@@ -9837,39 +9837,39 @@
         <v>39</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="O100" s="4"/>
       <c r="P100" s="3" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Z100" s="6" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="AL100" s="3">
         <v>101</v>
       </c>
       <c r="AM100" s="4"/>
     </row>
-    <row r="101" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>115</v>
       </c>
@@ -9880,40 +9880,40 @@
         <v>39</v>
       </c>
       <c r="D101" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="T101" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="P101" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="AL101" s="3">
         <v>102</v>
       </c>
       <c r="AM101" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="102" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>116</v>
       </c>
@@ -9924,40 +9924,40 @@
         <v>39</v>
       </c>
       <c r="D102" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="P102" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="AL102" s="3">
         <v>104</v>
       </c>
       <c r="AM102" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="103" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>117</v>
       </c>
@@ -9968,22 +9968,22 @@
         <v>39</v>
       </c>
       <c r="D103" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="T103" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="T103" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="AL103" s="3">
         <v>521</v>
